--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/OKLA/NANOMILK 4_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/OKLA/NANOMILK 4_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="3"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -2278,346 +2278,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="30" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="30" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2648,21 +2312,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2674,12 +2323,6 @@
     <xf numFmtId="9" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2694,12 +2337,6 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2722,6 +2359,369 @@
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3141,16 +3141,16 @@
       <c r="Q2" s="163"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="348" t="s">
+      <c r="A3" s="365" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="348"/>
-      <c r="C3" s="348"/>
-      <c r="D3" s="348"/>
-      <c r="E3" s="348"/>
-      <c r="F3" s="348"/>
-      <c r="G3" s="348"/>
-      <c r="H3" s="348"/>
+      <c r="B3" s="365"/>
+      <c r="C3" s="365"/>
+      <c r="D3" s="365"/>
+      <c r="E3" s="365"/>
+      <c r="F3" s="365"/>
+      <c r="G3" s="365"/>
+      <c r="H3" s="365"/>
       <c r="I3" s="164"/>
       <c r="J3" s="164"/>
       <c r="K3" s="164"/>
@@ -3162,32 +3162,32 @@
       <c r="Q3" s="164"/>
     </row>
     <row r="4" spans="1:17" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="336" t="s">
+      <c r="A4" s="366" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="333" t="s">
+      <c r="B4" s="371" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="336" t="s">
+      <c r="C4" s="366" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="338" t="s">
+      <c r="D4" s="368" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="340" t="s">
+      <c r="E4" s="370" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="G4" s="340" t="s">
+      <c r="F4" s="370"/>
+      <c r="G4" s="370" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="340"/>
+      <c r="H4" s="370"/>
     </row>
     <row r="5" spans="1:17" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="337"/>
-      <c r="B5" s="334"/>
-      <c r="C5" s="337"/>
-      <c r="D5" s="339"/>
+      <c r="A5" s="367"/>
+      <c r="B5" s="372"/>
+      <c r="C5" s="367"/>
+      <c r="D5" s="369"/>
       <c r="E5" s="165" t="s">
         <v>184</v>
       </c>
@@ -4539,12 +4539,12 @@
       </c>
     </row>
     <row r="73" spans="1:10" s="171" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="345" t="s">
+      <c r="A73" s="362" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="346"/>
-      <c r="C73" s="346"/>
-      <c r="D73" s="347"/>
+      <c r="B73" s="363"/>
+      <c r="C73" s="363"/>
+      <c r="D73" s="364"/>
       <c r="E73" s="170">
         <f>SUM(E6:E72)</f>
         <v>67587700</v>
@@ -4575,11 +4575,11 @@
       <c r="J74" s="172"/>
     </row>
     <row r="75" spans="1:10" s="171" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="344" t="s">
+      <c r="A75" s="373" t="s">
         <v>196</v>
       </c>
-      <c r="B75" s="344"/>
-      <c r="C75" s="344"/>
+      <c r="B75" s="373"/>
+      <c r="C75" s="373"/>
       <c r="D75" s="173"/>
       <c r="E75" s="174"/>
       <c r="F75" s="174"/>
@@ -4590,10 +4590,10 @@
     <row r="76" spans="1:10" s="171" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="173"/>
       <c r="B76" s="173"/>
-      <c r="C76" s="343" t="s">
+      <c r="C76" s="374" t="s">
         <v>272</v>
       </c>
-      <c r="D76" s="343"/>
+      <c r="D76" s="374"/>
       <c r="E76" s="174"/>
       <c r="F76" s="174"/>
       <c r="G76" s="174"/>
@@ -4601,32 +4601,32 @@
       <c r="J76" s="172"/>
     </row>
     <row r="77" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="336" t="s">
+      <c r="A77" s="366" t="s">
         <v>4</v>
       </c>
-      <c r="B77" s="333" t="s">
+      <c r="B77" s="371" t="s">
         <v>215</v>
       </c>
-      <c r="C77" s="336" t="s">
+      <c r="C77" s="366" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="338" t="s">
+      <c r="D77" s="368" t="s">
         <v>6</v>
       </c>
-      <c r="E77" s="340" t="s">
+      <c r="E77" s="370" t="s">
         <v>7</v>
       </c>
-      <c r="F77" s="340"/>
-      <c r="G77" s="340" t="s">
+      <c r="F77" s="370"/>
+      <c r="G77" s="370" t="s">
         <v>8</v>
       </c>
-      <c r="H77" s="340"/>
+      <c r="H77" s="370"/>
     </row>
     <row r="78" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="337"/>
-      <c r="B78" s="334"/>
-      <c r="C78" s="337"/>
-      <c r="D78" s="339"/>
+      <c r="A78" s="367"/>
+      <c r="B78" s="372"/>
+      <c r="C78" s="367"/>
+      <c r="D78" s="369"/>
       <c r="E78" s="165" t="s">
         <v>184</v>
       </c>
@@ -4697,10 +4697,10 @@
     <row r="82" spans="1:10" s="171" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="173"/>
       <c r="B82" s="173"/>
-      <c r="C82" s="343" t="s">
+      <c r="C82" s="374" t="s">
         <v>273</v>
       </c>
-      <c r="D82" s="343"/>
+      <c r="D82" s="374"/>
       <c r="E82" s="174"/>
       <c r="F82" s="174"/>
       <c r="G82" s="174"/>
@@ -4708,32 +4708,32 @@
       <c r="J82" s="172"/>
     </row>
     <row r="83" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="336" t="s">
+      <c r="A83" s="366" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="333" t="s">
+      <c r="B83" s="371" t="s">
         <v>215</v>
       </c>
-      <c r="C83" s="336" t="s">
+      <c r="C83" s="366" t="s">
         <v>5</v>
       </c>
-      <c r="D83" s="338" t="s">
+      <c r="D83" s="368" t="s">
         <v>6</v>
       </c>
-      <c r="E83" s="340" t="s">
+      <c r="E83" s="370" t="s">
         <v>7</v>
       </c>
-      <c r="F83" s="340"/>
-      <c r="G83" s="340" t="s">
+      <c r="F83" s="370"/>
+      <c r="G83" s="370" t="s">
         <v>8</v>
       </c>
-      <c r="H83" s="340"/>
+      <c r="H83" s="370"/>
     </row>
     <row r="84" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="337"/>
-      <c r="B84" s="334"/>
-      <c r="C84" s="337"/>
-      <c r="D84" s="339"/>
+      <c r="A84" s="367"/>
+      <c r="B84" s="372"/>
+      <c r="C84" s="367"/>
+      <c r="D84" s="369"/>
       <c r="E84" s="165" t="s">
         <v>184</v>
       </c>
@@ -4785,10 +4785,10 @@
     <row r="87" spans="1:10" s="171" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="173"/>
       <c r="B87" s="173"/>
-      <c r="C87" s="335" t="s">
+      <c r="C87" s="375" t="s">
         <v>24</v>
       </c>
-      <c r="D87" s="335"/>
+      <c r="D87" s="375"/>
       <c r="E87" s="174"/>
       <c r="F87" s="174"/>
       <c r="G87" s="174"/>
@@ -4796,32 +4796,32 @@
       <c r="J87" s="172"/>
     </row>
     <row r="88" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="336" t="s">
+      <c r="A88" s="366" t="s">
         <v>4</v>
       </c>
-      <c r="B88" s="333" t="s">
+      <c r="B88" s="371" t="s">
         <v>215</v>
       </c>
-      <c r="C88" s="336" t="s">
+      <c r="C88" s="366" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="338" t="s">
+      <c r="D88" s="368" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="340" t="s">
+      <c r="E88" s="370" t="s">
         <v>7</v>
       </c>
-      <c r="F88" s="340"/>
-      <c r="G88" s="340" t="s">
+      <c r="F88" s="370"/>
+      <c r="G88" s="370" t="s">
         <v>8</v>
       </c>
-      <c r="H88" s="340"/>
+      <c r="H88" s="370"/>
     </row>
     <row r="89" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="337"/>
-      <c r="B89" s="334"/>
-      <c r="C89" s="337"/>
-      <c r="D89" s="339"/>
+      <c r="A89" s="367"/>
+      <c r="B89" s="372"/>
+      <c r="C89" s="367"/>
+      <c r="D89" s="369"/>
       <c r="E89" s="165" t="s">
         <v>184</v>
       </c>
@@ -4934,10 +4934,10 @@
     <row r="95" spans="1:10" s="171" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="173"/>
       <c r="B95" s="173"/>
-      <c r="C95" s="335" t="s">
+      <c r="C95" s="375" t="s">
         <v>67</v>
       </c>
-      <c r="D95" s="335"/>
+      <c r="D95" s="375"/>
       <c r="E95" s="174"/>
       <c r="F95" s="174"/>
       <c r="G95" s="174"/>
@@ -4945,32 +4945,32 @@
       <c r="J95" s="172"/>
     </row>
     <row r="96" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="336" t="s">
+      <c r="A96" s="366" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="333" t="s">
+      <c r="B96" s="371" t="s">
         <v>274</v>
       </c>
-      <c r="C96" s="336" t="s">
+      <c r="C96" s="366" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="338" t="s">
+      <c r="D96" s="368" t="s">
         <v>6</v>
       </c>
-      <c r="E96" s="340" t="s">
+      <c r="E96" s="370" t="s">
         <v>7</v>
       </c>
-      <c r="F96" s="340"/>
-      <c r="G96" s="340" t="s">
+      <c r="F96" s="370"/>
+      <c r="G96" s="370" t="s">
         <v>8</v>
       </c>
-      <c r="H96" s="340"/>
+      <c r="H96" s="370"/>
     </row>
     <row r="97" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="337"/>
-      <c r="B97" s="334"/>
-      <c r="C97" s="337"/>
-      <c r="D97" s="339"/>
+      <c r="A97" s="367"/>
+      <c r="B97" s="372"/>
+      <c r="C97" s="367"/>
+      <c r="D97" s="369"/>
       <c r="E97" s="165" t="s">
         <v>184</v>
       </c>
@@ -5140,10 +5140,10 @@
     <row r="106" spans="1:10" s="171" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="173"/>
       <c r="B106" s="173"/>
-      <c r="C106" s="335" t="s">
+      <c r="C106" s="375" t="s">
         <v>9</v>
       </c>
-      <c r="D106" s="335"/>
+      <c r="D106" s="375"/>
       <c r="E106" s="174"/>
       <c r="F106" s="174"/>
       <c r="G106" s="174"/>
@@ -5151,32 +5151,32 @@
       <c r="J106" s="172"/>
     </row>
     <row r="107" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="336" t="s">
+      <c r="A107" s="366" t="s">
         <v>4</v>
       </c>
-      <c r="B107" s="333" t="s">
+      <c r="B107" s="371" t="s">
         <v>215</v>
       </c>
-      <c r="C107" s="336" t="s">
+      <c r="C107" s="366" t="s">
         <v>5</v>
       </c>
-      <c r="D107" s="338" t="s">
+      <c r="D107" s="368" t="s">
         <v>6</v>
       </c>
-      <c r="E107" s="340" t="s">
+      <c r="E107" s="370" t="s">
         <v>7</v>
       </c>
-      <c r="F107" s="340"/>
-      <c r="G107" s="340" t="s">
+      <c r="F107" s="370"/>
+      <c r="G107" s="370" t="s">
         <v>8</v>
       </c>
-      <c r="H107" s="340"/>
+      <c r="H107" s="370"/>
     </row>
     <row r="108" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="337"/>
-      <c r="B108" s="334"/>
-      <c r="C108" s="337"/>
-      <c r="D108" s="339"/>
+      <c r="A108" s="367"/>
+      <c r="B108" s="372"/>
+      <c r="C108" s="367"/>
+      <c r="D108" s="369"/>
       <c r="E108" s="165" t="s">
         <v>184</v>
       </c>
@@ -5486,42 +5486,42 @@
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="190"/>
       <c r="B124" s="190"/>
-      <c r="C124" s="335" t="s">
+      <c r="C124" s="375" t="s">
         <v>126</v>
       </c>
-      <c r="D124" s="335"/>
+      <c r="D124" s="375"/>
       <c r="E124" s="191"/>
       <c r="F124" s="192"/>
       <c r="G124" s="191"/>
       <c r="H124" s="193"/>
     </row>
     <row r="125" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="334" t="s">
+      <c r="A125" s="372" t="s">
         <v>4</v>
       </c>
-      <c r="B125" s="333" t="s">
+      <c r="B125" s="371" t="s">
         <v>215</v>
       </c>
-      <c r="C125" s="334" t="s">
+      <c r="C125" s="372" t="s">
         <v>5</v>
       </c>
-      <c r="D125" s="341" t="s">
+      <c r="D125" s="376" t="s">
         <v>6</v>
       </c>
-      <c r="E125" s="342" t="s">
+      <c r="E125" s="377" t="s">
         <v>7</v>
       </c>
-      <c r="F125" s="342"/>
-      <c r="G125" s="342" t="s">
+      <c r="F125" s="377"/>
+      <c r="G125" s="377" t="s">
         <v>8</v>
       </c>
-      <c r="H125" s="342"/>
+      <c r="H125" s="377"/>
     </row>
     <row r="126" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="337"/>
-      <c r="B126" s="334"/>
-      <c r="C126" s="337"/>
-      <c r="D126" s="339"/>
+      <c r="A126" s="367"/>
+      <c r="B126" s="372"/>
+      <c r="C126" s="367"/>
+      <c r="D126" s="369"/>
       <c r="E126" s="165" t="s">
         <v>184</v>
       </c>
@@ -6132,38 +6132,38 @@
       <c r="H156" s="185"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C157" s="335" t="s">
+      <c r="C157" s="375" t="s">
         <v>185</v>
       </c>
-      <c r="D157" s="335"/>
+      <c r="D157" s="375"/>
     </row>
     <row r="158" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="336" t="s">
+      <c r="A158" s="366" t="s">
         <v>4</v>
       </c>
-      <c r="B158" s="333" t="s">
+      <c r="B158" s="371" t="s">
         <v>215</v>
       </c>
-      <c r="C158" s="336" t="s">
+      <c r="C158" s="366" t="s">
         <v>5</v>
       </c>
-      <c r="D158" s="338" t="s">
+      <c r="D158" s="368" t="s">
         <v>6</v>
       </c>
-      <c r="E158" s="340" t="s">
+      <c r="E158" s="370" t="s">
         <v>7</v>
       </c>
-      <c r="F158" s="340"/>
-      <c r="G158" s="340" t="s">
+      <c r="F158" s="370"/>
+      <c r="G158" s="370" t="s">
         <v>8</v>
       </c>
-      <c r="H158" s="340"/>
+      <c r="H158" s="370"/>
     </row>
     <row r="159" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="337"/>
-      <c r="B159" s="334"/>
-      <c r="C159" s="337"/>
-      <c r="D159" s="339"/>
+      <c r="A159" s="367"/>
+      <c r="B159" s="372"/>
+      <c r="C159" s="367"/>
+      <c r="D159" s="369"/>
       <c r="E159" s="165" t="s">
         <v>184</v>
       </c>
@@ -6234,38 +6234,38 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C163" s="335" t="s">
+      <c r="C163" s="375" t="s">
         <v>12</v>
       </c>
-      <c r="D163" s="335"/>
+      <c r="D163" s="375"/>
     </row>
     <row r="164" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="336" t="s">
+      <c r="A164" s="366" t="s">
         <v>4</v>
       </c>
-      <c r="B164" s="333" t="s">
+      <c r="B164" s="371" t="s">
         <v>215</v>
       </c>
-      <c r="C164" s="336" t="s">
+      <c r="C164" s="366" t="s">
         <v>5</v>
       </c>
-      <c r="D164" s="338" t="s">
+      <c r="D164" s="368" t="s">
         <v>6</v>
       </c>
-      <c r="E164" s="340" t="s">
+      <c r="E164" s="370" t="s">
         <v>7</v>
       </c>
-      <c r="F164" s="340"/>
-      <c r="G164" s="340" t="s">
+      <c r="F164" s="370"/>
+      <c r="G164" s="370" t="s">
         <v>8</v>
       </c>
-      <c r="H164" s="340"/>
+      <c r="H164" s="370"/>
     </row>
     <row r="165" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="337"/>
-      <c r="B165" s="334"/>
-      <c r="C165" s="337"/>
-      <c r="D165" s="339"/>
+      <c r="A165" s="367"/>
+      <c r="B165" s="372"/>
+      <c r="C165" s="367"/>
+      <c r="D165" s="369"/>
       <c r="E165" s="165" t="s">
         <v>184</v>
       </c>
@@ -6416,38 +6416,38 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C173" s="335" t="s">
+      <c r="C173" s="375" t="s">
         <v>13</v>
       </c>
-      <c r="D173" s="335"/>
+      <c r="D173" s="375"/>
     </row>
     <row r="174" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="336" t="s">
+      <c r="A174" s="366" t="s">
         <v>4</v>
       </c>
-      <c r="B174" s="333" t="s">
+      <c r="B174" s="371" t="s">
         <v>215</v>
       </c>
-      <c r="C174" s="336" t="s">
+      <c r="C174" s="366" t="s">
         <v>5</v>
       </c>
-      <c r="D174" s="338" t="s">
+      <c r="D174" s="368" t="s">
         <v>6</v>
       </c>
-      <c r="E174" s="340" t="s">
+      <c r="E174" s="370" t="s">
         <v>7</v>
       </c>
-      <c r="F174" s="340"/>
-      <c r="G174" s="340" t="s">
+      <c r="F174" s="370"/>
+      <c r="G174" s="370" t="s">
         <v>8</v>
       </c>
-      <c r="H174" s="340"/>
+      <c r="H174" s="370"/>
     </row>
     <row r="175" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="337"/>
-      <c r="B175" s="334"/>
-      <c r="C175" s="337"/>
-      <c r="D175" s="339"/>
+      <c r="A175" s="367"/>
+      <c r="B175" s="372"/>
+      <c r="C175" s="367"/>
+      <c r="D175" s="369"/>
       <c r="E175" s="165" t="s">
         <v>184</v>
       </c>
@@ -6547,19 +6547,49 @@
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="72">
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="B96:B97"/>
     <mergeCell ref="E77:F77"/>
     <mergeCell ref="G77:H77"/>
     <mergeCell ref="A88:A89"/>
@@ -6576,49 +6606,19 @@
     <mergeCell ref="D83:D84"/>
     <mergeCell ref="E83:F83"/>
     <mergeCell ref="G83:H83"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.21" top="0.36" bottom="0.41" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6656,13 +6656,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="225" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="361" t="s">
+      <c r="A1" s="404" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="361"/>
-      <c r="C1" s="361"/>
-      <c r="D1" s="361"/>
-      <c r="E1" s="361"/>
+      <c r="B1" s="404"/>
+      <c r="C1" s="404"/>
+      <c r="D1" s="404"/>
+      <c r="E1" s="404"/>
       <c r="H1" s="226"/>
       <c r="I1" s="226"/>
       <c r="J1" s="226"/>
@@ -6692,136 +6692,136 @@
       <c r="P2" s="230"/>
     </row>
     <row r="3" spans="1:16" s="225" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="369" t="s">
+      <c r="A3" s="408" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="369"/>
-      <c r="C3" s="369"/>
-      <c r="D3" s="369"/>
-      <c r="E3" s="369"/>
-      <c r="F3" s="369"/>
-      <c r="G3" s="369"/>
-      <c r="H3" s="369"/>
-      <c r="I3" s="369"/>
-      <c r="J3" s="369"/>
-      <c r="K3" s="369"/>
-      <c r="L3" s="369"/>
-      <c r="M3" s="369"/>
-      <c r="N3" s="369"/>
-      <c r="O3" s="369"/>
-      <c r="P3" s="369"/>
+      <c r="B3" s="408"/>
+      <c r="C3" s="408"/>
+      <c r="D3" s="408"/>
+      <c r="E3" s="408"/>
+      <c r="F3" s="408"/>
+      <c r="G3" s="408"/>
+      <c r="H3" s="408"/>
+      <c r="I3" s="408"/>
+      <c r="J3" s="408"/>
+      <c r="K3" s="408"/>
+      <c r="L3" s="408"/>
+      <c r="M3" s="408"/>
+      <c r="N3" s="408"/>
+      <c r="O3" s="408"/>
+      <c r="P3" s="408"/>
     </row>
     <row r="4" spans="1:16" s="225" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="369" t="s">
+      <c r="A4" s="408" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="369"/>
-      <c r="C4" s="369"/>
-      <c r="D4" s="369"/>
-      <c r="E4" s="369"/>
-      <c r="F4" s="369"/>
-      <c r="G4" s="369"/>
-      <c r="H4" s="369"/>
-      <c r="I4" s="369"/>
-      <c r="J4" s="369"/>
-      <c r="K4" s="369"/>
-      <c r="L4" s="369"/>
-      <c r="M4" s="369"/>
-      <c r="N4" s="369"/>
-      <c r="O4" s="369"/>
-      <c r="P4" s="369"/>
+      <c r="B4" s="408"/>
+      <c r="C4" s="408"/>
+      <c r="D4" s="408"/>
+      <c r="E4" s="408"/>
+      <c r="F4" s="408"/>
+      <c r="G4" s="408"/>
+      <c r="H4" s="408"/>
+      <c r="I4" s="408"/>
+      <c r="J4" s="408"/>
+      <c r="K4" s="408"/>
+      <c r="L4" s="408"/>
+      <c r="M4" s="408"/>
+      <c r="N4" s="408"/>
+      <c r="O4" s="408"/>
+      <c r="P4" s="408"/>
     </row>
     <row r="5" spans="1:16" s="225" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="370" t="s">
+      <c r="A5" s="397" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="372" t="s">
+      <c r="B5" s="400" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="370" t="s">
+      <c r="C5" s="397" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="374" t="s">
+      <c r="D5" s="402" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="374"/>
-      <c r="F5" s="375" t="s">
+      <c r="E5" s="402"/>
+      <c r="F5" s="403" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="375"/>
-      <c r="H5" s="375"/>
-      <c r="I5" s="375"/>
-      <c r="J5" s="375"/>
-      <c r="K5" s="375"/>
-      <c r="L5" s="375"/>
-      <c r="M5" s="376"/>
-      <c r="N5" s="376"/>
-      <c r="O5" s="376"/>
-      <c r="P5" s="355" t="s">
+      <c r="G5" s="403"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="403"/>
+      <c r="J5" s="403"/>
+      <c r="K5" s="403"/>
+      <c r="L5" s="403"/>
+      <c r="M5" s="399"/>
+      <c r="N5" s="399"/>
+      <c r="O5" s="399"/>
+      <c r="P5" s="378" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="225" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="371"/>
-      <c r="B6" s="373"/>
-      <c r="C6" s="371"/>
-      <c r="D6" s="370" t="s">
+      <c r="A6" s="398"/>
+      <c r="B6" s="401"/>
+      <c r="C6" s="398"/>
+      <c r="D6" s="397" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="370" t="s">
+      <c r="E6" s="397" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="370" t="s">
+      <c r="F6" s="397" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="370" t="s">
+      <c r="G6" s="397" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="377" t="s">
+      <c r="H6" s="394" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="377" t="s">
+      <c r="I6" s="394" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="382" t="s">
+      <c r="J6" s="396" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="382"/>
-      <c r="L6" s="377" t="s">
+      <c r="K6" s="396"/>
+      <c r="L6" s="394" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="377" t="s">
+      <c r="M6" s="394" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="377" t="s">
+      <c r="N6" s="394" t="s">
         <v>184</v>
       </c>
-      <c r="O6" s="377" t="s">
+      <c r="O6" s="394" t="s">
         <v>199</v>
       </c>
-      <c r="P6" s="360"/>
+      <c r="P6" s="380"/>
     </row>
     <row r="7" spans="1:16" s="225" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="371"/>
-      <c r="B7" s="373"/>
-      <c r="C7" s="371"/>
-      <c r="D7" s="371"/>
-      <c r="E7" s="371"/>
-      <c r="F7" s="371"/>
-      <c r="G7" s="371"/>
-      <c r="H7" s="378"/>
-      <c r="I7" s="378"/>
+      <c r="A7" s="398"/>
+      <c r="B7" s="401"/>
+      <c r="C7" s="398"/>
+      <c r="D7" s="398"/>
+      <c r="E7" s="398"/>
+      <c r="F7" s="398"/>
+      <c r="G7" s="398"/>
+      <c r="H7" s="395"/>
+      <c r="I7" s="395"/>
       <c r="J7" s="280" t="s">
         <v>200</v>
       </c>
       <c r="K7" s="233" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="378"/>
-      <c r="M7" s="378"/>
-      <c r="N7" s="378"/>
-      <c r="O7" s="378"/>
-      <c r="P7" s="360"/>
+      <c r="L7" s="395"/>
+      <c r="M7" s="395"/>
+      <c r="N7" s="395"/>
+      <c r="O7" s="395"/>
+      <c r="P7" s="380"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="282">
@@ -7002,17 +7002,17 @@
       <c r="P11" s="284"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="355">
+      <c r="A12" s="378">
         <v>320</v>
       </c>
-      <c r="B12" s="357">
+      <c r="B12" s="405">
         <v>43921</v>
       </c>
-      <c r="C12" s="355"/>
-      <c r="D12" s="355" t="s">
+      <c r="C12" s="378"/>
+      <c r="D12" s="378" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="355" t="s">
+      <c r="E12" s="378" t="s">
         <v>99</v>
       </c>
       <c r="F12" s="290" t="s">
@@ -7047,11 +7047,11 @@
       <c r="P12" s="294"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="356"/>
-      <c r="B13" s="358"/>
-      <c r="C13" s="356"/>
-      <c r="D13" s="356"/>
-      <c r="E13" s="356"/>
+      <c r="A13" s="379"/>
+      <c r="B13" s="407"/>
+      <c r="C13" s="379"/>
+      <c r="D13" s="379"/>
+      <c r="E13" s="379"/>
       <c r="F13" s="295" t="s">
         <v>43</v>
       </c>
@@ -7398,17 +7398,17 @@
       <c r="P20" s="284"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="362">
+      <c r="A21" s="381">
         <v>327</v>
       </c>
-      <c r="B21" s="363">
+      <c r="B21" s="382">
         <v>43935</v>
       </c>
-      <c r="C21" s="366"/>
-      <c r="D21" s="383" t="s">
+      <c r="C21" s="385"/>
+      <c r="D21" s="388" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="366" t="s">
+      <c r="E21" s="385" t="s">
         <v>88</v>
       </c>
       <c r="F21" s="300" t="s">
@@ -7441,11 +7441,11 @@
       <c r="P21" s="300"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="362"/>
-      <c r="B22" s="364"/>
-      <c r="C22" s="367"/>
-      <c r="D22" s="384"/>
-      <c r="E22" s="367"/>
+      <c r="A22" s="381"/>
+      <c r="B22" s="383"/>
+      <c r="C22" s="386"/>
+      <c r="D22" s="389"/>
+      <c r="E22" s="386"/>
       <c r="F22" s="303" t="s">
         <v>40</v>
       </c>
@@ -7476,11 +7476,11 @@
       <c r="P22" s="303"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="362"/>
-      <c r="B23" s="364"/>
-      <c r="C23" s="367"/>
-      <c r="D23" s="384"/>
-      <c r="E23" s="367"/>
+      <c r="A23" s="381"/>
+      <c r="B23" s="383"/>
+      <c r="C23" s="386"/>
+      <c r="D23" s="389"/>
+      <c r="E23" s="386"/>
       <c r="F23" s="303" t="s">
         <v>43</v>
       </c>
@@ -7511,11 +7511,11 @@
       <c r="P23" s="303"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="362"/>
-      <c r="B24" s="364"/>
-      <c r="C24" s="367"/>
-      <c r="D24" s="384"/>
-      <c r="E24" s="367"/>
+      <c r="A24" s="381"/>
+      <c r="B24" s="383"/>
+      <c r="C24" s="386"/>
+      <c r="D24" s="389"/>
+      <c r="E24" s="386"/>
       <c r="F24" s="303" t="s">
         <v>42</v>
       </c>
@@ -7546,11 +7546,11 @@
       <c r="P24" s="303"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="362"/>
-      <c r="B25" s="364"/>
-      <c r="C25" s="367"/>
-      <c r="D25" s="384"/>
-      <c r="E25" s="367"/>
+      <c r="A25" s="381"/>
+      <c r="B25" s="383"/>
+      <c r="C25" s="386"/>
+      <c r="D25" s="389"/>
+      <c r="E25" s="386"/>
       <c r="F25" s="303" t="s">
         <v>38</v>
       </c>
@@ -7581,11 +7581,11 @@
       <c r="P25" s="303"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="362"/>
-      <c r="B26" s="364"/>
-      <c r="C26" s="367"/>
-      <c r="D26" s="384"/>
-      <c r="E26" s="367"/>
+      <c r="A26" s="381"/>
+      <c r="B26" s="383"/>
+      <c r="C26" s="386"/>
+      <c r="D26" s="389"/>
+      <c r="E26" s="386"/>
       <c r="F26" s="303" t="s">
         <v>39</v>
       </c>
@@ -7616,11 +7616,11 @@
       <c r="P26" s="303"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="362"/>
-      <c r="B27" s="365"/>
-      <c r="C27" s="368"/>
-      <c r="D27" s="385"/>
-      <c r="E27" s="368"/>
+      <c r="A27" s="381"/>
+      <c r="B27" s="384"/>
+      <c r="C27" s="387"/>
+      <c r="D27" s="390"/>
+      <c r="E27" s="387"/>
       <c r="F27" s="306" t="s">
         <v>66</v>
       </c>
@@ -7695,19 +7695,19 @@
       <c r="P28" s="284"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="362">
+      <c r="A29" s="381">
         <v>328</v>
       </c>
-      <c r="B29" s="357">
+      <c r="B29" s="405">
         <v>43936</v>
       </c>
-      <c r="C29" s="355" t="s">
+      <c r="C29" s="378" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="355" t="s">
+      <c r="D29" s="378" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="355" t="s">
+      <c r="E29" s="378" t="s">
         <v>96</v>
       </c>
       <c r="F29" s="290" t="s">
@@ -7740,11 +7740,11 @@
       <c r="P29" s="290"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="362"/>
-      <c r="B30" s="359"/>
-      <c r="C30" s="360"/>
-      <c r="D30" s="360"/>
-      <c r="E30" s="360"/>
+      <c r="A30" s="381"/>
+      <c r="B30" s="406"/>
+      <c r="C30" s="380"/>
+      <c r="D30" s="380"/>
+      <c r="E30" s="380"/>
       <c r="F30" s="310" t="s">
         <v>37</v>
       </c>
@@ -7775,11 +7775,11 @@
       <c r="P30" s="310"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="362"/>
-      <c r="B31" s="359"/>
-      <c r="C31" s="360"/>
-      <c r="D31" s="360"/>
-      <c r="E31" s="360"/>
+      <c r="A31" s="381"/>
+      <c r="B31" s="406"/>
+      <c r="C31" s="380"/>
+      <c r="D31" s="380"/>
+      <c r="E31" s="380"/>
       <c r="F31" s="310" t="s">
         <v>40</v>
       </c>
@@ -7810,11 +7810,11 @@
       <c r="P31" s="310"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="362"/>
-      <c r="B32" s="358"/>
-      <c r="C32" s="356"/>
-      <c r="D32" s="356"/>
-      <c r="E32" s="356"/>
+      <c r="A32" s="381"/>
+      <c r="B32" s="407"/>
+      <c r="C32" s="379"/>
+      <c r="D32" s="379"/>
+      <c r="E32" s="379"/>
       <c r="F32" s="295" t="s">
         <v>66</v>
       </c>
@@ -8018,19 +8018,19 @@
       <c r="P36" s="284"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="355">
+      <c r="A37" s="378">
         <v>346</v>
       </c>
-      <c r="B37" s="363">
+      <c r="B37" s="382">
         <v>43941</v>
       </c>
-      <c r="C37" s="366" t="s">
+      <c r="C37" s="385" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="366" t="s">
+      <c r="D37" s="385" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="366" t="s">
+      <c r="E37" s="385" t="s">
         <v>117</v>
       </c>
       <c r="F37" s="290" t="s">
@@ -8063,11 +8063,11 @@
       <c r="P37" s="290"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="360"/>
-      <c r="B38" s="364"/>
-      <c r="C38" s="367"/>
-      <c r="D38" s="367"/>
-      <c r="E38" s="367"/>
+      <c r="A38" s="380"/>
+      <c r="B38" s="383"/>
+      <c r="C38" s="386"/>
+      <c r="D38" s="386"/>
+      <c r="E38" s="386"/>
       <c r="F38" s="310" t="s">
         <v>40</v>
       </c>
@@ -8098,11 +8098,11 @@
       <c r="P38" s="310"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="360"/>
-      <c r="B39" s="364"/>
-      <c r="C39" s="367"/>
-      <c r="D39" s="367"/>
-      <c r="E39" s="367"/>
+      <c r="A39" s="380"/>
+      <c r="B39" s="383"/>
+      <c r="C39" s="386"/>
+      <c r="D39" s="386"/>
+      <c r="E39" s="386"/>
       <c r="F39" s="310" t="s">
         <v>42</v>
       </c>
@@ -8133,11 +8133,11 @@
       <c r="P39" s="310"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="356"/>
-      <c r="B40" s="365"/>
-      <c r="C40" s="368"/>
-      <c r="D40" s="368"/>
-      <c r="E40" s="368"/>
+      <c r="A40" s="379"/>
+      <c r="B40" s="384"/>
+      <c r="C40" s="387"/>
+      <c r="D40" s="387"/>
+      <c r="E40" s="387"/>
       <c r="F40" s="295" t="s">
         <v>65</v>
       </c>
@@ -8168,17 +8168,17 @@
       <c r="P40" s="295"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="362">
+      <c r="A41" s="381">
         <v>345</v>
       </c>
-      <c r="B41" s="357">
+      <c r="B41" s="405">
         <v>43941</v>
       </c>
-      <c r="C41" s="355"/>
-      <c r="D41" s="355" t="s">
+      <c r="C41" s="378"/>
+      <c r="D41" s="378" t="s">
         <v>105</v>
       </c>
-      <c r="E41" s="355" t="s">
+      <c r="E41" s="378" t="s">
         <v>99</v>
       </c>
       <c r="F41" s="290" t="s">
@@ -8210,14 +8210,14 @@
         <v>6192800.0000000009</v>
       </c>
       <c r="O41" s="291"/>
-      <c r="P41" s="379"/>
+      <c r="P41" s="391"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="362"/>
-      <c r="B42" s="359"/>
-      <c r="C42" s="360"/>
-      <c r="D42" s="360"/>
-      <c r="E42" s="360"/>
+      <c r="A42" s="381"/>
+      <c r="B42" s="406"/>
+      <c r="C42" s="380"/>
+      <c r="D42" s="380"/>
+      <c r="E42" s="380"/>
       <c r="F42" s="310" t="s">
         <v>37</v>
       </c>
@@ -8245,14 +8245,14 @@
         <v>3292200.0000000005</v>
       </c>
       <c r="O42" s="311"/>
-      <c r="P42" s="381"/>
+      <c r="P42" s="393"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="362"/>
-      <c r="B43" s="359"/>
-      <c r="C43" s="360"/>
-      <c r="D43" s="360"/>
-      <c r="E43" s="360"/>
+      <c r="A43" s="381"/>
+      <c r="B43" s="406"/>
+      <c r="C43" s="380"/>
+      <c r="D43" s="380"/>
+      <c r="E43" s="380"/>
       <c r="F43" s="310" t="s">
         <v>40</v>
       </c>
@@ -8280,14 +8280,14 @@
         <v>3363000.0000000005</v>
       </c>
       <c r="O43" s="311"/>
-      <c r="P43" s="381"/>
+      <c r="P43" s="393"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="362"/>
-      <c r="B44" s="358"/>
-      <c r="C44" s="356"/>
-      <c r="D44" s="356"/>
-      <c r="E44" s="356"/>
+      <c r="A44" s="381"/>
+      <c r="B44" s="407"/>
+      <c r="C44" s="379"/>
+      <c r="D44" s="379"/>
+      <c r="E44" s="379"/>
       <c r="F44" s="295" t="s">
         <v>43</v>
       </c>
@@ -8315,22 +8315,22 @@
         <v>3433800.0000000005</v>
       </c>
       <c r="O44" s="296"/>
-      <c r="P44" s="380"/>
+      <c r="P44" s="392"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="355">
+      <c r="A45" s="378">
         <v>342</v>
       </c>
-      <c r="B45" s="363">
+      <c r="B45" s="382">
         <v>43942</v>
       </c>
-      <c r="C45" s="366" t="s">
+      <c r="C45" s="385" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="366" t="s">
+      <c r="D45" s="385" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="366" t="s">
+      <c r="E45" s="385" t="s">
         <v>74</v>
       </c>
       <c r="F45" s="290" t="s">
@@ -8360,14 +8360,14 @@
       </c>
       <c r="N45" s="291"/>
       <c r="O45" s="291"/>
-      <c r="P45" s="379"/>
+      <c r="P45" s="391"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="356"/>
-      <c r="B46" s="365"/>
-      <c r="C46" s="368"/>
-      <c r="D46" s="368"/>
-      <c r="E46" s="368"/>
+      <c r="A46" s="379"/>
+      <c r="B46" s="384"/>
+      <c r="C46" s="387"/>
+      <c r="D46" s="387"/>
+      <c r="E46" s="387"/>
       <c r="F46" s="295" t="s">
         <v>37</v>
       </c>
@@ -8395,7 +8395,7 @@
       </c>
       <c r="N46" s="296"/>
       <c r="O46" s="296"/>
-      <c r="P46" s="380"/>
+      <c r="P46" s="392"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="282">
@@ -8490,17 +8490,17 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="355">
+      <c r="A49" s="378">
         <v>452</v>
       </c>
-      <c r="B49" s="357">
+      <c r="B49" s="405">
         <v>43942</v>
       </c>
-      <c r="C49" s="355"/>
-      <c r="D49" s="355" t="s">
+      <c r="C49" s="378"/>
+      <c r="D49" s="378" t="s">
         <v>97</v>
       </c>
-      <c r="E49" s="355" t="s">
+      <c r="E49" s="378" t="s">
         <v>98</v>
       </c>
       <c r="F49" s="290" t="s">
@@ -8530,16 +8530,16 @@
         <v>6442800.0000000009</v>
       </c>
       <c r="O49" s="291"/>
-      <c r="P49" s="352" t="s">
+      <c r="P49" s="409" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="360"/>
-      <c r="B50" s="359"/>
-      <c r="C50" s="360"/>
-      <c r="D50" s="360"/>
-      <c r="E50" s="360"/>
+      <c r="A50" s="380"/>
+      <c r="B50" s="406"/>
+      <c r="C50" s="380"/>
+      <c r="D50" s="380"/>
+      <c r="E50" s="380"/>
       <c r="F50" s="310" t="s">
         <v>39</v>
       </c>
@@ -8567,14 +8567,14 @@
         <v>3221400.0000000005</v>
       </c>
       <c r="O50" s="311"/>
-      <c r="P50" s="353"/>
+      <c r="P50" s="410"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="356"/>
-      <c r="B51" s="358"/>
-      <c r="C51" s="356"/>
-      <c r="D51" s="356"/>
-      <c r="E51" s="356"/>
+      <c r="A51" s="379"/>
+      <c r="B51" s="407"/>
+      <c r="C51" s="379"/>
+      <c r="D51" s="379"/>
+      <c r="E51" s="379"/>
       <c r="F51" s="295" t="s">
         <v>66</v>
       </c>
@@ -8605,7 +8605,7 @@
         <f>L49+L50+L51-N49-N50-N51</f>
         <v>2885600.0000000019</v>
       </c>
-      <c r="P51" s="354"/>
+      <c r="P51" s="411"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="282">
@@ -8923,19 +8923,19 @@
       <c r="P58" s="284"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="355">
+      <c r="A59" s="378">
         <v>456</v>
       </c>
-      <c r="B59" s="357">
+      <c r="B59" s="405">
         <v>43946</v>
       </c>
-      <c r="C59" s="355" t="s">
+      <c r="C59" s="378" t="s">
         <v>91</v>
       </c>
-      <c r="D59" s="355" t="s">
+      <c r="D59" s="378" t="s">
         <v>119</v>
       </c>
-      <c r="E59" s="355" t="s">
+      <c r="E59" s="378" t="s">
         <v>120</v>
       </c>
       <c r="F59" s="290" t="s">
@@ -8968,11 +8968,11 @@
       <c r="P59" s="290"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="356"/>
-      <c r="B60" s="358"/>
-      <c r="C60" s="356"/>
-      <c r="D60" s="356"/>
-      <c r="E60" s="356"/>
+      <c r="A60" s="379"/>
+      <c r="B60" s="407"/>
+      <c r="C60" s="379"/>
+      <c r="D60" s="379"/>
+      <c r="E60" s="379"/>
       <c r="F60" s="295" t="s">
         <v>40</v>
       </c>
@@ -9003,17 +9003,17 @@
       <c r="P60" s="295"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="355">
+      <c r="A61" s="378">
         <v>455</v>
       </c>
-      <c r="B61" s="357">
+      <c r="B61" s="405">
         <v>43946</v>
       </c>
-      <c r="C61" s="355"/>
-      <c r="D61" s="355" t="s">
+      <c r="C61" s="378"/>
+      <c r="D61" s="378" t="s">
         <v>122</v>
       </c>
-      <c r="E61" s="355" t="s">
+      <c r="E61" s="378" t="s">
         <v>123</v>
       </c>
       <c r="F61" s="290" t="s">
@@ -9046,11 +9046,11 @@
       <c r="P61" s="290"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="360"/>
-      <c r="B62" s="359"/>
-      <c r="C62" s="360"/>
-      <c r="D62" s="360"/>
-      <c r="E62" s="360"/>
+      <c r="A62" s="380"/>
+      <c r="B62" s="406"/>
+      <c r="C62" s="380"/>
+      <c r="D62" s="380"/>
+      <c r="E62" s="380"/>
       <c r="F62" s="310" t="s">
         <v>37</v>
       </c>
@@ -9081,11 +9081,11 @@
       <c r="P62" s="310"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" s="360"/>
-      <c r="B63" s="359"/>
-      <c r="C63" s="360"/>
-      <c r="D63" s="360"/>
-      <c r="E63" s="360"/>
+      <c r="A63" s="380"/>
+      <c r="B63" s="406"/>
+      <c r="C63" s="380"/>
+      <c r="D63" s="380"/>
+      <c r="E63" s="380"/>
       <c r="F63" s="310" t="s">
         <v>40</v>
       </c>
@@ -9116,11 +9116,11 @@
       <c r="P63" s="310"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" s="360"/>
-      <c r="B64" s="359"/>
-      <c r="C64" s="360"/>
-      <c r="D64" s="360"/>
-      <c r="E64" s="360"/>
+      <c r="A64" s="380"/>
+      <c r="B64" s="406"/>
+      <c r="C64" s="380"/>
+      <c r="D64" s="380"/>
+      <c r="E64" s="380"/>
       <c r="F64" s="310" t="s">
         <v>43</v>
       </c>
@@ -9151,11 +9151,11 @@
       <c r="P64" s="310"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="360"/>
-      <c r="B65" s="359"/>
-      <c r="C65" s="360"/>
-      <c r="D65" s="360"/>
-      <c r="E65" s="360"/>
+      <c r="A65" s="380"/>
+      <c r="B65" s="406"/>
+      <c r="C65" s="380"/>
+      <c r="D65" s="380"/>
+      <c r="E65" s="380"/>
       <c r="F65" s="310" t="s">
         <v>42</v>
       </c>
@@ -9186,11 +9186,11 @@
       <c r="P65" s="310"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="360"/>
-      <c r="B66" s="359"/>
-      <c r="C66" s="360"/>
-      <c r="D66" s="360"/>
-      <c r="E66" s="360"/>
+      <c r="A66" s="380"/>
+      <c r="B66" s="406"/>
+      <c r="C66" s="380"/>
+      <c r="D66" s="380"/>
+      <c r="E66" s="380"/>
       <c r="F66" s="310" t="s">
         <v>38</v>
       </c>
@@ -9221,11 +9221,11 @@
       <c r="P66" s="310"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="360"/>
-      <c r="B67" s="359"/>
-      <c r="C67" s="360"/>
-      <c r="D67" s="360"/>
-      <c r="E67" s="360"/>
+      <c r="A67" s="380"/>
+      <c r="B67" s="406"/>
+      <c r="C67" s="380"/>
+      <c r="D67" s="380"/>
+      <c r="E67" s="380"/>
       <c r="F67" s="310" t="s">
         <v>65</v>
       </c>
@@ -9256,11 +9256,11 @@
       <c r="P67" s="310"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="360"/>
-      <c r="B68" s="359"/>
-      <c r="C68" s="360"/>
-      <c r="D68" s="360"/>
-      <c r="E68" s="360"/>
+      <c r="A68" s="380"/>
+      <c r="B68" s="406"/>
+      <c r="C68" s="380"/>
+      <c r="D68" s="380"/>
+      <c r="E68" s="380"/>
       <c r="F68" s="310" t="s">
         <v>39</v>
       </c>
@@ -9291,11 +9291,11 @@
       <c r="P68" s="310"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="356"/>
-      <c r="B69" s="358"/>
-      <c r="C69" s="356"/>
-      <c r="D69" s="356"/>
-      <c r="E69" s="356"/>
+      <c r="A69" s="379"/>
+      <c r="B69" s="407"/>
+      <c r="C69" s="379"/>
+      <c r="D69" s="379"/>
+      <c r="E69" s="379"/>
       <c r="F69" s="295" t="s">
         <v>66</v>
       </c>
@@ -9371,19 +9371,19 @@
       <c r="P70" s="284"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="366">
+      <c r="A71" s="385">
         <v>457</v>
       </c>
-      <c r="B71" s="363">
+      <c r="B71" s="382">
         <v>43947</v>
       </c>
-      <c r="C71" s="366" t="s">
+      <c r="C71" s="385" t="s">
         <v>91</v>
       </c>
-      <c r="D71" s="366" t="s">
+      <c r="D71" s="385" t="s">
         <v>157</v>
       </c>
-      <c r="E71" s="366" t="s">
+      <c r="E71" s="385" t="s">
         <v>120</v>
       </c>
       <c r="F71" s="290" t="s">
@@ -9416,11 +9416,11 @@
       <c r="P71" s="290"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="367"/>
-      <c r="B72" s="364"/>
-      <c r="C72" s="367"/>
-      <c r="D72" s="367"/>
-      <c r="E72" s="367"/>
+      <c r="A72" s="386"/>
+      <c r="B72" s="383"/>
+      <c r="C72" s="386"/>
+      <c r="D72" s="386"/>
+      <c r="E72" s="386"/>
       <c r="F72" s="310" t="s">
         <v>38</v>
       </c>
@@ -9451,11 +9451,11 @@
       <c r="P72" s="310"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="368"/>
-      <c r="B73" s="365"/>
-      <c r="C73" s="368"/>
-      <c r="D73" s="368"/>
-      <c r="E73" s="368"/>
+      <c r="A73" s="387"/>
+      <c r="B73" s="384"/>
+      <c r="C73" s="387"/>
+      <c r="D73" s="387"/>
+      <c r="E73" s="387"/>
       <c r="F73" s="295" t="s">
         <v>39</v>
       </c>
@@ -9576,19 +9576,19 @@
       <c r="P75" s="284"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76" s="355">
+      <c r="A76" s="378">
         <v>1144</v>
       </c>
-      <c r="B76" s="357">
+      <c r="B76" s="405">
         <v>43949</v>
       </c>
-      <c r="C76" s="355" t="s">
+      <c r="C76" s="378" t="s">
         <v>91</v>
       </c>
-      <c r="D76" s="355" t="s">
+      <c r="D76" s="378" t="s">
         <v>171</v>
       </c>
-      <c r="E76" s="355" t="s">
+      <c r="E76" s="378" t="s">
         <v>164</v>
       </c>
       <c r="F76" s="290" t="s">
@@ -9621,11 +9621,11 @@
       <c r="P76" s="290"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="356"/>
-      <c r="B77" s="358"/>
-      <c r="C77" s="356"/>
-      <c r="D77" s="356"/>
-      <c r="E77" s="356"/>
+      <c r="A77" s="379"/>
+      <c r="B77" s="407"/>
+      <c r="C77" s="379"/>
+      <c r="D77" s="379"/>
+      <c r="E77" s="379"/>
       <c r="F77" s="295" t="s">
         <v>39</v>
       </c>
@@ -9656,14 +9656,14 @@
       <c r="P77" s="295"/>
     </row>
     <row r="78" spans="1:17" s="238" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="350" t="s">
+      <c r="A78" s="413" t="s">
         <v>172</v>
       </c>
-      <c r="B78" s="350"/>
-      <c r="C78" s="350"/>
-      <c r="D78" s="350"/>
-      <c r="E78" s="350"/>
-      <c r="F78" s="350"/>
+      <c r="B78" s="413"/>
+      <c r="C78" s="413"/>
+      <c r="D78" s="413"/>
+      <c r="E78" s="413"/>
+      <c r="F78" s="413"/>
       <c r="G78" s="234">
         <f>SUM(G8:G77)</f>
         <v>774</v>
@@ -9683,17 +9683,17 @@
       <c r="N78" s="235"/>
       <c r="O78" s="235"/>
       <c r="P78" s="235"/>
-      <c r="Q78" s="351"/>
+      <c r="Q78" s="414"/>
     </row>
     <row r="79" spans="1:17" s="238" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="349" t="s">
+      <c r="A79" s="412" t="s">
         <v>173</v>
       </c>
-      <c r="B79" s="349"/>
-      <c r="C79" s="349"/>
-      <c r="D79" s="349"/>
-      <c r="E79" s="349"/>
-      <c r="F79" s="349"/>
+      <c r="B79" s="412"/>
+      <c r="C79" s="412"/>
+      <c r="D79" s="412"/>
+      <c r="E79" s="412"/>
+      <c r="F79" s="412"/>
       <c r="G79" s="234">
         <f>G78</f>
         <v>774</v>
@@ -9710,17 +9710,17 @@
       <c r="N79" s="239"/>
       <c r="O79" s="239"/>
       <c r="P79" s="239"/>
-      <c r="Q79" s="351"/>
+      <c r="Q79" s="414"/>
     </row>
     <row r="80" spans="1:17" s="238" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="349" t="s">
+      <c r="A80" s="412" t="s">
         <v>174</v>
       </c>
-      <c r="B80" s="349"/>
-      <c r="C80" s="349"/>
-      <c r="D80" s="349"/>
-      <c r="E80" s="349"/>
-      <c r="F80" s="349"/>
+      <c r="B80" s="412"/>
+      <c r="C80" s="412"/>
+      <c r="D80" s="412"/>
+      <c r="E80" s="412"/>
+      <c r="F80" s="412"/>
       <c r="G80" s="240" t="s">
         <v>55</v>
       </c>
@@ -9738,14 +9738,14 @@
       <c r="P80" s="241"/>
     </row>
     <row r="81" spans="1:16" s="238" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="349" t="s">
+      <c r="A81" s="412" t="s">
         <v>175</v>
       </c>
-      <c r="B81" s="349"/>
-      <c r="C81" s="349"/>
-      <c r="D81" s="349"/>
-      <c r="E81" s="349"/>
-      <c r="F81" s="349"/>
+      <c r="B81" s="412"/>
+      <c r="C81" s="412"/>
+      <c r="D81" s="412"/>
+      <c r="E81" s="412"/>
+      <c r="F81" s="412"/>
       <c r="G81" s="239"/>
       <c r="H81" s="239"/>
       <c r="I81" s="235"/>
@@ -9761,14 +9761,14 @@
       <c r="P81" s="241"/>
     </row>
     <row r="82" spans="1:16" s="238" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="349" t="s">
+      <c r="A82" s="412" t="s">
         <v>176</v>
       </c>
-      <c r="B82" s="349"/>
-      <c r="C82" s="349"/>
-      <c r="D82" s="349"/>
-      <c r="E82" s="349"/>
-      <c r="F82" s="349"/>
+      <c r="B82" s="412"/>
+      <c r="C82" s="412"/>
+      <c r="D82" s="412"/>
+      <c r="E82" s="412"/>
+      <c r="F82" s="412"/>
       <c r="G82" s="239"/>
       <c r="H82" s="239"/>
       <c r="I82" s="235"/>
@@ -9839,13 +9839,68 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="85">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="B61:B69"/>
+    <mergeCell ref="C61:C69"/>
+    <mergeCell ref="D61:D69"/>
+    <mergeCell ref="E61:E69"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="P41:P44"/>
+    <mergeCell ref="P49:P51"/>
     <mergeCell ref="B21:B27"/>
     <mergeCell ref="C21:C27"/>
     <mergeCell ref="D21:D27"/>
@@ -9862,68 +9917,13 @@
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="D29:D32"/>
     <mergeCell ref="E29:E32"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="P41:P44"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="P49:P51"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B61:B69"/>
-    <mergeCell ref="C61:C69"/>
-    <mergeCell ref="D61:D69"/>
-    <mergeCell ref="E61:E69"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A29:A32"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -9984,24 +9984,24 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="398" t="s">
+      <c r="A4" s="415" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="398"/>
-      <c r="C4" s="398"/>
-      <c r="D4" s="398"/>
-      <c r="E4" s="398"/>
+      <c r="B4" s="415"/>
+      <c r="C4" s="415"/>
+      <c r="D4" s="415"/>
+      <c r="E4" s="415"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="399" t="s">
+      <c r="A5" s="416" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="399"/>
-      <c r="C5" s="399"/>
-      <c r="D5" s="399"/>
-      <c r="E5" s="399"/>
+      <c r="B5" s="416"/>
+      <c r="C5" s="416"/>
+      <c r="D5" s="416"/>
+      <c r="E5" s="416"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
@@ -10053,18 +10053,18 @@
       <c r="G8" s="81"/>
     </row>
     <row r="9" spans="1:7" s="82" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="478">
+      <c r="A9" s="357">
         <v>2</v>
       </c>
-      <c r="B9" s="479" t="s">
+      <c r="B9" s="358" t="s">
         <v>317</v>
       </c>
-      <c r="C9" s="480"/>
-      <c r="D9" s="481">
+      <c r="C9" s="359"/>
+      <c r="D9" s="360">
         <f>'DOANH THU'!L78</f>
         <v>191737150</v>
       </c>
-      <c r="E9" s="482"/>
+      <c r="E9" s="361"/>
       <c r="F9" s="81"/>
       <c r="G9" s="81"/>
     </row>
@@ -10080,7 +10080,7 @@
         <f>'DOANH THU'!L80</f>
         <v>20331400.000000004</v>
       </c>
-      <c r="E10" s="400">
+      <c r="E10" s="417">
         <f>D10+D11+D12</f>
         <v>90579500.000000015</v>
       </c>
@@ -10099,7 +10099,7 @@
         <f>'DOANH THU'!L81</f>
         <v>60248100.000000007</v>
       </c>
-      <c r="E11" s="401"/>
+      <c r="E11" s="418"/>
       <c r="F11" s="81"/>
       <c r="G11" s="81"/>
     </row>
@@ -10114,7 +10114,7 @@
       <c r="D12" s="244">
         <v>10000000</v>
       </c>
-      <c r="E12" s="402"/>
+      <c r="E12" s="419"/>
       <c r="F12" s="81"/>
       <c r="G12" s="81"/>
     </row>
@@ -10396,7 +10396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -10413,9 +10413,9 @@
     <col min="9" max="9" width="14" style="101" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.42578125" style="145" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" style="194" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" style="444" customWidth="1"/>
-    <col min="13" max="13" width="4" style="444" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="444" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" style="333" customWidth="1"/>
+    <col min="13" max="13" width="4" style="333" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="333" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="101"/>
   </cols>
   <sheetData>
@@ -10430,119 +10430,119 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="394" t="s">
+      <c r="A3" s="425" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="394"/>
-      <c r="C3" s="394"/>
-      <c r="D3" s="394"/>
-      <c r="E3" s="394"/>
-      <c r="F3" s="394"/>
-      <c r="G3" s="394"/>
-      <c r="H3" s="394"/>
-      <c r="I3" s="394"/>
-      <c r="J3" s="394"/>
-      <c r="K3" s="394"/>
+      <c r="B3" s="425"/>
+      <c r="C3" s="425"/>
+      <c r="D3" s="425"/>
+      <c r="E3" s="425"/>
+      <c r="F3" s="425"/>
+      <c r="G3" s="425"/>
+      <c r="H3" s="425"/>
+      <c r="I3" s="425"/>
+      <c r="J3" s="425"/>
+      <c r="K3" s="425"/>
       <c r="L3" s="329"/>
       <c r="M3" s="329"/>
       <c r="N3" s="329"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="395" t="s">
+      <c r="A4" s="426" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="395"/>
-      <c r="C4" s="395"/>
-      <c r="D4" s="395"/>
-      <c r="E4" s="395"/>
-      <c r="F4" s="395"/>
-      <c r="G4" s="395"/>
-      <c r="H4" s="395"/>
-      <c r="I4" s="395"/>
-      <c r="J4" s="396"/>
-      <c r="K4" s="395"/>
+      <c r="B4" s="426"/>
+      <c r="C4" s="426"/>
+      <c r="D4" s="426"/>
+      <c r="E4" s="426"/>
+      <c r="F4" s="426"/>
+      <c r="G4" s="426"/>
+      <c r="H4" s="426"/>
+      <c r="I4" s="426"/>
+      <c r="J4" s="427"/>
+      <c r="K4" s="426"/>
       <c r="L4" s="330"/>
       <c r="M4" s="330"/>
       <c r="N4" s="330"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="456" t="s">
+      <c r="A5" s="428" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="457" t="s">
+      <c r="B5" s="429" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="456" t="s">
+      <c r="C5" s="428" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="456" t="s">
+      <c r="D5" s="428" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="456"/>
-      <c r="F5" s="458" t="s">
+      <c r="E5" s="428"/>
+      <c r="F5" s="430" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="458"/>
-      <c r="H5" s="458"/>
-      <c r="I5" s="458"/>
-      <c r="J5" s="459"/>
-      <c r="K5" s="460" t="s">
+      <c r="G5" s="430"/>
+      <c r="H5" s="430"/>
+      <c r="I5" s="430"/>
+      <c r="J5" s="431"/>
+      <c r="K5" s="432" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="445" t="s">
+      <c r="L5" s="422" t="s">
         <v>315</v>
       </c>
-      <c r="M5" s="445"/>
-      <c r="N5" s="445"/>
-    </row>
-    <row r="6" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="456"/>
-      <c r="B6" s="457"/>
-      <c r="C6" s="456"/>
-      <c r="D6" s="461" t="s">
+      <c r="M5" s="422"/>
+      <c r="N5" s="422"/>
+    </row>
+    <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="428"/>
+      <c r="B6" s="429"/>
+      <c r="C6" s="428"/>
+      <c r="D6" s="344" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="462" t="s">
+      <c r="E6" s="345" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="462" t="s">
+      <c r="F6" s="345" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="462" t="s">
+      <c r="G6" s="345" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="463" t="s">
+      <c r="H6" s="346" t="s">
         <v>33</v>
       </c>
       <c r="I6" s="331" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="464" t="s">
+      <c r="J6" s="347" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="460"/>
-      <c r="L6" s="446" t="s">
+      <c r="K6" s="432"/>
+      <c r="L6" s="334" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="446" t="s">
+      <c r="M6" s="334" t="s">
         <v>184</v>
       </c>
-      <c r="N6" s="446" t="s">
+      <c r="N6" s="334" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="393">
+      <c r="A7" s="420">
         <v>1130</v>
       </c>
-      <c r="B7" s="397">
+      <c r="B7" s="433">
         <v>43937</v>
       </c>
-      <c r="C7" s="393"/>
-      <c r="D7" s="393" t="s">
+      <c r="C7" s="420"/>
+      <c r="D7" s="420" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="393" t="s">
+      <c r="E7" s="420" t="s">
         <v>88</v>
       </c>
       <c r="F7" s="102" t="s">
@@ -10567,56 +10567,56 @@
       </c>
       <c r="L7" s="30"/>
       <c r="M7" s="30"/>
-      <c r="N7" s="447">
+      <c r="N7" s="335">
         <f>K7</f>
         <v>2730000</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="465"/>
-      <c r="B8" s="466"/>
-      <c r="C8" s="465"/>
-      <c r="D8" s="465"/>
-      <c r="E8" s="465"/>
-      <c r="F8" s="467" t="s">
+      <c r="A8" s="421"/>
+      <c r="B8" s="434"/>
+      <c r="C8" s="421"/>
+      <c r="D8" s="421"/>
+      <c r="E8" s="421"/>
+      <c r="F8" s="348" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="467">
+      <c r="G8" s="348">
         <v>2</v>
       </c>
-      <c r="H8" s="468">
+      <c r="H8" s="349">
         <v>485000</v>
       </c>
-      <c r="I8" s="468">
+      <c r="I8" s="349">
         <f t="shared" ref="I8:I23" si="0">G8*H8</f>
         <v>970000</v>
       </c>
-      <c r="J8" s="469">
+      <c r="J8" s="350">
         <v>0.5</v>
       </c>
-      <c r="K8" s="468">
+      <c r="K8" s="349">
         <f t="shared" ref="K8:K23" si="1">I8*(1-J8)</f>
         <v>485000</v>
       </c>
-      <c r="L8" s="470"/>
-      <c r="M8" s="470"/>
-      <c r="N8" s="471">
+      <c r="L8" s="351"/>
+      <c r="M8" s="351"/>
+      <c r="N8" s="352">
         <f t="shared" ref="N8:N23" si="2">K8</f>
         <v>485000</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="389">
+      <c r="A9" s="435">
         <v>333</v>
       </c>
-      <c r="B9" s="386">
+      <c r="B9" s="437">
         <v>43940</v>
       </c>
-      <c r="C9" s="389"/>
-      <c r="D9" s="389" t="s">
+      <c r="C9" s="435"/>
+      <c r="D9" s="435" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="389" t="s">
+      <c r="E9" s="435" t="s">
         <v>98</v>
       </c>
       <c r="F9" s="102" t="s">
@@ -10641,17 +10641,17 @@
       </c>
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
-      <c r="N9" s="447">
+      <c r="N9" s="335">
         <f t="shared" si="2"/>
         <v>3783000</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="390"/>
-      <c r="B10" s="387"/>
-      <c r="C10" s="390"/>
-      <c r="D10" s="390"/>
-      <c r="E10" s="390"/>
+      <c r="A10" s="436"/>
+      <c r="B10" s="438"/>
+      <c r="C10" s="436"/>
+      <c r="D10" s="436"/>
+      <c r="E10" s="436"/>
       <c r="F10" s="104" t="s">
         <v>42</v>
       </c>
@@ -10672,19 +10672,19 @@
         <f t="shared" si="1"/>
         <v>3783000</v>
       </c>
-      <c r="L10" s="448"/>
-      <c r="M10" s="448"/>
-      <c r="N10" s="449">
+      <c r="L10" s="336"/>
+      <c r="M10" s="336"/>
+      <c r="N10" s="337">
         <f t="shared" si="2"/>
         <v>3783000</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="390"/>
-      <c r="B11" s="387"/>
-      <c r="C11" s="390"/>
-      <c r="D11" s="390"/>
-      <c r="E11" s="390"/>
+      <c r="A11" s="436"/>
+      <c r="B11" s="438"/>
+      <c r="C11" s="436"/>
+      <c r="D11" s="436"/>
+      <c r="E11" s="436"/>
       <c r="F11" s="104" t="s">
         <v>38</v>
       </c>
@@ -10705,19 +10705,19 @@
         <f t="shared" si="1"/>
         <v>13585000</v>
       </c>
-      <c r="L11" s="448"/>
-      <c r="M11" s="448"/>
-      <c r="N11" s="449">
+      <c r="L11" s="336"/>
+      <c r="M11" s="336"/>
+      <c r="N11" s="337">
         <f t="shared" si="2"/>
         <v>13585000</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="390"/>
-      <c r="B12" s="387"/>
-      <c r="C12" s="390"/>
-      <c r="D12" s="390"/>
-      <c r="E12" s="390"/>
+      <c r="A12" s="436"/>
+      <c r="B12" s="438"/>
+      <c r="C12" s="436"/>
+      <c r="D12" s="436"/>
+      <c r="E12" s="436"/>
       <c r="F12" s="104" t="s">
         <v>65</v>
       </c>
@@ -10738,19 +10738,19 @@
         <f t="shared" si="1"/>
         <v>5850000</v>
       </c>
-      <c r="L12" s="448"/>
-      <c r="M12" s="448"/>
-      <c r="N12" s="449">
+      <c r="L12" s="336"/>
+      <c r="M12" s="336"/>
+      <c r="N12" s="337">
         <f t="shared" si="2"/>
         <v>5850000</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="390"/>
-      <c r="B13" s="387"/>
-      <c r="C13" s="390"/>
-      <c r="D13" s="390"/>
-      <c r="E13" s="390"/>
+      <c r="A13" s="436"/>
+      <c r="B13" s="438"/>
+      <c r="C13" s="436"/>
+      <c r="D13" s="436"/>
+      <c r="E13" s="436"/>
       <c r="F13" s="104" t="s">
         <v>39</v>
       </c>
@@ -10771,19 +10771,19 @@
         <f t="shared" si="1"/>
         <v>3549000</v>
       </c>
-      <c r="L13" s="448"/>
-      <c r="M13" s="448"/>
-      <c r="N13" s="449">
+      <c r="L13" s="336"/>
+      <c r="M13" s="336"/>
+      <c r="N13" s="337">
         <f t="shared" si="2"/>
         <v>3549000</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="391"/>
-      <c r="B14" s="388"/>
-      <c r="C14" s="391"/>
-      <c r="D14" s="391"/>
-      <c r="E14" s="391"/>
+      <c r="A14" s="424"/>
+      <c r="B14" s="439"/>
+      <c r="C14" s="424"/>
+      <c r="D14" s="424"/>
+      <c r="E14" s="424"/>
       <c r="F14" s="106" t="s">
         <v>66</v>
       </c>
@@ -10804,25 +10804,25 @@
         <f t="shared" si="1"/>
         <v>7098000</v>
       </c>
-      <c r="L14" s="450"/>
-      <c r="M14" s="450"/>
-      <c r="N14" s="451">
+      <c r="L14" s="338"/>
+      <c r="M14" s="338"/>
+      <c r="N14" s="339">
         <f t="shared" si="2"/>
         <v>7098000</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="389">
+      <c r="A15" s="435">
         <v>332</v>
       </c>
-      <c r="B15" s="386">
+      <c r="B15" s="437">
         <v>43940</v>
       </c>
-      <c r="C15" s="389"/>
-      <c r="D15" s="389" t="s">
+      <c r="C15" s="435"/>
+      <c r="D15" s="435" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="389" t="s">
+      <c r="E15" s="435" t="s">
         <v>102</v>
       </c>
       <c r="F15" s="102" t="s">
@@ -10847,17 +10847,17 @@
       </c>
       <c r="L15" s="30"/>
       <c r="M15" s="30"/>
-      <c r="N15" s="447">
+      <c r="N15" s="335">
         <f t="shared" si="2"/>
         <v>6506500</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="390"/>
-      <c r="B16" s="387"/>
-      <c r="C16" s="390"/>
-      <c r="D16" s="390"/>
-      <c r="E16" s="390"/>
+      <c r="A16" s="436"/>
+      <c r="B16" s="438"/>
+      <c r="C16" s="436"/>
+      <c r="D16" s="436"/>
+      <c r="E16" s="436"/>
       <c r="F16" s="104" t="s">
         <v>37</v>
       </c>
@@ -10878,19 +10878,19 @@
         <f t="shared" si="1"/>
         <v>6649500</v>
       </c>
-      <c r="L16" s="448"/>
-      <c r="M16" s="448"/>
-      <c r="N16" s="449">
+      <c r="L16" s="336"/>
+      <c r="M16" s="336"/>
+      <c r="N16" s="337">
         <f t="shared" si="2"/>
         <v>6649500</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="390"/>
-      <c r="B17" s="387"/>
-      <c r="C17" s="390"/>
-      <c r="D17" s="390"/>
-      <c r="E17" s="390"/>
+      <c r="A17" s="436"/>
+      <c r="B17" s="438"/>
+      <c r="C17" s="436"/>
+      <c r="D17" s="436"/>
+      <c r="E17" s="436"/>
       <c r="F17" s="104" t="s">
         <v>40</v>
       </c>
@@ -10911,19 +10911,19 @@
         <f t="shared" si="1"/>
         <v>2470000</v>
       </c>
-      <c r="L17" s="448"/>
-      <c r="M17" s="448"/>
-      <c r="N17" s="449">
+      <c r="L17" s="336"/>
+      <c r="M17" s="336"/>
+      <c r="N17" s="337">
         <f t="shared" si="2"/>
         <v>2470000</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="390"/>
-      <c r="B18" s="387"/>
-      <c r="C18" s="390"/>
-      <c r="D18" s="390"/>
-      <c r="E18" s="390"/>
+      <c r="A18" s="436"/>
+      <c r="B18" s="438"/>
+      <c r="C18" s="436"/>
+      <c r="D18" s="436"/>
+      <c r="E18" s="436"/>
       <c r="F18" s="104" t="s">
         <v>43</v>
       </c>
@@ -10944,19 +10944,19 @@
         <f t="shared" si="1"/>
         <v>1576250</v>
       </c>
-      <c r="L18" s="448"/>
-      <c r="M18" s="448"/>
-      <c r="N18" s="449">
+      <c r="L18" s="336"/>
+      <c r="M18" s="336"/>
+      <c r="N18" s="337">
         <f t="shared" si="2"/>
         <v>1576250</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="390"/>
-      <c r="B19" s="387"/>
-      <c r="C19" s="390"/>
-      <c r="D19" s="390"/>
-      <c r="E19" s="390"/>
+      <c r="A19" s="436"/>
+      <c r="B19" s="438"/>
+      <c r="C19" s="436"/>
+      <c r="D19" s="436"/>
+      <c r="E19" s="436"/>
       <c r="F19" s="104" t="s">
         <v>38</v>
       </c>
@@ -10977,19 +10977,19 @@
         <f t="shared" si="1"/>
         <v>3932500</v>
       </c>
-      <c r="L19" s="448"/>
-      <c r="M19" s="448"/>
-      <c r="N19" s="449">
+      <c r="L19" s="336"/>
+      <c r="M19" s="336"/>
+      <c r="N19" s="337">
         <f t="shared" si="2"/>
         <v>3932500</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="391"/>
-      <c r="B20" s="388"/>
-      <c r="C20" s="391"/>
-      <c r="D20" s="391"/>
-      <c r="E20" s="391"/>
+      <c r="A20" s="424"/>
+      <c r="B20" s="439"/>
+      <c r="C20" s="424"/>
+      <c r="D20" s="424"/>
+      <c r="E20" s="424"/>
       <c r="F20" s="106" t="s">
         <v>66</v>
       </c>
@@ -11010,60 +11010,60 @@
         <f t="shared" si="1"/>
         <v>3549000</v>
       </c>
-      <c r="L20" s="450"/>
-      <c r="M20" s="450"/>
-      <c r="N20" s="451">
+      <c r="L20" s="338"/>
+      <c r="M20" s="338"/>
+      <c r="N20" s="339">
         <f t="shared" si="2"/>
         <v>3549000</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="472">
+      <c r="A21" s="423">
         <v>775</v>
       </c>
-      <c r="B21" s="473">
+      <c r="B21" s="441">
         <v>43944</v>
       </c>
-      <c r="C21" s="472"/>
-      <c r="D21" s="472" t="s">
+      <c r="C21" s="423"/>
+      <c r="D21" s="423" t="s">
         <v>279</v>
       </c>
-      <c r="E21" s="472" t="s">
+      <c r="E21" s="423" t="s">
         <v>202</v>
       </c>
-      <c r="F21" s="474" t="s">
+      <c r="F21" s="353" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="474">
+      <c r="G21" s="353">
         <v>1</v>
       </c>
-      <c r="H21" s="475">
+      <c r="H21" s="354">
         <v>455000</v>
       </c>
-      <c r="I21" s="475">
+      <c r="I21" s="354">
         <f t="shared" si="0"/>
         <v>455000</v>
       </c>
-      <c r="J21" s="476">
+      <c r="J21" s="355">
         <v>1</v>
       </c>
-      <c r="K21" s="477">
+      <c r="K21" s="356">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L21" s="242"/>
       <c r="M21" s="242"/>
-      <c r="N21" s="453">
+      <c r="N21" s="341">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="391"/>
-      <c r="B22" s="388"/>
-      <c r="C22" s="391"/>
-      <c r="D22" s="391"/>
-      <c r="E22" s="391"/>
+      <c r="A22" s="424"/>
+      <c r="B22" s="439"/>
+      <c r="C22" s="424"/>
+      <c r="D22" s="424"/>
+      <c r="E22" s="424"/>
       <c r="F22" s="106" t="s">
         <v>43</v>
       </c>
@@ -11084,9 +11084,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L22" s="450"/>
-      <c r="M22" s="450"/>
-      <c r="N22" s="451">
+      <c r="L22" s="338"/>
+      <c r="M22" s="338"/>
+      <c r="N22" s="339">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11127,21 +11127,21 @@
         <f t="shared" si="1"/>
         <v>268450.00000000006</v>
       </c>
-      <c r="L23" s="452"/>
-      <c r="M23" s="452"/>
-      <c r="N23" s="453">
+      <c r="L23" s="340"/>
+      <c r="M23" s="340"/>
+      <c r="N23" s="341">
         <f t="shared" si="2"/>
         <v>268450.00000000006</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="202" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="392" t="s">
+      <c r="A24" s="440" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="392"/>
-      <c r="C24" s="392"/>
-      <c r="D24" s="392"/>
-      <c r="E24" s="392"/>
+      <c r="B24" s="440"/>
+      <c r="C24" s="440"/>
+      <c r="D24" s="440"/>
+      <c r="E24" s="440"/>
       <c r="F24" s="198"/>
       <c r="G24" s="198">
         <f>SUM(G7:G23)</f>
@@ -11160,9 +11160,9 @@
         <f>SUM(K7:K23)</f>
         <v>65815200</v>
       </c>
-      <c r="L24" s="454"/>
-      <c r="M24" s="454"/>
-      <c r="N24" s="455">
+      <c r="L24" s="342"/>
+      <c r="M24" s="342"/>
+      <c r="N24" s="343">
         <f>SUM(N7:N23)</f>
         <v>65815200</v>
       </c>
@@ -11214,9 +11214,9 @@
       <c r="E31" s="125"/>
       <c r="F31" s="157"/>
       <c r="K31" s="206"/>
-      <c r="L31" s="444"/>
-      <c r="M31" s="444"/>
-      <c r="N31" s="444"/>
+      <c r="L31" s="333"/>
+      <c r="M31" s="333"/>
+      <c r="N31" s="333"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G32" s="110"/>
@@ -11232,6 +11232,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="D21:D22"/>
@@ -11248,20 +11262,6 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="E15:E20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -11324,17 +11324,17 @@
       <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="410" t="s">
+      <c r="A4" s="445" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="410"/>
-      <c r="C4" s="410"/>
-      <c r="D4" s="410"/>
-      <c r="E4" s="410"/>
-      <c r="F4" s="410"/>
-      <c r="G4" s="410"/>
-      <c r="H4" s="410"/>
-      <c r="I4" s="410"/>
+      <c r="B4" s="445"/>
+      <c r="C4" s="445"/>
+      <c r="D4" s="445"/>
+      <c r="E4" s="445"/>
+      <c r="F4" s="445"/>
+      <c r="G4" s="445"/>
+      <c r="H4" s="445"/>
+      <c r="I4" s="445"/>
       <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -11350,33 +11350,33 @@
       <c r="J5" s="45"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="411" t="s">
+      <c r="A6" s="446" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="412" t="s">
+      <c r="B6" s="447" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="411" t="s">
+      <c r="C6" s="446" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="413" t="s">
+      <c r="D6" s="448" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="413"/>
-      <c r="F6" s="413"/>
-      <c r="G6" s="413"/>
-      <c r="H6" s="414"/>
-      <c r="I6" s="411" t="s">
+      <c r="E6" s="448"/>
+      <c r="F6" s="448"/>
+      <c r="G6" s="448"/>
+      <c r="H6" s="449"/>
+      <c r="I6" s="446" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="408" t="s">
+      <c r="J6" s="443" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="411"/>
-      <c r="B7" s="412"/>
-      <c r="C7" s="411"/>
+      <c r="A7" s="446"/>
+      <c r="B7" s="447"/>
+      <c r="C7" s="446"/>
       <c r="D7" s="47" t="s">
         <v>31</v>
       </c>
@@ -11392,8 +11392,8 @@
       <c r="H7" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="411"/>
-      <c r="J7" s="409"/>
+      <c r="I7" s="446"/>
+      <c r="J7" s="444"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="134">
@@ -11496,10 +11496,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
-      <c r="B11" s="407" t="s">
+      <c r="B11" s="442" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="407"/>
+      <c r="C11" s="442"/>
       <c r="D11" s="54"/>
       <c r="E11" s="54"/>
       <c r="F11" s="54"/>
@@ -11518,17 +11518,17 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="403" t="s">
+      <c r="A12" s="450" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="404"/>
-      <c r="C12" s="404"/>
-      <c r="D12" s="404"/>
-      <c r="E12" s="404"/>
-      <c r="F12" s="404"/>
-      <c r="G12" s="404"/>
-      <c r="H12" s="404"/>
-      <c r="I12" s="405"/>
+      <c r="B12" s="451"/>
+      <c r="C12" s="451"/>
+      <c r="D12" s="451"/>
+      <c r="E12" s="451"/>
+      <c r="F12" s="451"/>
+      <c r="G12" s="451"/>
+      <c r="H12" s="451"/>
+      <c r="I12" s="452"/>
       <c r="J12" s="142" t="s">
         <v>163</v>
       </c>
@@ -11537,31 +11537,36 @@
       <c r="G13" s="57"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="406"/>
-      <c r="B14" s="406"/>
-      <c r="C14" s="406"/>
-      <c r="E14" s="406" t="s">
+      <c r="A14" s="453"/>
+      <c r="B14" s="453"/>
+      <c r="C14" s="453"/>
+      <c r="E14" s="453" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="406"/>
-      <c r="G14" s="406"/>
-      <c r="H14" s="406"/>
-      <c r="I14" s="406"/>
+      <c r="F14" s="453"/>
+      <c r="G14" s="453"/>
+      <c r="H14" s="453"/>
+      <c r="I14" s="453"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="406"/>
-      <c r="B19" s="406"/>
-      <c r="C19" s="406"/>
-      <c r="E19" s="406" t="s">
+      <c r="A19" s="453"/>
+      <c r="B19" s="453"/>
+      <c r="C19" s="453"/>
+      <c r="E19" s="453" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="406"/>
-      <c r="G19" s="406"/>
-      <c r="H19" s="406"/>
-      <c r="I19" s="406"/>
+      <c r="F19" s="453"/>
+      <c r="G19" s="453"/>
+      <c r="H19" s="453"/>
+      <c r="I19" s="453"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E19:I19"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="A4:I4"/>
@@ -11570,11 +11575,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="E19:I19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -11585,8 +11585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:I17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11604,13 +11604,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="426" t="s">
+      <c r="A1" s="460" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="426"/>
-      <c r="C1" s="426"/>
-      <c r="D1" s="426"/>
-      <c r="E1" s="426"/>
+      <c r="B1" s="460"/>
+      <c r="C1" s="460"/>
+      <c r="D1" s="460"/>
+      <c r="E1" s="460"/>
       <c r="F1" s="42"/>
       <c r="G1" s="42"/>
       <c r="H1" s="42"/>
@@ -11638,16 +11638,16 @@
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="410" t="s">
+      <c r="A4" s="445" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="410"/>
-      <c r="C4" s="410"/>
-      <c r="D4" s="410"/>
-      <c r="E4" s="410"/>
-      <c r="F4" s="410"/>
-      <c r="G4" s="410"/>
-      <c r="H4" s="410"/>
+      <c r="B4" s="445"/>
+      <c r="C4" s="445"/>
+      <c r="D4" s="445"/>
+      <c r="E4" s="445"/>
+      <c r="F4" s="445"/>
+      <c r="G4" s="445"/>
+      <c r="H4" s="445"/>
       <c r="I4" s="45"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -11662,29 +11662,29 @@
       <c r="I5" s="45"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="411" t="s">
+      <c r="A6" s="446" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="412" t="s">
+      <c r="B6" s="447" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="413" t="s">
+      <c r="C6" s="448" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="413"/>
-      <c r="E6" s="413"/>
-      <c r="F6" s="413"/>
-      <c r="G6" s="414"/>
-      <c r="H6" s="411" t="s">
+      <c r="D6" s="448"/>
+      <c r="E6" s="448"/>
+      <c r="F6" s="448"/>
+      <c r="G6" s="449"/>
+      <c r="H6" s="446" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="413" t="s">
+      <c r="I6" s="448" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="411"/>
-      <c r="B7" s="412"/>
+      <c r="A7" s="446"/>
+      <c r="B7" s="447"/>
       <c r="C7" s="248" t="s">
         <v>31</v>
       </c>
@@ -11700,8 +11700,8 @@
       <c r="G7" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="411"/>
-      <c r="I7" s="413"/>
+      <c r="H7" s="446"/>
+      <c r="I7" s="448"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="224">
@@ -11799,10 +11799,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="420">
+      <c r="A11" s="454">
         <v>328</v>
       </c>
-      <c r="B11" s="423">
+      <c r="B11" s="457">
         <v>43936</v>
       </c>
       <c r="C11" s="88" t="s">
@@ -11831,8 +11831,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="421"/>
-      <c r="B12" s="424"/>
+      <c r="A12" s="455"/>
+      <c r="B12" s="458"/>
       <c r="C12" s="91" t="s">
         <v>37</v>
       </c>
@@ -11859,8 +11859,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="421"/>
-      <c r="B13" s="424"/>
+      <c r="A13" s="455"/>
+      <c r="B13" s="458"/>
       <c r="C13" s="91" t="s">
         <v>40</v>
       </c>
@@ -11887,8 +11887,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="422"/>
-      <c r="B14" s="425"/>
+      <c r="A14" s="456"/>
+      <c r="B14" s="459"/>
       <c r="C14" s="215" t="s">
         <v>66</v>
       </c>
@@ -11947,10 +11947,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="207" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="416">
+      <c r="A16" s="462">
         <v>342</v>
       </c>
-      <c r="B16" s="418">
+      <c r="B16" s="464">
         <v>43942</v>
       </c>
       <c r="C16" s="267" t="s">
@@ -11979,8 +11979,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="207" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="417"/>
-      <c r="B17" s="419"/>
+      <c r="A17" s="463"/>
+      <c r="B17" s="465"/>
       <c r="C17" s="273" t="s">
         <v>37</v>
       </c>
@@ -12128,32 +12128,32 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="413" t="s">
+      <c r="A22" s="448" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="413"/>
-      <c r="C22" s="413"/>
-      <c r="D22" s="413"/>
-      <c r="E22" s="413"/>
-      <c r="F22" s="413"/>
-      <c r="G22" s="413"/>
-      <c r="H22" s="413"/>
+      <c r="B22" s="448"/>
+      <c r="C22" s="448"/>
+      <c r="D22" s="448"/>
+      <c r="E22" s="448"/>
+      <c r="F22" s="448"/>
+      <c r="G22" s="448"/>
+      <c r="H22" s="448"/>
       <c r="I22" s="131">
         <f>1088000-I16-I17</f>
         <v>270849.99999999988</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="415" t="s">
+      <c r="A23" s="461" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="415"/>
-      <c r="C23" s="415"/>
-      <c r="D23" s="415"/>
-      <c r="E23" s="415"/>
-      <c r="F23" s="415"/>
-      <c r="G23" s="415"/>
-      <c r="H23" s="415"/>
+      <c r="B23" s="461"/>
+      <c r="C23" s="461"/>
+      <c r="D23" s="461"/>
+      <c r="E23" s="461"/>
+      <c r="F23" s="461"/>
+      <c r="G23" s="461"/>
+      <c r="H23" s="461"/>
       <c r="I23" s="56">
         <f>H8-I22</f>
         <v>2950550.0000000005</v>
@@ -12208,8 +12208,8 @@
       <c r="H27" s="57"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="406"/>
-      <c r="B29" s="406"/>
+      <c r="A29" s="453"/>
+      <c r="B29" s="453"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -12217,6 +12217,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:B14"/>
@@ -12226,11 +12231,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -12241,8 +12241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -13082,38 +13082,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="58" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="434" t="s">
+      <c r="A1" s="473" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="434"/>
-      <c r="C1" s="434"/>
-      <c r="D1" s="434"/>
+      <c r="B1" s="473"/>
+      <c r="C1" s="473"/>
+      <c r="D1" s="473"/>
       <c r="E1" s="113"/>
-      <c r="F1" s="435" t="s">
+      <c r="F1" s="474" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="435"/>
-      <c r="H1" s="435"/>
-      <c r="I1" s="435"/>
-      <c r="J1" s="435"/>
-      <c r="K1" s="435"/>
+      <c r="G1" s="474"/>
+      <c r="H1" s="474"/>
+      <c r="I1" s="474"/>
+      <c r="J1" s="474"/>
+      <c r="K1" s="474"/>
     </row>
     <row r="2" spans="1:12" s="58" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="436" t="s">
+      <c r="A2" s="475" t="s">
         <v>285</v>
       </c>
-      <c r="B2" s="436"/>
-      <c r="C2" s="436"/>
-      <c r="D2" s="436"/>
+      <c r="B2" s="475"/>
+      <c r="C2" s="475"/>
+      <c r="D2" s="475"/>
       <c r="E2" s="113"/>
-      <c r="F2" s="437" t="s">
+      <c r="F2" s="476" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="437"/>
-      <c r="H2" s="437"/>
-      <c r="I2" s="437"/>
-      <c r="J2" s="437"/>
-      <c r="K2" s="437"/>
+      <c r="G2" s="476"/>
+      <c r="H2" s="476"/>
+      <c r="I2" s="476"/>
+      <c r="J2" s="476"/>
+      <c r="K2" s="476"/>
     </row>
     <row r="3" spans="1:12" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="59"/>
@@ -13126,43 +13126,43 @@
       <c r="I3" s="114"/>
     </row>
     <row r="4" spans="1:12" s="61" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="438" t="s">
+      <c r="A4" s="477" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="438"/>
-      <c r="C4" s="438"/>
-      <c r="D4" s="438"/>
-      <c r="E4" s="438"/>
-      <c r="F4" s="438"/>
-      <c r="G4" s="438"/>
-      <c r="H4" s="438"/>
-      <c r="I4" s="438"/>
-      <c r="J4" s="438"/>
-      <c r="K4" s="438"/>
-      <c r="L4" s="438"/>
+      <c r="B4" s="477"/>
+      <c r="C4" s="477"/>
+      <c r="D4" s="477"/>
+      <c r="E4" s="477"/>
+      <c r="F4" s="477"/>
+      <c r="G4" s="477"/>
+      <c r="H4" s="477"/>
+      <c r="I4" s="477"/>
+      <c r="J4" s="477"/>
+      <c r="K4" s="477"/>
+      <c r="L4" s="477"/>
     </row>
     <row r="5" spans="1:12" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="439" t="s">
+      <c r="A5" s="478" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="439"/>
-      <c r="C5" s="439"/>
-      <c r="D5" s="439"/>
-      <c r="E5" s="439"/>
-      <c r="F5" s="439"/>
-      <c r="G5" s="439"/>
-      <c r="H5" s="439"/>
-      <c r="I5" s="439"/>
-      <c r="J5" s="439"/>
-      <c r="K5" s="439"/>
-      <c r="L5" s="439"/>
+      <c r="B5" s="478"/>
+      <c r="C5" s="478"/>
+      <c r="D5" s="478"/>
+      <c r="E5" s="478"/>
+      <c r="F5" s="478"/>
+      <c r="G5" s="478"/>
+      <c r="H5" s="478"/>
+      <c r="I5" s="478"/>
+      <c r="J5" s="478"/>
+      <c r="K5" s="478"/>
+      <c r="L5" s="478"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="440" t="s">
+      <c r="J6" s="479" t="s">
         <v>129</v>
       </c>
-      <c r="K6" s="440"/>
-      <c r="L6" s="440"/>
+      <c r="K6" s="479"/>
+      <c r="L6" s="479"/>
     </row>
     <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="251" t="s">
@@ -13229,12 +13229,12 @@
       <c r="L8" s="251"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="431" t="s">
+      <c r="A9" s="470" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="432"/>
-      <c r="C9" s="432"/>
-      <c r="D9" s="433"/>
+      <c r="B9" s="471"/>
+      <c r="C9" s="471"/>
+      <c r="D9" s="472"/>
       <c r="E9" s="253"/>
       <c r="F9" s="257">
         <f>SUM(F10:F13)</f>
@@ -13394,12 +13394,12 @@
       <c r="L13" s="69"/>
     </row>
     <row r="14" spans="1:12" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="428" t="s">
+      <c r="A14" s="467" t="s">
         <v>151</v>
       </c>
-      <c r="B14" s="429"/>
-      <c r="C14" s="429"/>
-      <c r="D14" s="430"/>
+      <c r="B14" s="468"/>
+      <c r="C14" s="468"/>
+      <c r="D14" s="469"/>
       <c r="E14" s="123"/>
       <c r="F14" s="257">
         <f>SUM(F15:F16)</f>
@@ -13492,11 +13492,11 @@
       <c r="L16" s="73"/>
     </row>
     <row r="17" spans="1:12" s="77" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="441" t="s">
+      <c r="A17" s="480" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="442"/>
-      <c r="C17" s="443"/>
+      <c r="B17" s="481"/>
+      <c r="C17" s="482"/>
       <c r="D17" s="119"/>
       <c r="E17" s="120"/>
       <c r="F17" s="119">
@@ -13523,14 +13523,14 @@
       <c r="L17" s="118"/>
     </row>
     <row r="19" spans="1:12" s="77" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="394"/>
-      <c r="C19" s="394"/>
-      <c r="D19" s="394"/>
+      <c r="B19" s="425"/>
+      <c r="C19" s="425"/>
+      <c r="D19" s="425"/>
       <c r="E19" s="115"/>
-      <c r="H19" s="394"/>
-      <c r="I19" s="394"/>
-      <c r="J19" s="394"/>
-      <c r="K19" s="394"/>
+      <c r="H19" s="425"/>
+      <c r="I19" s="425"/>
+      <c r="J19" s="425"/>
+      <c r="K19" s="425"/>
     </row>
     <row r="20" spans="1:12" s="77" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B20" s="246" t="s">
@@ -13542,12 +13542,12 @@
         <v>201</v>
       </c>
       <c r="G20" s="246"/>
-      <c r="H20" s="394" t="s">
+      <c r="H20" s="425" t="s">
         <v>283</v>
       </c>
-      <c r="I20" s="394"/>
-      <c r="J20" s="394"/>
-      <c r="K20" s="394"/>
+      <c r="I20" s="425"/>
+      <c r="J20" s="425"/>
+      <c r="K20" s="425"/>
     </row>
     <row r="21" spans="1:12" s="249" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B21" s="250" t="s">
@@ -13559,12 +13559,12 @@
         <v>284</v>
       </c>
       <c r="G21" s="250"/>
-      <c r="H21" s="427" t="s">
+      <c r="H21" s="466" t="s">
         <v>284</v>
       </c>
-      <c r="I21" s="427"/>
-      <c r="J21" s="427"/>
-      <c r="K21" s="427"/>
+      <c r="I21" s="466"/>
+      <c r="J21" s="466"/>
+      <c r="K21" s="466"/>
     </row>
     <row r="24" spans="1:12" s="152" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="125"/>

--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/OKLA/NANOMILK 4_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/OKLA/NANOMILK 4_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="6"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,6 @@
     <t>CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
   </si>
   <si>
-    <t xml:space="preserve"> Số:………./PKD. MST: 0108806878</t>
-  </si>
-  <si>
     <t xml:space="preserve">       Độc lập – Tự do – Hạnh phúc</t>
   </si>
   <si>
@@ -437,9 +434,6 @@
     <t>Tiền mua hàng chưa thanh toán</t>
   </si>
   <si>
-    <t>Tạm ứng lương tháng 2 và tháng 3</t>
-  </si>
-  <si>
     <t>Lương thực lĩnh</t>
   </si>
   <si>
@@ -491,9 +485,6 @@
     <t>Phòng kế toán</t>
   </si>
   <si>
-    <t>Lương tháng 2+3 công ty còn nợ nhận viên</t>
-  </si>
-  <si>
     <t>16*60%+10</t>
   </si>
   <si>
@@ -545,9 +536,6 @@
     <t xml:space="preserve">Tổng cộng </t>
   </si>
   <si>
-    <t>Tổng doanh số bán hàng toàn công ty tháng 03/2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thực tế tiền mặt thu về </t>
   </si>
   <si>
@@ -981,6 +969,18 @@
   </si>
   <si>
     <t>(8) = (2) - (3) - (4) - (5) - (7)</t>
+  </si>
+  <si>
+    <t>Tạm ứng lương</t>
+  </si>
+  <si>
+    <t>Lương công ty còn nợ nhận viên</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Số:H-NNM042020/PKT. MST: 0108806878</t>
+  </si>
+  <si>
+    <t>Tổng doanh số bán hàng toàn công ty tháng 04/2020</t>
   </si>
 </sst>
 </file>
@@ -2359,6 +2359,42 @@
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2371,50 +2407,35 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="31" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2437,6 +2458,57 @@
     <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2446,78 +2518,6 @@
     <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="30" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="30" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2533,6 +2533,33 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2542,12 +2569,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2578,26 +2599,17 @@
     <xf numFmtId="166" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2623,17 +2635,20 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2655,21 +2670,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3120,14 +3120,14 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="159" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B2" s="159"/>
       <c r="C2" s="159"/>
       <c r="D2" s="160"/>
       <c r="E2" s="161"/>
       <c r="F2" s="162" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="162"/>
       <c r="I2" s="163"/>
@@ -3141,16 +3141,16 @@
       <c r="Q2" s="163"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="365" t="s">
-        <v>246</v>
-      </c>
-      <c r="B3" s="365"/>
-      <c r="C3" s="365"/>
-      <c r="D3" s="365"/>
-      <c r="E3" s="365"/>
-      <c r="F3" s="365"/>
-      <c r="G3" s="365"/>
-      <c r="H3" s="365"/>
+      <c r="A3" s="377" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="377"/>
+      <c r="C3" s="377"/>
+      <c r="D3" s="377"/>
+      <c r="E3" s="377"/>
+      <c r="F3" s="377"/>
+      <c r="G3" s="377"/>
+      <c r="H3" s="377"/>
       <c r="I3" s="164"/>
       <c r="J3" s="164"/>
       <c r="K3" s="164"/>
@@ -3162,43 +3162,43 @@
       <c r="Q3" s="164"/>
     </row>
     <row r="4" spans="1:17" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="366" t="s">
+      <c r="A4" s="365" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="362" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="365" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="371" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="366" t="s">
+      <c r="D4" s="367" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="368" t="s">
+      <c r="E4" s="369" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="370" t="s">
+      <c r="F4" s="369"/>
+      <c r="G4" s="369" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="370"/>
-      <c r="G4" s="370" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="370"/>
+      <c r="H4" s="369"/>
     </row>
     <row r="5" spans="1:17" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="367"/>
-      <c r="B5" s="372"/>
-      <c r="C5" s="367"/>
-      <c r="D5" s="369"/>
+      <c r="A5" s="366"/>
+      <c r="B5" s="363"/>
+      <c r="C5" s="366"/>
+      <c r="D5" s="368"/>
       <c r="E5" s="165" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F5" s="165" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="165" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H5" s="165" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -3206,13 +3206,13 @@
         <v>43905</v>
       </c>
       <c r="B6" s="148" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C6" s="149" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D6" s="150" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="151"/>
       <c r="F6" s="166"/>
@@ -3226,13 +3226,13 @@
         <v>43910</v>
       </c>
       <c r="B7" s="148" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C7" s="149" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D7" s="150" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="151"/>
       <c r="F7" s="166"/>
@@ -3246,13 +3246,13 @@
         <v>43910</v>
       </c>
       <c r="B8" s="148" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C8" s="149" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D8" s="150" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="151"/>
       <c r="F8" s="166"/>
@@ -3266,13 +3266,13 @@
         <v>43912</v>
       </c>
       <c r="B9" s="148" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C9" s="149" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D9" s="150" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="151"/>
       <c r="F9" s="166"/>
@@ -3286,13 +3286,13 @@
         <v>43912</v>
       </c>
       <c r="B10" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C10" s="149" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="150" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="151"/>
       <c r="F10" s="166"/>
@@ -3306,13 +3306,13 @@
         <v>43912</v>
       </c>
       <c r="B11" s="148" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C11" s="149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="150" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E11" s="151"/>
       <c r="F11" s="166"/>
@@ -3326,13 +3326,13 @@
         <v>43914</v>
       </c>
       <c r="B12" s="148" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C12" s="149" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D12" s="150" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="151"/>
       <c r="F12" s="166"/>
@@ -3346,13 +3346,13 @@
         <v>43915</v>
       </c>
       <c r="B13" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C13" s="149" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="150" t="s">
         <v>72</v>
-      </c>
-      <c r="D13" s="150" t="s">
-        <v>73</v>
       </c>
       <c r="E13" s="151"/>
       <c r="F13" s="166"/>
@@ -3366,13 +3366,13 @@
         <v>43915</v>
       </c>
       <c r="B14" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C14" s="149" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="167" t="s">
         <v>72</v>
-      </c>
-      <c r="D14" s="167" t="s">
-        <v>73</v>
       </c>
       <c r="E14" s="151"/>
       <c r="F14" s="166"/>
@@ -3386,13 +3386,13 @@
         <v>43915</v>
       </c>
       <c r="B15" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C15" s="149" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="150" t="s">
         <v>72</v>
-      </c>
-      <c r="D15" s="150" t="s">
-        <v>73</v>
       </c>
       <c r="E15" s="151"/>
       <c r="F15" s="166"/>
@@ -3406,13 +3406,13 @@
         <v>43915</v>
       </c>
       <c r="B16" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C16" s="149" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="150" t="s">
         <v>72</v>
-      </c>
-      <c r="D16" s="150" t="s">
-        <v>73</v>
       </c>
       <c r="E16" s="151"/>
       <c r="F16" s="166"/>
@@ -3426,13 +3426,13 @@
         <v>43915</v>
       </c>
       <c r="B17" s="148" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C17" s="149" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="150" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="151"/>
       <c r="F17" s="166"/>
@@ -3446,13 +3446,13 @@
         <v>43915</v>
       </c>
       <c r="B18" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C18" s="149" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="167" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" s="151"/>
       <c r="F18" s="166"/>
@@ -3466,13 +3466,13 @@
         <v>43915</v>
       </c>
       <c r="B19" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C19" s="149" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="150" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" s="151"/>
       <c r="F19" s="166"/>
@@ -3486,13 +3486,13 @@
         <v>43919</v>
       </c>
       <c r="B20" s="148" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C20" s="149" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="150" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" s="151"/>
       <c r="F20" s="166"/>
@@ -3506,13 +3506,13 @@
         <v>43920</v>
       </c>
       <c r="B21" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C21" s="149" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" s="150" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" s="151"/>
       <c r="F21" s="166"/>
@@ -3526,13 +3526,13 @@
         <v>43920</v>
       </c>
       <c r="B22" s="148" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C22" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" s="150" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F22" s="151">
         <v>805350</v>
@@ -3545,13 +3545,13 @@
         <v>43921</v>
       </c>
       <c r="B23" s="148" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C23" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="150" t="s">
         <v>124</v>
-      </c>
-      <c r="D23" s="150" t="s">
-        <v>125</v>
       </c>
       <c r="E23" s="151"/>
       <c r="F23" s="166"/>
@@ -3565,13 +3565,13 @@
         <v>43921</v>
       </c>
       <c r="B24" s="148" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C24" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" s="150" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E24" s="151">
         <v>9876600</v>
@@ -3585,13 +3585,13 @@
         <v>43921</v>
       </c>
       <c r="B25" s="148" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C25" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" s="150" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E25" s="151"/>
       <c r="F25" s="151">
@@ -3605,13 +3605,13 @@
         <v>43922</v>
       </c>
       <c r="B26" s="148" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C26" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" s="150" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E26" s="151"/>
       <c r="F26" s="151">
@@ -3625,13 +3625,13 @@
         <v>43925</v>
       </c>
       <c r="B27" s="148" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C27" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" s="150" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E27" s="151"/>
       <c r="F27" s="166">
@@ -3645,13 +3645,13 @@
         <v>43929</v>
       </c>
       <c r="B28" s="148" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C28" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28" s="150" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E28" s="151"/>
       <c r="F28" s="166">
@@ -3665,13 +3665,13 @@
         <v>43929</v>
       </c>
       <c r="B29" s="148" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C29" s="149" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="150" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E29" s="151"/>
       <c r="F29" s="166"/>
@@ -3685,13 +3685,13 @@
         <v>43931</v>
       </c>
       <c r="B30" s="148" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C30" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D30" s="150" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F30" s="151">
         <v>268450</v>
@@ -3704,13 +3704,13 @@
         <v>43932</v>
       </c>
       <c r="B31" s="148" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C31" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D31" s="150" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E31" s="151"/>
       <c r="F31" s="166">
@@ -3724,13 +3724,13 @@
         <v>43933</v>
       </c>
       <c r="B32" s="148" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C32" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D32" s="150" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E32" s="166">
         <v>10301400</v>
@@ -3743,13 +3743,13 @@
         <v>43934</v>
       </c>
       <c r="B33" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C33" s="149" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D33" s="150" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E33" s="151"/>
       <c r="F33" s="166"/>
@@ -3763,13 +3763,13 @@
         <v>43935</v>
       </c>
       <c r="B34" s="148" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C34" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D34" s="150" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E34" s="151">
         <v>324500</v>
@@ -3783,13 +3783,13 @@
         <v>43936</v>
       </c>
       <c r="B35" s="148" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C35" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D35" s="150" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F35" s="151">
         <v>1637150</v>
@@ -3802,13 +3802,13 @@
         <v>43939</v>
       </c>
       <c r="B36" s="148" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C36" s="149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" s="150" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E36" s="151"/>
       <c r="F36" s="166"/>
@@ -3822,13 +3822,13 @@
         <v>43941</v>
       </c>
       <c r="B37" s="148" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C37" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="150" t="s">
         <v>124</v>
-      </c>
-      <c r="D37" s="150" t="s">
-        <v>125</v>
       </c>
       <c r="E37" s="151"/>
       <c r="F37" s="166"/>
@@ -3842,13 +3842,13 @@
         <v>43941</v>
       </c>
       <c r="B38" s="148" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C38" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D38" s="150" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E38" s="151">
         <v>3799600</v>
@@ -3862,13 +3862,13 @@
         <v>43941</v>
       </c>
       <c r="B39" s="148" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C39" s="149" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="150" t="s">
         <v>74</v>
-      </c>
-      <c r="D39" s="150" t="s">
-        <v>75</v>
       </c>
       <c r="E39" s="151"/>
       <c r="F39" s="166"/>
@@ -3882,13 +3882,13 @@
         <v>43941</v>
       </c>
       <c r="B40" s="148" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C40" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="150" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E40" s="151">
         <v>16281800</v>
@@ -3902,13 +3902,13 @@
         <v>43942</v>
       </c>
       <c r="B41" s="148" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C41" s="149" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D41" s="150" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E41" s="151"/>
       <c r="F41" s="166"/>
@@ -3922,13 +3922,13 @@
         <v>43942</v>
       </c>
       <c r="B42" s="148" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C42" s="149" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D42" s="150" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E42" s="151"/>
       <c r="F42" s="166"/>
@@ -3942,13 +3942,13 @@
         <v>43942</v>
       </c>
       <c r="B43" s="148" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C43" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="150" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E43" s="151"/>
       <c r="F43" s="151">
@@ -3962,13 +3962,13 @@
         <v>43942</v>
       </c>
       <c r="B44" s="148" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C44" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D44" s="150" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E44" s="151"/>
       <c r="F44" s="151">
@@ -3982,13 +3982,13 @@
         <v>43942</v>
       </c>
       <c r="B45" s="148" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C45" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D45" s="150" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E45" s="151"/>
       <c r="F45" s="151">
@@ -4002,13 +4002,13 @@
         <v>43942</v>
       </c>
       <c r="B46" s="148" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C46" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D46" s="150" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E46" s="151">
         <v>10000000</v>
@@ -4022,13 +4022,13 @@
         <v>43943</v>
       </c>
       <c r="B47" s="148" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C47" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D47" s="150" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E47" s="151"/>
       <c r="F47" s="166">
@@ -4042,13 +4042,13 @@
         <v>43944</v>
       </c>
       <c r="B48" s="148" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C48" s="149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D48" s="150" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E48" s="151"/>
       <c r="F48" s="166"/>
@@ -4062,13 +4062,13 @@
         <v>43944</v>
       </c>
       <c r="B49" s="148" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C49" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D49" s="150" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E49" s="151"/>
       <c r="F49" s="151">
@@ -4082,13 +4082,13 @@
         <v>43944</v>
       </c>
       <c r="B50" s="148" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C50" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D50" s="150" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E50" s="151"/>
       <c r="F50" s="151">
@@ -4102,13 +4102,13 @@
         <v>43944</v>
       </c>
       <c r="B51" s="148" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C51" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D51" s="150" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E51" s="151">
         <v>572300</v>
@@ -4122,13 +4122,13 @@
         <v>43944</v>
       </c>
       <c r="B52" s="148" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C52" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D52" s="150" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E52" s="151">
         <v>6442800</v>
@@ -4142,13 +4142,13 @@
         <v>43944</v>
       </c>
       <c r="B53" s="148" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C53" s="149" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D53" s="150" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E53" s="151"/>
       <c r="F53" s="166"/>
@@ -4162,13 +4162,13 @@
         <v>43945</v>
       </c>
       <c r="B54" s="148" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C54" s="149" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D54" s="150" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E54" s="151"/>
       <c r="F54" s="166"/>
@@ -4182,13 +4182,13 @@
         <v>43946</v>
       </c>
       <c r="B55" s="148" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C55" s="149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D55" s="150" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E55" s="151"/>
       <c r="F55" s="166"/>
@@ -4202,13 +4202,13 @@
         <v>43946</v>
       </c>
       <c r="B56" s="148" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C56" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D56" s="150" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E56" s="166">
         <v>6513600</v>
@@ -4221,13 +4221,13 @@
         <v>43946</v>
       </c>
       <c r="B57" s="148" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C57" s="149" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D57" s="150" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E57" s="151"/>
       <c r="F57" s="166"/>
@@ -4241,13 +4241,13 @@
         <v>43946</v>
       </c>
       <c r="B58" s="148" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C58" s="149" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D58" s="169" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E58" s="151"/>
       <c r="F58" s="166"/>
@@ -4261,13 +4261,13 @@
         <v>43946</v>
       </c>
       <c r="B59" s="148" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C59" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D59" s="169" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E59" s="151">
         <v>1716900</v>
@@ -4281,13 +4281,13 @@
         <v>43947</v>
       </c>
       <c r="B60" s="148" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C60" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D60" s="169" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E60" s="166">
         <v>1758200</v>
@@ -4300,13 +4300,13 @@
         <v>43948</v>
       </c>
       <c r="B61" s="148" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C61" s="149" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D61" s="169" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E61" s="151"/>
       <c r="F61" s="166"/>
@@ -4320,13 +4320,13 @@
         <v>43947</v>
       </c>
       <c r="B62" s="148" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C62" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D62" s="169" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E62" s="151"/>
       <c r="F62" s="166">
@@ -4340,13 +4340,13 @@
         <v>43947</v>
       </c>
       <c r="B63" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C63" s="149" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D63" s="150" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E63" s="151"/>
       <c r="F63" s="166"/>
@@ -4360,13 +4360,13 @@
         <v>43949</v>
       </c>
       <c r="B64" s="148" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C64" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D64" s="150" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E64" s="151"/>
       <c r="F64" s="166">
@@ -4380,13 +4380,13 @@
         <v>43949</v>
       </c>
       <c r="B65" s="148" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C65" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D65" s="150" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E65" s="151"/>
       <c r="F65" s="166">
@@ -4400,13 +4400,13 @@
         <v>43951</v>
       </c>
       <c r="B66" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C66" s="149" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" s="150" t="s">
         <v>72</v>
-      </c>
-      <c r="D66" s="150" t="s">
-        <v>73</v>
       </c>
       <c r="E66" s="151"/>
       <c r="F66" s="166"/>
@@ -4421,13 +4421,13 @@
         <v>43951</v>
       </c>
       <c r="B67" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C67" s="149" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="150" t="s">
         <v>72</v>
-      </c>
-      <c r="D67" s="150" t="s">
-        <v>73</v>
       </c>
       <c r="E67" s="151"/>
       <c r="F67" s="166"/>
@@ -4442,13 +4442,13 @@
         <v>43951</v>
       </c>
       <c r="B68" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C68" s="149" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="150" t="s">
         <v>72</v>
-      </c>
-      <c r="D68" s="150" t="s">
-        <v>73</v>
       </c>
       <c r="E68" s="151"/>
       <c r="F68" s="166"/>
@@ -4462,13 +4462,13 @@
         <v>43951</v>
       </c>
       <c r="B69" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C69" s="149" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" s="150" t="s">
         <v>72</v>
-      </c>
-      <c r="D69" s="150" t="s">
-        <v>73</v>
       </c>
       <c r="E69" s="151"/>
       <c r="F69" s="166"/>
@@ -4483,13 +4483,13 @@
         <v>43951</v>
       </c>
       <c r="B70" s="148" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C70" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D70" s="150" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E70" s="151"/>
       <c r="F70" s="166">
@@ -4503,13 +4503,13 @@
         <v>43951</v>
       </c>
       <c r="B71" s="148" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C71" s="149" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D71" s="150" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E71" s="151"/>
       <c r="F71" s="166"/>
@@ -4523,13 +4523,13 @@
         <v>43951</v>
       </c>
       <c r="B72" s="148" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C72" s="149" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D72" s="150" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E72" s="151"/>
       <c r="F72" s="166"/>
@@ -4539,12 +4539,12 @@
       </c>
     </row>
     <row r="73" spans="1:10" s="171" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="362" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" s="363"/>
-      <c r="C73" s="363"/>
-      <c r="D73" s="364"/>
+      <c r="A73" s="374" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="375"/>
+      <c r="C73" s="375"/>
+      <c r="D73" s="376"/>
       <c r="E73" s="170">
         <f>SUM(E6:E72)</f>
         <v>67587700</v>
@@ -4576,7 +4576,7 @@
     </row>
     <row r="75" spans="1:10" s="171" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="373" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B75" s="373"/>
       <c r="C75" s="373"/>
@@ -4590,10 +4590,10 @@
     <row r="76" spans="1:10" s="171" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="173"/>
       <c r="B76" s="173"/>
-      <c r="C76" s="374" t="s">
-        <v>272</v>
-      </c>
-      <c r="D76" s="374"/>
+      <c r="C76" s="372" t="s">
+        <v>268</v>
+      </c>
+      <c r="D76" s="372"/>
       <c r="E76" s="174"/>
       <c r="F76" s="174"/>
       <c r="G76" s="174"/>
@@ -4601,43 +4601,43 @@
       <c r="J76" s="172"/>
     </row>
     <row r="77" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="366" t="s">
+      <c r="A77" s="365" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="362" t="s">
+        <v>211</v>
+      </c>
+      <c r="C77" s="365" t="s">
         <v>4</v>
       </c>
-      <c r="B77" s="371" t="s">
-        <v>215</v>
-      </c>
-      <c r="C77" s="366" t="s">
+      <c r="D77" s="367" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="368" t="s">
+      <c r="E77" s="369" t="s">
         <v>6</v>
       </c>
-      <c r="E77" s="370" t="s">
+      <c r="F77" s="369"/>
+      <c r="G77" s="369" t="s">
         <v>7</v>
       </c>
-      <c r="F77" s="370"/>
-      <c r="G77" s="370" t="s">
-        <v>8</v>
-      </c>
-      <c r="H77" s="370"/>
+      <c r="H77" s="369"/>
     </row>
     <row r="78" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="367"/>
-      <c r="B78" s="372"/>
-      <c r="C78" s="367"/>
-      <c r="D78" s="369"/>
+      <c r="A78" s="366"/>
+      <c r="B78" s="363"/>
+      <c r="C78" s="366"/>
+      <c r="D78" s="368"/>
       <c r="E78" s="165" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F78" s="165" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G78" s="165" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H78" s="165" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4645,13 +4645,13 @@
         <v>43946</v>
       </c>
       <c r="B79" s="148" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C79" s="149" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D79" s="169" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E79" s="151"/>
       <c r="F79" s="166"/>
@@ -4665,13 +4665,13 @@
         <v>43948</v>
       </c>
       <c r="B80" s="148" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C80" s="149" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D80" s="169" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E80" s="151"/>
       <c r="F80" s="166"/>
@@ -4697,10 +4697,10 @@
     <row r="82" spans="1:10" s="171" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="173"/>
       <c r="B82" s="173"/>
-      <c r="C82" s="374" t="s">
-        <v>273</v>
-      </c>
-      <c r="D82" s="374"/>
+      <c r="C82" s="372" t="s">
+        <v>269</v>
+      </c>
+      <c r="D82" s="372"/>
       <c r="E82" s="174"/>
       <c r="F82" s="174"/>
       <c r="G82" s="174"/>
@@ -4708,43 +4708,43 @@
       <c r="J82" s="172"/>
     </row>
     <row r="83" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="366" t="s">
+      <c r="A83" s="365" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="362" t="s">
+        <v>211</v>
+      </c>
+      <c r="C83" s="365" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="371" t="s">
-        <v>215</v>
-      </c>
-      <c r="C83" s="366" t="s">
+      <c r="D83" s="367" t="s">
         <v>5</v>
       </c>
-      <c r="D83" s="368" t="s">
+      <c r="E83" s="369" t="s">
         <v>6</v>
       </c>
-      <c r="E83" s="370" t="s">
+      <c r="F83" s="369"/>
+      <c r="G83" s="369" t="s">
         <v>7</v>
       </c>
-      <c r="F83" s="370"/>
-      <c r="G83" s="370" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="370"/>
+      <c r="H83" s="369"/>
     </row>
     <row r="84" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="367"/>
-      <c r="B84" s="372"/>
-      <c r="C84" s="367"/>
-      <c r="D84" s="369"/>
+      <c r="A84" s="366"/>
+      <c r="B84" s="363"/>
+      <c r="C84" s="366"/>
+      <c r="D84" s="368"/>
       <c r="E84" s="165" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F84" s="165" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G84" s="165" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H84" s="165" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:10" s="171" customFormat="1" x14ac:dyDescent="0.25">
@@ -4752,13 +4752,13 @@
         <v>43944</v>
       </c>
       <c r="B85" s="148" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C85" s="149" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D85" s="150" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E85" s="151"/>
       <c r="F85" s="166"/>
@@ -4785,10 +4785,10 @@
     <row r="87" spans="1:10" s="171" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="173"/>
       <c r="B87" s="173"/>
-      <c r="C87" s="375" t="s">
-        <v>24</v>
-      </c>
-      <c r="D87" s="375"/>
+      <c r="C87" s="364" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="364"/>
       <c r="E87" s="174"/>
       <c r="F87" s="174"/>
       <c r="G87" s="174"/>
@@ -4796,43 +4796,43 @@
       <c r="J87" s="172"/>
     </row>
     <row r="88" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="366" t="s">
+      <c r="A88" s="365" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="362" t="s">
+        <v>211</v>
+      </c>
+      <c r="C88" s="365" t="s">
         <v>4</v>
       </c>
-      <c r="B88" s="371" t="s">
-        <v>215</v>
-      </c>
-      <c r="C88" s="366" t="s">
+      <c r="D88" s="367" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="368" t="s">
+      <c r="E88" s="369" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="370" t="s">
+      <c r="F88" s="369"/>
+      <c r="G88" s="369" t="s">
         <v>7</v>
       </c>
-      <c r="F88" s="370"/>
-      <c r="G88" s="370" t="s">
-        <v>8</v>
-      </c>
-      <c r="H88" s="370"/>
+      <c r="H88" s="369"/>
     </row>
     <row r="89" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="367"/>
-      <c r="B89" s="372"/>
-      <c r="C89" s="367"/>
-      <c r="D89" s="369"/>
+      <c r="A89" s="366"/>
+      <c r="B89" s="363"/>
+      <c r="C89" s="366"/>
+      <c r="D89" s="368"/>
       <c r="E89" s="165" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F89" s="165" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G89" s="165" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H89" s="165" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4840,13 +4840,13 @@
         <v>43912</v>
       </c>
       <c r="B90" s="148" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C90" s="149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D90" s="150" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E90" s="151"/>
       <c r="F90" s="166"/>
@@ -4860,13 +4860,13 @@
         <v>43939</v>
       </c>
       <c r="B91" s="148" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C91" s="149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D91" s="150" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E91" s="151"/>
       <c r="F91" s="166"/>
@@ -4880,13 +4880,13 @@
         <v>43944</v>
       </c>
       <c r="B92" s="148" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C92" s="149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D92" s="150" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E92" s="151"/>
       <c r="F92" s="166"/>
@@ -4900,13 +4900,13 @@
         <v>43946</v>
       </c>
       <c r="B93" s="148" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C93" s="149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D93" s="150" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E93" s="151"/>
       <c r="F93" s="166"/>
@@ -4934,10 +4934,10 @@
     <row r="95" spans="1:10" s="171" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="173"/>
       <c r="B95" s="173"/>
-      <c r="C95" s="375" t="s">
-        <v>67</v>
-      </c>
-      <c r="D95" s="375"/>
+      <c r="C95" s="364" t="s">
+        <v>66</v>
+      </c>
+      <c r="D95" s="364"/>
       <c r="E95" s="174"/>
       <c r="F95" s="174"/>
       <c r="G95" s="174"/>
@@ -4945,43 +4945,43 @@
       <c r="J95" s="172"/>
     </row>
     <row r="96" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="366" t="s">
+      <c r="A96" s="365" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="362" t="s">
+        <v>270</v>
+      </c>
+      <c r="C96" s="365" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="371" t="s">
-        <v>274</v>
-      </c>
-      <c r="C96" s="366" t="s">
+      <c r="D96" s="367" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="368" t="s">
+      <c r="E96" s="369" t="s">
         <v>6</v>
       </c>
-      <c r="E96" s="370" t="s">
+      <c r="F96" s="369"/>
+      <c r="G96" s="369" t="s">
         <v>7</v>
       </c>
-      <c r="F96" s="370"/>
-      <c r="G96" s="370" t="s">
-        <v>8</v>
-      </c>
-      <c r="H96" s="370"/>
+      <c r="H96" s="369"/>
     </row>
     <row r="97" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="367"/>
-      <c r="B97" s="372"/>
-      <c r="C97" s="367"/>
-      <c r="D97" s="369"/>
+      <c r="A97" s="366"/>
+      <c r="B97" s="363"/>
+      <c r="C97" s="366"/>
+      <c r="D97" s="368"/>
       <c r="E97" s="165" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F97" s="165" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G97" s="165" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H97" s="165" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -4989,13 +4989,13 @@
         <v>43905</v>
       </c>
       <c r="B98" s="148" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C98" s="149" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D98" s="150" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E98" s="151"/>
       <c r="F98" s="166"/>
@@ -5009,13 +5009,13 @@
         <v>43910</v>
       </c>
       <c r="B99" s="148" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C99" s="149" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D99" s="150" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E99" s="151"/>
       <c r="F99" s="166"/>
@@ -5029,13 +5029,13 @@
         <v>43910</v>
       </c>
       <c r="B100" s="148" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C100" s="149" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D100" s="150" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E100" s="151"/>
       <c r="F100" s="166"/>
@@ -5049,13 +5049,13 @@
         <v>43912</v>
       </c>
       <c r="B101" s="148" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C101" s="149" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D101" s="150" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E101" s="151"/>
       <c r="F101" s="166"/>
@@ -5069,13 +5069,13 @@
         <v>43914</v>
       </c>
       <c r="B102" s="148" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C102" s="149" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D102" s="150" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E102" s="151"/>
       <c r="F102" s="166"/>
@@ -5089,13 +5089,13 @@
         <v>43946</v>
       </c>
       <c r="B103" s="148" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C103" s="149" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D103" s="150" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E103" s="151"/>
       <c r="F103" s="166"/>
@@ -5109,13 +5109,13 @@
         <v>43951</v>
       </c>
       <c r="B104" s="148" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C104" s="149" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D104" s="150" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E104" s="151"/>
       <c r="F104" s="166"/>
@@ -5140,10 +5140,10 @@
     <row r="106" spans="1:10" s="171" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="173"/>
       <c r="B106" s="173"/>
-      <c r="C106" s="375" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="375"/>
+      <c r="C106" s="364" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="364"/>
       <c r="E106" s="174"/>
       <c r="F106" s="174"/>
       <c r="G106" s="174"/>
@@ -5151,43 +5151,43 @@
       <c r="J106" s="172"/>
     </row>
     <row r="107" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="366" t="s">
+      <c r="A107" s="365" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="362" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107" s="365" t="s">
         <v>4</v>
       </c>
-      <c r="B107" s="371" t="s">
-        <v>215</v>
-      </c>
-      <c r="C107" s="366" t="s">
+      <c r="D107" s="367" t="s">
         <v>5</v>
       </c>
-      <c r="D107" s="368" t="s">
+      <c r="E107" s="369" t="s">
         <v>6</v>
       </c>
-      <c r="E107" s="370" t="s">
+      <c r="F107" s="369"/>
+      <c r="G107" s="369" t="s">
         <v>7</v>
       </c>
-      <c r="F107" s="370"/>
-      <c r="G107" s="370" t="s">
-        <v>8</v>
-      </c>
-      <c r="H107" s="370"/>
+      <c r="H107" s="369"/>
     </row>
     <row r="108" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="367"/>
-      <c r="B108" s="372"/>
-      <c r="C108" s="367"/>
-      <c r="D108" s="369"/>
+      <c r="A108" s="366"/>
+      <c r="B108" s="363"/>
+      <c r="C108" s="366"/>
+      <c r="D108" s="368"/>
       <c r="E108" s="165" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F108" s="165" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G108" s="165" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H108" s="165" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -5195,13 +5195,13 @@
         <v>43912</v>
       </c>
       <c r="B109" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C109" s="149" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D109" s="150" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E109" s="151"/>
       <c r="F109" s="166"/>
@@ -5215,13 +5215,13 @@
         <v>43915</v>
       </c>
       <c r="B110" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C110" s="149" t="s">
+        <v>71</v>
+      </c>
+      <c r="D110" s="150" t="s">
         <v>72</v>
-      </c>
-      <c r="D110" s="150" t="s">
-        <v>73</v>
       </c>
       <c r="E110" s="151"/>
       <c r="F110" s="166"/>
@@ -5235,13 +5235,13 @@
         <v>43915</v>
       </c>
       <c r="B111" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C111" s="149" t="s">
+        <v>71</v>
+      </c>
+      <c r="D111" s="167" t="s">
         <v>72</v>
-      </c>
-      <c r="D111" s="167" t="s">
-        <v>73</v>
       </c>
       <c r="E111" s="151"/>
       <c r="F111" s="166"/>
@@ -5255,13 +5255,13 @@
         <v>43915</v>
       </c>
       <c r="B112" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C112" s="149" t="s">
+        <v>71</v>
+      </c>
+      <c r="D112" s="150" t="s">
         <v>72</v>
-      </c>
-      <c r="D112" s="150" t="s">
-        <v>73</v>
       </c>
       <c r="E112" s="151"/>
       <c r="F112" s="166"/>
@@ -5275,13 +5275,13 @@
         <v>43915</v>
       </c>
       <c r="B113" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C113" s="149" t="s">
+        <v>71</v>
+      </c>
+      <c r="D113" s="150" t="s">
         <v>72</v>
-      </c>
-      <c r="D113" s="150" t="s">
-        <v>73</v>
       </c>
       <c r="E113" s="151"/>
       <c r="F113" s="166"/>
@@ -5295,13 +5295,13 @@
         <v>43915</v>
       </c>
       <c r="B114" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C114" s="149" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D114" s="167" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E114" s="151"/>
       <c r="F114" s="166"/>
@@ -5315,13 +5315,13 @@
         <v>43915</v>
       </c>
       <c r="B115" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C115" s="149" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D115" s="150" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E115" s="151"/>
       <c r="F115" s="166"/>
@@ -5335,13 +5335,13 @@
         <v>43920</v>
       </c>
       <c r="B116" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C116" s="149" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D116" s="150" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E116" s="151"/>
       <c r="F116" s="166"/>
@@ -5355,13 +5355,13 @@
         <v>43934</v>
       </c>
       <c r="B117" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C117" s="149" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D117" s="150" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E117" s="151"/>
       <c r="F117" s="166"/>
@@ -5375,13 +5375,13 @@
         <v>43947</v>
       </c>
       <c r="B118" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C118" s="149" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D118" s="150" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E118" s="151"/>
       <c r="F118" s="166"/>
@@ -5395,13 +5395,13 @@
         <v>43951</v>
       </c>
       <c r="B119" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C119" s="149" t="s">
+        <v>71</v>
+      </c>
+      <c r="D119" s="150" t="s">
         <v>72</v>
-      </c>
-      <c r="D119" s="150" t="s">
-        <v>73</v>
       </c>
       <c r="E119" s="151"/>
       <c r="F119" s="166"/>
@@ -5415,13 +5415,13 @@
         <v>43951</v>
       </c>
       <c r="B120" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C120" s="149" t="s">
+        <v>71</v>
+      </c>
+      <c r="D120" s="150" t="s">
         <v>72</v>
-      </c>
-      <c r="D120" s="150" t="s">
-        <v>73</v>
       </c>
       <c r="E120" s="151"/>
       <c r="F120" s="166"/>
@@ -5435,13 +5435,13 @@
         <v>43951</v>
       </c>
       <c r="B121" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C121" s="149" t="s">
+        <v>71</v>
+      </c>
+      <c r="D121" s="150" t="s">
         <v>72</v>
-      </c>
-      <c r="D121" s="150" t="s">
-        <v>73</v>
       </c>
       <c r="E121" s="151"/>
       <c r="F121" s="166"/>
@@ -5455,13 +5455,13 @@
         <v>43951</v>
       </c>
       <c r="B122" s="148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C122" s="149" t="s">
+        <v>71</v>
+      </c>
+      <c r="D122" s="150" t="s">
         <v>72</v>
-      </c>
-      <c r="D122" s="150" t="s">
-        <v>73</v>
       </c>
       <c r="E122" s="151"/>
       <c r="F122" s="166"/>
@@ -5486,53 +5486,53 @@
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="190"/>
       <c r="B124" s="190"/>
-      <c r="C124" s="375" t="s">
-        <v>126</v>
-      </c>
-      <c r="D124" s="375"/>
+      <c r="C124" s="364" t="s">
+        <v>125</v>
+      </c>
+      <c r="D124" s="364"/>
       <c r="E124" s="191"/>
       <c r="F124" s="192"/>
       <c r="G124" s="191"/>
       <c r="H124" s="193"/>
     </row>
     <row r="125" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="372" t="s">
+      <c r="A125" s="363" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" s="362" t="s">
+        <v>211</v>
+      </c>
+      <c r="C125" s="363" t="s">
         <v>4</v>
       </c>
-      <c r="B125" s="371" t="s">
-        <v>215</v>
-      </c>
-      <c r="C125" s="372" t="s">
+      <c r="D125" s="370" t="s">
         <v>5</v>
       </c>
-      <c r="D125" s="376" t="s">
+      <c r="E125" s="371" t="s">
         <v>6</v>
       </c>
-      <c r="E125" s="377" t="s">
+      <c r="F125" s="371"/>
+      <c r="G125" s="371" t="s">
         <v>7</v>
       </c>
-      <c r="F125" s="377"/>
-      <c r="G125" s="377" t="s">
-        <v>8</v>
-      </c>
-      <c r="H125" s="377"/>
+      <c r="H125" s="371"/>
     </row>
     <row r="126" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="367"/>
-      <c r="B126" s="372"/>
-      <c r="C126" s="367"/>
-      <c r="D126" s="369"/>
+      <c r="A126" s="366"/>
+      <c r="B126" s="363"/>
+      <c r="C126" s="366"/>
+      <c r="D126" s="368"/>
       <c r="E126" s="165" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F126" s="165" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G126" s="165" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H126" s="165" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -5540,13 +5540,13 @@
         <v>43920</v>
       </c>
       <c r="B127" s="148" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C127" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D127" s="150" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E127" s="151">
         <v>805350</v>
@@ -5560,13 +5560,13 @@
         <v>43921</v>
       </c>
       <c r="B128" s="148" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C128" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D128" s="150" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E128" s="151">
         <v>9876600</v>
@@ -5580,13 +5580,13 @@
         <v>43921</v>
       </c>
       <c r="B129" s="148" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C129" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D129" s="150" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E129" s="151">
         <v>548000</v>
@@ -5600,13 +5600,13 @@
         <v>43922</v>
       </c>
       <c r="B130" s="148" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C130" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D130" s="150" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E130" s="151">
         <v>268000</v>
@@ -5620,13 +5620,13 @@
         <v>43925</v>
       </c>
       <c r="B131" s="148" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C131" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D131" s="150" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E131" s="151"/>
       <c r="F131" s="166">
@@ -5640,13 +5640,13 @@
         <v>43929</v>
       </c>
       <c r="B132" s="148" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C132" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D132" s="150" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E132" s="151"/>
       <c r="F132" s="166">
@@ -5660,13 +5660,13 @@
         <v>43931</v>
       </c>
       <c r="B133" s="148" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C133" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D133" s="150" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E133" s="151">
         <v>268450</v>
@@ -5680,13 +5680,13 @@
         <v>43932</v>
       </c>
       <c r="B134" s="148" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C134" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D134" s="150" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E134" s="151"/>
       <c r="F134" s="166">
@@ -5700,13 +5700,13 @@
         <v>43933</v>
       </c>
       <c r="B135" s="148" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C135" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D135" s="150" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E135" s="151"/>
       <c r="F135" s="166">
@@ -5720,13 +5720,13 @@
         <v>43935</v>
       </c>
       <c r="B136" s="148" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C136" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D136" s="150" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E136" s="151">
         <v>324500</v>
@@ -5740,13 +5740,13 @@
         <v>43936</v>
       </c>
       <c r="B137" s="148" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C137" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D137" s="150" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E137" s="151">
         <v>1637150</v>
@@ -5760,13 +5760,13 @@
         <v>43941</v>
       </c>
       <c r="B138" s="148" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C138" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D138" s="150" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E138" s="151">
         <v>3799600</v>
@@ -5780,13 +5780,13 @@
         <v>43941</v>
       </c>
       <c r="B139" s="148" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C139" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D139" s="150" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E139" s="151">
         <v>16281800</v>
@@ -5800,13 +5800,13 @@
         <v>43942</v>
       </c>
       <c r="B140" s="148" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C140" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D140" s="150" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E140" s="151">
         <v>1088000</v>
@@ -5820,13 +5820,13 @@
         <v>43942</v>
       </c>
       <c r="B141" s="148" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C141" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D141" s="150" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E141" s="151">
         <v>274000</v>
@@ -5840,13 +5840,13 @@
         <v>43942</v>
       </c>
       <c r="B142" s="148" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C142" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D142" s="150" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E142" s="151">
         <v>286000</v>
@@ -5860,13 +5860,13 @@
         <v>43942</v>
       </c>
       <c r="B143" s="148" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C143" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D143" s="150" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E143" s="151">
         <v>10000000</v>
@@ -5880,13 +5880,13 @@
         <v>43943</v>
       </c>
       <c r="B144" s="148" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C144" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D144" s="150" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E144" s="151"/>
       <c r="F144" s="166">
@@ -5900,13 +5900,13 @@
         <v>43944</v>
       </c>
       <c r="B145" s="148" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C145" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D145" s="150" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E145" s="151">
         <v>1430000</v>
@@ -5920,13 +5920,13 @@
         <v>43944</v>
       </c>
       <c r="B146" s="148" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C146" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D146" s="150" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E146" s="151">
         <v>268000</v>
@@ -5940,13 +5940,13 @@
         <v>43944</v>
       </c>
       <c r="B147" s="148" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C147" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D147" s="150" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E147" s="151">
         <v>572300</v>
@@ -5960,13 +5960,13 @@
         <v>43944</v>
       </c>
       <c r="B148" s="148" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C148" s="149" t="s">
+        <v>125</v>
+      </c>
+      <c r="D148" s="150" t="s">
         <v>126</v>
-      </c>
-      <c r="D148" s="150" t="s">
-        <v>127</v>
       </c>
       <c r="E148" s="151">
         <v>6442800</v>
@@ -5980,13 +5980,13 @@
         <v>43946</v>
       </c>
       <c r="B149" s="148" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C149" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D149" s="150" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E149" s="151"/>
       <c r="F149" s="166">
@@ -6000,13 +6000,13 @@
         <v>43946</v>
       </c>
       <c r="B150" s="148" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C150" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D150" s="169" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E150" s="151">
         <v>1716900</v>
@@ -6020,13 +6020,13 @@
         <v>43947</v>
       </c>
       <c r="B151" s="148" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C151" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D151" s="169" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E151" s="151"/>
       <c r="F151" s="166">
@@ -6040,13 +6040,13 @@
         <v>43947</v>
       </c>
       <c r="B152" s="148" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C152" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D152" s="169" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E152" s="151"/>
       <c r="F152" s="166">
@@ -6060,13 +6060,13 @@
         <v>43949</v>
       </c>
       <c r="B153" s="148" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C153" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D153" s="150" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E153" s="151"/>
       <c r="F153" s="166">
@@ -6080,13 +6080,13 @@
         <v>43949</v>
       </c>
       <c r="B154" s="148" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C154" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D154" s="150" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E154" s="151"/>
       <c r="F154" s="166">
@@ -6100,13 +6100,13 @@
         <v>43951</v>
       </c>
       <c r="B155" s="148" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C155" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D155" s="150" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E155" s="151"/>
       <c r="F155" s="166">
@@ -6132,49 +6132,49 @@
       <c r="H156" s="185"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C157" s="375" t="s">
-        <v>185</v>
-      </c>
-      <c r="D157" s="375"/>
+      <c r="C157" s="364" t="s">
+        <v>181</v>
+      </c>
+      <c r="D157" s="364"/>
     </row>
     <row r="158" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="366" t="s">
+      <c r="A158" s="365" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158" s="362" t="s">
+        <v>211</v>
+      </c>
+      <c r="C158" s="365" t="s">
         <v>4</v>
       </c>
-      <c r="B158" s="371" t="s">
-        <v>215</v>
-      </c>
-      <c r="C158" s="366" t="s">
+      <c r="D158" s="367" t="s">
         <v>5</v>
       </c>
-      <c r="D158" s="368" t="s">
+      <c r="E158" s="369" t="s">
         <v>6</v>
       </c>
-      <c r="E158" s="370" t="s">
+      <c r="F158" s="369"/>
+      <c r="G158" s="369" t="s">
         <v>7</v>
       </c>
-      <c r="F158" s="370"/>
-      <c r="G158" s="370" t="s">
-        <v>8</v>
-      </c>
-      <c r="H158" s="370"/>
+      <c r="H158" s="369"/>
     </row>
     <row r="159" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="367"/>
-      <c r="B159" s="372"/>
-      <c r="C159" s="367"/>
-      <c r="D159" s="369"/>
+      <c r="A159" s="366"/>
+      <c r="B159" s="363"/>
+      <c r="C159" s="366"/>
+      <c r="D159" s="368"/>
       <c r="E159" s="165" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F159" s="165" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G159" s="165" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H159" s="165" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="160" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.25">
@@ -6182,13 +6182,13 @@
         <v>43942</v>
       </c>
       <c r="B160" s="148" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C160" s="149" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D160" s="150" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E160" s="151"/>
       <c r="F160" s="166"/>
@@ -6202,13 +6202,13 @@
         <v>43951</v>
       </c>
       <c r="B161" s="148" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C161" s="149" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D161" s="150" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E161" s="151"/>
       <c r="F161" s="166"/>
@@ -6234,49 +6234,49 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C163" s="375" t="s">
-        <v>12</v>
-      </c>
-      <c r="D163" s="375"/>
+      <c r="C163" s="364" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="364"/>
     </row>
     <row r="164" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="366" t="s">
+      <c r="A164" s="365" t="s">
+        <v>3</v>
+      </c>
+      <c r="B164" s="362" t="s">
+        <v>211</v>
+      </c>
+      <c r="C164" s="365" t="s">
         <v>4</v>
       </c>
-      <c r="B164" s="371" t="s">
-        <v>215</v>
-      </c>
-      <c r="C164" s="366" t="s">
+      <c r="D164" s="367" t="s">
         <v>5</v>
       </c>
-      <c r="D164" s="368" t="s">
+      <c r="E164" s="369" t="s">
         <v>6</v>
       </c>
-      <c r="E164" s="370" t="s">
+      <c r="F164" s="369"/>
+      <c r="G164" s="369" t="s">
         <v>7</v>
       </c>
-      <c r="F164" s="370"/>
-      <c r="G164" s="370" t="s">
-        <v>8</v>
-      </c>
-      <c r="H164" s="370"/>
+      <c r="H164" s="369"/>
     </row>
     <row r="165" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="367"/>
-      <c r="B165" s="372"/>
-      <c r="C165" s="367"/>
-      <c r="D165" s="369"/>
+      <c r="A165" s="366"/>
+      <c r="B165" s="363"/>
+      <c r="C165" s="366"/>
+      <c r="D165" s="368"/>
       <c r="E165" s="165" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F165" s="165" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G165" s="165" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H165" s="165" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -6284,13 +6284,13 @@
         <v>43915</v>
       </c>
       <c r="B166" s="148" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C166" s="149" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D166" s="150" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E166" s="151"/>
       <c r="F166" s="166"/>
@@ -6304,13 +6304,13 @@
         <v>43919</v>
       </c>
       <c r="B167" s="148" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C167" s="149" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D167" s="150" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E167" s="151"/>
       <c r="F167" s="166"/>
@@ -6324,13 +6324,13 @@
         <v>43929</v>
       </c>
       <c r="B168" s="148" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C168" s="149" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D168" s="150" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E168" s="151"/>
       <c r="F168" s="166"/>
@@ -6344,13 +6344,13 @@
         <v>43941</v>
       </c>
       <c r="B169" s="148" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C169" s="149" t="s">
+        <v>73</v>
+      </c>
+      <c r="D169" s="150" t="s">
         <v>74</v>
-      </c>
-      <c r="D169" s="150" t="s">
-        <v>75</v>
       </c>
       <c r="E169" s="151"/>
       <c r="F169" s="166"/>
@@ -6364,13 +6364,13 @@
         <v>43942</v>
       </c>
       <c r="B170" s="148" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C170" s="149" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D170" s="150" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E170" s="151"/>
       <c r="F170" s="166"/>
@@ -6384,13 +6384,13 @@
         <v>43945</v>
       </c>
       <c r="B171" s="148" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C171" s="149" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D171" s="150" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E171" s="151"/>
       <c r="F171" s="166"/>
@@ -6416,49 +6416,49 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C173" s="375" t="s">
-        <v>13</v>
-      </c>
-      <c r="D173" s="375"/>
+      <c r="C173" s="364" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" s="364"/>
     </row>
     <row r="174" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="366" t="s">
+      <c r="A174" s="365" t="s">
+        <v>3</v>
+      </c>
+      <c r="B174" s="362" t="s">
+        <v>211</v>
+      </c>
+      <c r="C174" s="365" t="s">
         <v>4</v>
       </c>
-      <c r="B174" s="371" t="s">
-        <v>215</v>
-      </c>
-      <c r="C174" s="366" t="s">
+      <c r="D174" s="367" t="s">
         <v>5</v>
       </c>
-      <c r="D174" s="368" t="s">
+      <c r="E174" s="369" t="s">
         <v>6</v>
       </c>
-      <c r="E174" s="370" t="s">
+      <c r="F174" s="369"/>
+      <c r="G174" s="369" t="s">
         <v>7</v>
       </c>
-      <c r="F174" s="370"/>
-      <c r="G174" s="370" t="s">
-        <v>8</v>
-      </c>
-      <c r="H174" s="370"/>
+      <c r="H174" s="369"/>
     </row>
     <row r="175" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="367"/>
-      <c r="B175" s="372"/>
-      <c r="C175" s="367"/>
-      <c r="D175" s="369"/>
+      <c r="A175" s="366"/>
+      <c r="B175" s="363"/>
+      <c r="C175" s="366"/>
+      <c r="D175" s="368"/>
       <c r="E175" s="165" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F175" s="165" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G175" s="165" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H175" s="165" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -6466,13 +6466,13 @@
         <v>43921</v>
       </c>
       <c r="B176" s="148" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C176" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="D176" s="150" t="s">
         <v>124</v>
-      </c>
-      <c r="D176" s="150" t="s">
-        <v>125</v>
       </c>
       <c r="E176" s="151"/>
       <c r="F176" s="166"/>
@@ -6486,13 +6486,13 @@
         <v>43941</v>
       </c>
       <c r="B177" s="148" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C177" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D177" s="186" t="s">
         <v>124</v>
-      </c>
-      <c r="D177" s="186" t="s">
-        <v>125</v>
       </c>
       <c r="E177" s="177"/>
       <c r="F177" s="178"/>
@@ -6516,22 +6516,22 @@
     </row>
     <row r="179" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C179" s="323" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D179" s="84"/>
       <c r="F179" s="323" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G179" s="84"/>
       <c r="H179" s="84"/>
     </row>
     <row r="180" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C180" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D180" s="5"/>
       <c r="F180" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
@@ -6547,49 +6547,19 @@
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="72">
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
     <mergeCell ref="E77:F77"/>
     <mergeCell ref="G77:H77"/>
     <mergeCell ref="A88:A89"/>
@@ -6606,19 +6576,49 @@
     <mergeCell ref="D83:D84"/>
     <mergeCell ref="E83:F83"/>
     <mergeCell ref="G83:H83"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="B164:B165"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.21" top="0.36" bottom="0.41" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6630,9 +6630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O59" sqref="O59:O60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A80:F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6656,13 +6656,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="225" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="404" t="s">
+      <c r="A1" s="387" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="404"/>
-      <c r="C1" s="404"/>
-      <c r="D1" s="404"/>
-      <c r="E1" s="404"/>
+      <c r="B1" s="387"/>
+      <c r="C1" s="387"/>
+      <c r="D1" s="387"/>
+      <c r="E1" s="387"/>
       <c r="H1" s="226"/>
       <c r="I1" s="226"/>
       <c r="J1" s="226"/>
@@ -6675,7 +6675,7 @@
     </row>
     <row r="2" spans="1:16" s="225" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="231" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B2" s="231"/>
       <c r="C2" s="231"/>
@@ -6692,136 +6692,136 @@
       <c r="P2" s="230"/>
     </row>
     <row r="3" spans="1:16" s="225" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="408" t="s">
+      <c r="A3" s="395" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="395"/>
+      <c r="C3" s="395"/>
+      <c r="D3" s="395"/>
+      <c r="E3" s="395"/>
+      <c r="F3" s="395"/>
+      <c r="G3" s="395"/>
+      <c r="H3" s="395"/>
+      <c r="I3" s="395"/>
+      <c r="J3" s="395"/>
+      <c r="K3" s="395"/>
+      <c r="L3" s="395"/>
+      <c r="M3" s="395"/>
+      <c r="N3" s="395"/>
+      <c r="O3" s="395"/>
+      <c r="P3" s="395"/>
+    </row>
+    <row r="4" spans="1:16" s="225" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="395" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="395"/>
+      <c r="C4" s="395"/>
+      <c r="D4" s="395"/>
+      <c r="E4" s="395"/>
+      <c r="F4" s="395"/>
+      <c r="G4" s="395"/>
+      <c r="H4" s="395"/>
+      <c r="I4" s="395"/>
+      <c r="J4" s="395"/>
+      <c r="K4" s="395"/>
+      <c r="L4" s="395"/>
+      <c r="M4" s="395"/>
+      <c r="N4" s="395"/>
+      <c r="O4" s="395"/>
+      <c r="P4" s="395"/>
+    </row>
+    <row r="5" spans="1:16" s="225" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="396" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="398" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="396" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="400" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="408"/>
-      <c r="C3" s="408"/>
-      <c r="D3" s="408"/>
-      <c r="E3" s="408"/>
-      <c r="F3" s="408"/>
-      <c r="G3" s="408"/>
-      <c r="H3" s="408"/>
-      <c r="I3" s="408"/>
-      <c r="J3" s="408"/>
-      <c r="K3" s="408"/>
-      <c r="L3" s="408"/>
-      <c r="M3" s="408"/>
-      <c r="N3" s="408"/>
-      <c r="O3" s="408"/>
-      <c r="P3" s="408"/>
-    </row>
-    <row r="4" spans="1:16" s="225" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="408" t="s">
-        <v>197</v>
-      </c>
-      <c r="B4" s="408"/>
-      <c r="C4" s="408"/>
-      <c r="D4" s="408"/>
-      <c r="E4" s="408"/>
-      <c r="F4" s="408"/>
-      <c r="G4" s="408"/>
-      <c r="H4" s="408"/>
-      <c r="I4" s="408"/>
-      <c r="J4" s="408"/>
-      <c r="K4" s="408"/>
-      <c r="L4" s="408"/>
-      <c r="M4" s="408"/>
-      <c r="N4" s="408"/>
-      <c r="O4" s="408"/>
-      <c r="P4" s="408"/>
-    </row>
-    <row r="5" spans="1:16" s="225" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="397" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" s="400" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="397" t="s">
+      <c r="E5" s="400"/>
+      <c r="F5" s="401" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="402" t="s">
+      <c r="G5" s="401"/>
+      <c r="H5" s="401"/>
+      <c r="I5" s="401"/>
+      <c r="J5" s="401"/>
+      <c r="K5" s="401"/>
+      <c r="L5" s="401"/>
+      <c r="M5" s="402"/>
+      <c r="N5" s="402"/>
+      <c r="O5" s="402"/>
+      <c r="P5" s="383" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="225" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="397"/>
+      <c r="B6" s="399"/>
+      <c r="C6" s="397"/>
+      <c r="D6" s="396" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="402"/>
-      <c r="F5" s="403" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="403"/>
-      <c r="H5" s="403"/>
-      <c r="I5" s="403"/>
-      <c r="J5" s="403"/>
-      <c r="K5" s="403"/>
-      <c r="L5" s="403"/>
-      <c r="M5" s="399"/>
-      <c r="N5" s="399"/>
-      <c r="O5" s="399"/>
-      <c r="P5" s="378" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="225" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="398"/>
-      <c r="B6" s="401"/>
-      <c r="C6" s="398"/>
-      <c r="D6" s="397" t="s">
+      <c r="E6" s="396" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="397" t="s">
+      <c r="F6" s="396" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="396" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="403" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="403" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="397" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="397" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="394" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="394" t="s">
+      <c r="J6" s="405" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="405"/>
+      <c r="L6" s="403" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="396" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="396"/>
-      <c r="L6" s="394" t="s">
+      <c r="M6" s="403" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="403" t="s">
+        <v>180</v>
+      </c>
+      <c r="O6" s="403" t="s">
+        <v>195</v>
+      </c>
+      <c r="P6" s="384"/>
+    </row>
+    <row r="7" spans="1:16" s="225" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="397"/>
+      <c r="B7" s="399"/>
+      <c r="C7" s="397"/>
+      <c r="D7" s="397"/>
+      <c r="E7" s="397"/>
+      <c r="F7" s="397"/>
+      <c r="G7" s="397"/>
+      <c r="H7" s="404"/>
+      <c r="I7" s="404"/>
+      <c r="J7" s="280" t="s">
+        <v>196</v>
+      </c>
+      <c r="K7" s="233" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="394" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6" s="394" t="s">
-        <v>184</v>
-      </c>
-      <c r="O6" s="394" t="s">
-        <v>199</v>
-      </c>
-      <c r="P6" s="380"/>
-    </row>
-    <row r="7" spans="1:16" s="225" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="398"/>
-      <c r="B7" s="401"/>
-      <c r="C7" s="398"/>
-      <c r="D7" s="398"/>
-      <c r="E7" s="398"/>
-      <c r="F7" s="398"/>
-      <c r="G7" s="398"/>
-      <c r="H7" s="395"/>
-      <c r="I7" s="395"/>
-      <c r="J7" s="280" t="s">
-        <v>200</v>
-      </c>
-      <c r="K7" s="233" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="395"/>
-      <c r="M7" s="395"/>
-      <c r="N7" s="395"/>
-      <c r="O7" s="395"/>
-      <c r="P7" s="380"/>
+      <c r="L7" s="404"/>
+      <c r="M7" s="404"/>
+      <c r="N7" s="404"/>
+      <c r="O7" s="404"/>
+      <c r="P7" s="384"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="282">
@@ -6831,16 +6831,16 @@
         <v>43920</v>
       </c>
       <c r="C8" s="282" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="282" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="282" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="282" t="s">
-        <v>88</v>
-      </c>
       <c r="F8" s="284" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="284">
         <v>12</v>
@@ -6876,16 +6876,16 @@
         <v>43920</v>
       </c>
       <c r="C9" s="282" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="282" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="282" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="282" t="s">
-        <v>113</v>
-      </c>
       <c r="F9" s="284" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="284">
         <v>3</v>
@@ -6921,16 +6921,16 @@
         <v>43920</v>
       </c>
       <c r="C10" s="282" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="282" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="282" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="282" t="s">
-        <v>86</v>
-      </c>
       <c r="F10" s="284" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="284">
         <v>2</v>
@@ -6953,7 +6953,7 @@
       <c r="N10" s="285"/>
       <c r="O10" s="285"/>
       <c r="P10" s="284" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -6964,16 +6964,16 @@
         <v>43921</v>
       </c>
       <c r="C11" s="282" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="282" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="282" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="282" t="s">
-        <v>90</v>
-      </c>
       <c r="F11" s="284" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="284">
         <v>2</v>
@@ -7002,21 +7002,21 @@
       <c r="P11" s="284"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="378">
+      <c r="A12" s="383">
         <v>320</v>
       </c>
-      <c r="B12" s="405">
+      <c r="B12" s="380">
         <v>43921</v>
       </c>
-      <c r="C12" s="378"/>
-      <c r="D12" s="378" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="378" t="s">
-        <v>99</v>
+      <c r="C12" s="383"/>
+      <c r="D12" s="383" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="383" t="s">
+        <v>98</v>
       </c>
       <c r="F12" s="290" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="290">
         <v>24</v>
@@ -7047,13 +7047,13 @@
       <c r="P12" s="294"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="379"/>
-      <c r="B13" s="407"/>
-      <c r="C13" s="379"/>
-      <c r="D13" s="379"/>
-      <c r="E13" s="379"/>
+      <c r="A13" s="385"/>
+      <c r="B13" s="382"/>
+      <c r="C13" s="385"/>
+      <c r="D13" s="385"/>
+      <c r="E13" s="385"/>
       <c r="F13" s="295" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="295">
         <v>12</v>
@@ -7089,16 +7089,16 @@
         <v>43922</v>
       </c>
       <c r="C14" s="282" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="282" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="282" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="284" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="284">
         <v>1</v>
@@ -7134,16 +7134,16 @@
         <v>43925</v>
       </c>
       <c r="C15" s="282" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="282" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E15" s="282" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" s="284" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="284">
         <v>1</v>
@@ -7169,7 +7169,7 @@
       <c r="N15" s="289"/>
       <c r="O15" s="289"/>
       <c r="P15" s="299" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -7180,16 +7180,16 @@
         <v>43929</v>
       </c>
       <c r="C16" s="282" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="282" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="282" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="282" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="282" t="s">
-        <v>92</v>
-      </c>
       <c r="F16" s="284" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="284">
         <v>5</v>
@@ -7225,16 +7225,16 @@
         <v>43930</v>
       </c>
       <c r="C17" s="282" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="282" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E17" s="282" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F17" s="284" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" s="284">
         <v>1</v>
@@ -7270,16 +7270,16 @@
         <v>43931</v>
       </c>
       <c r="C18" s="282" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="282" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="282" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="282" t="s">
-        <v>83</v>
-      </c>
       <c r="F18" s="284" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" s="284">
         <v>1</v>
@@ -7315,16 +7315,16 @@
         <v>43932</v>
       </c>
       <c r="C19" s="282" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="282" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E19" s="282" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F19" s="284" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="284">
         <v>1</v>
@@ -7360,16 +7360,16 @@
         <v>43933</v>
       </c>
       <c r="C20" s="282" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="282" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E20" s="282" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" s="284" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" s="284">
         <v>36</v>
@@ -7398,21 +7398,21 @@
       <c r="P20" s="284"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="381">
+      <c r="A21" s="388">
         <v>327</v>
       </c>
-      <c r="B21" s="382">
+      <c r="B21" s="389">
         <v>43935</v>
       </c>
-      <c r="C21" s="385"/>
-      <c r="D21" s="388" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="385" t="s">
-        <v>88</v>
+      <c r="C21" s="392"/>
+      <c r="D21" s="412" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="392" t="s">
+        <v>87</v>
       </c>
       <c r="F21" s="300" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" s="300">
         <v>36</v>
@@ -7441,13 +7441,13 @@
       <c r="P21" s="300"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="381"/>
-      <c r="B22" s="383"/>
-      <c r="C22" s="386"/>
-      <c r="D22" s="389"/>
-      <c r="E22" s="386"/>
+      <c r="A22" s="388"/>
+      <c r="B22" s="390"/>
+      <c r="C22" s="393"/>
+      <c r="D22" s="413"/>
+      <c r="E22" s="393"/>
       <c r="F22" s="303" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G22" s="303">
         <v>36</v>
@@ -7476,13 +7476,13 @@
       <c r="P22" s="303"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="381"/>
-      <c r="B23" s="383"/>
-      <c r="C23" s="386"/>
-      <c r="D23" s="389"/>
-      <c r="E23" s="386"/>
+      <c r="A23" s="388"/>
+      <c r="B23" s="390"/>
+      <c r="C23" s="393"/>
+      <c r="D23" s="413"/>
+      <c r="E23" s="393"/>
       <c r="F23" s="303" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23" s="303">
         <v>36</v>
@@ -7511,13 +7511,13 @@
       <c r="P23" s="303"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="381"/>
-      <c r="B24" s="383"/>
-      <c r="C24" s="386"/>
-      <c r="D24" s="389"/>
-      <c r="E24" s="386"/>
+      <c r="A24" s="388"/>
+      <c r="B24" s="390"/>
+      <c r="C24" s="393"/>
+      <c r="D24" s="413"/>
+      <c r="E24" s="393"/>
       <c r="F24" s="303" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G24" s="303">
         <v>36</v>
@@ -7546,13 +7546,13 @@
       <c r="P24" s="303"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="381"/>
-      <c r="B25" s="383"/>
-      <c r="C25" s="386"/>
-      <c r="D25" s="389"/>
-      <c r="E25" s="386"/>
+      <c r="A25" s="388"/>
+      <c r="B25" s="390"/>
+      <c r="C25" s="393"/>
+      <c r="D25" s="413"/>
+      <c r="E25" s="393"/>
       <c r="F25" s="303" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" s="303">
         <v>72</v>
@@ -7581,13 +7581,13 @@
       <c r="P25" s="303"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="381"/>
-      <c r="B26" s="383"/>
-      <c r="C26" s="386"/>
-      <c r="D26" s="389"/>
-      <c r="E26" s="386"/>
+      <c r="A26" s="388"/>
+      <c r="B26" s="390"/>
+      <c r="C26" s="393"/>
+      <c r="D26" s="413"/>
+      <c r="E26" s="393"/>
       <c r="F26" s="303" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" s="303">
         <v>36</v>
@@ -7616,13 +7616,13 @@
       <c r="P26" s="303"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="381"/>
-      <c r="B27" s="384"/>
-      <c r="C27" s="387"/>
-      <c r="D27" s="390"/>
-      <c r="E27" s="387"/>
+      <c r="A27" s="388"/>
+      <c r="B27" s="391"/>
+      <c r="C27" s="394"/>
+      <c r="D27" s="414"/>
+      <c r="E27" s="394"/>
       <c r="F27" s="306" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" s="306">
         <v>36</v>
@@ -7658,16 +7658,16 @@
         <v>43935</v>
       </c>
       <c r="C28" s="282" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="282" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" s="282" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F28" s="284" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28" s="284">
         <v>1</v>
@@ -7695,23 +7695,23 @@
       <c r="P28" s="284"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="381">
+      <c r="A29" s="388">
         <v>328</v>
       </c>
-      <c r="B29" s="405">
+      <c r="B29" s="380">
         <v>43936</v>
       </c>
-      <c r="C29" s="378" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="378" t="s">
+      <c r="C29" s="383" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="383" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="383" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="378" t="s">
-        <v>96</v>
-      </c>
       <c r="F29" s="290" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="290">
         <v>2</v>
@@ -7740,13 +7740,13 @@
       <c r="P29" s="290"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="381"/>
-      <c r="B30" s="406"/>
-      <c r="C30" s="380"/>
-      <c r="D30" s="380"/>
-      <c r="E30" s="380"/>
+      <c r="A30" s="388"/>
+      <c r="B30" s="381"/>
+      <c r="C30" s="384"/>
+      <c r="D30" s="384"/>
+      <c r="E30" s="384"/>
       <c r="F30" s="310" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30" s="310">
         <v>2</v>
@@ -7775,13 +7775,13 @@
       <c r="P30" s="310"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="381"/>
-      <c r="B31" s="406"/>
-      <c r="C31" s="380"/>
-      <c r="D31" s="380"/>
-      <c r="E31" s="380"/>
+      <c r="A31" s="388"/>
+      <c r="B31" s="381"/>
+      <c r="C31" s="384"/>
+      <c r="D31" s="384"/>
+      <c r="E31" s="384"/>
       <c r="F31" s="310" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="310">
         <v>1</v>
@@ -7810,13 +7810,13 @@
       <c r="P31" s="310"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="381"/>
-      <c r="B32" s="407"/>
-      <c r="C32" s="379"/>
-      <c r="D32" s="379"/>
-      <c r="E32" s="379"/>
+      <c r="A32" s="388"/>
+      <c r="B32" s="382"/>
+      <c r="C32" s="385"/>
+      <c r="D32" s="385"/>
+      <c r="E32" s="385"/>
       <c r="F32" s="295" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" s="295">
         <v>1</v>
@@ -7853,13 +7853,13 @@
       </c>
       <c r="C33" s="282"/>
       <c r="D33" s="282" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="282" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="282" t="s">
-        <v>98</v>
-      </c>
       <c r="F33" s="284" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" s="284">
         <v>24</v>
@@ -7896,13 +7896,13 @@
       </c>
       <c r="C34" s="282"/>
       <c r="D34" s="282" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E34" s="282" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F34" s="284" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G34" s="284">
         <v>12</v>
@@ -7938,16 +7938,16 @@
         <v>43938</v>
       </c>
       <c r="C35" s="282" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" s="282" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E35" s="282" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F35" s="284" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G35" s="284">
         <v>1</v>
@@ -7983,13 +7983,13 @@
       </c>
       <c r="C36" s="282"/>
       <c r="D36" s="282" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="282" t="s">
         <v>103</v>
       </c>
-      <c r="E36" s="282" t="s">
-        <v>104</v>
-      </c>
       <c r="F36" s="284" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" s="284">
         <v>24</v>
@@ -8018,23 +8018,23 @@
       <c r="P36" s="284"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="378">
+      <c r="A37" s="383">
         <v>346</v>
       </c>
-      <c r="B37" s="382">
+      <c r="B37" s="389">
         <v>43941</v>
       </c>
-      <c r="C37" s="385" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="385" t="s">
+      <c r="C37" s="392" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="392" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="392" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="385" t="s">
-        <v>117</v>
-      </c>
       <c r="F37" s="290" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37" s="290">
         <v>9</v>
@@ -8063,13 +8063,13 @@
       <c r="P37" s="290"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="380"/>
-      <c r="B38" s="383"/>
-      <c r="C38" s="386"/>
-      <c r="D38" s="386"/>
-      <c r="E38" s="386"/>
+      <c r="A38" s="384"/>
+      <c r="B38" s="390"/>
+      <c r="C38" s="393"/>
+      <c r="D38" s="393"/>
+      <c r="E38" s="393"/>
       <c r="F38" s="310" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38" s="310">
         <v>1</v>
@@ -8098,13 +8098,13 @@
       <c r="P38" s="310"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="380"/>
-      <c r="B39" s="383"/>
-      <c r="C39" s="386"/>
-      <c r="D39" s="386"/>
-      <c r="E39" s="386"/>
+      <c r="A39" s="384"/>
+      <c r="B39" s="390"/>
+      <c r="C39" s="393"/>
+      <c r="D39" s="393"/>
+      <c r="E39" s="393"/>
       <c r="F39" s="310" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G39" s="310">
         <v>2</v>
@@ -8133,13 +8133,13 @@
       <c r="P39" s="310"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="379"/>
-      <c r="B40" s="384"/>
-      <c r="C40" s="387"/>
-      <c r="D40" s="387"/>
-      <c r="E40" s="387"/>
+      <c r="A40" s="385"/>
+      <c r="B40" s="391"/>
+      <c r="C40" s="394"/>
+      <c r="D40" s="394"/>
+      <c r="E40" s="394"/>
       <c r="F40" s="295" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G40" s="295">
         <v>2</v>
@@ -8168,21 +8168,21 @@
       <c r="P40" s="295"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="381">
+      <c r="A41" s="388">
         <v>345</v>
       </c>
-      <c r="B41" s="405">
+      <c r="B41" s="380">
         <v>43941</v>
       </c>
-      <c r="C41" s="378"/>
-      <c r="D41" s="378" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" s="378" t="s">
-        <v>99</v>
+      <c r="C41" s="383"/>
+      <c r="D41" s="383" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="383" t="s">
+        <v>98</v>
       </c>
       <c r="F41" s="290" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G41" s="290">
         <v>24</v>
@@ -8210,16 +8210,16 @@
         <v>6192800.0000000009</v>
       </c>
       <c r="O41" s="291"/>
-      <c r="P41" s="391"/>
+      <c r="P41" s="406"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="381"/>
-      <c r="B42" s="406"/>
-      <c r="C42" s="380"/>
-      <c r="D42" s="380"/>
-      <c r="E42" s="380"/>
+      <c r="A42" s="388"/>
+      <c r="B42" s="381"/>
+      <c r="C42" s="384"/>
+      <c r="D42" s="384"/>
+      <c r="E42" s="384"/>
       <c r="F42" s="310" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G42" s="310">
         <v>12</v>
@@ -8245,16 +8245,16 @@
         <v>3292200.0000000005</v>
       </c>
       <c r="O42" s="311"/>
-      <c r="P42" s="393"/>
+      <c r="P42" s="408"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="381"/>
-      <c r="B43" s="406"/>
-      <c r="C43" s="380"/>
-      <c r="D43" s="380"/>
-      <c r="E43" s="380"/>
+      <c r="A43" s="388"/>
+      <c r="B43" s="381"/>
+      <c r="C43" s="384"/>
+      <c r="D43" s="384"/>
+      <c r="E43" s="384"/>
       <c r="F43" s="310" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G43" s="310">
         <v>12</v>
@@ -8280,16 +8280,16 @@
         <v>3363000.0000000005</v>
       </c>
       <c r="O43" s="311"/>
-      <c r="P43" s="393"/>
+      <c r="P43" s="408"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="381"/>
-      <c r="B44" s="407"/>
-      <c r="C44" s="379"/>
-      <c r="D44" s="379"/>
-      <c r="E44" s="379"/>
+      <c r="A44" s="388"/>
+      <c r="B44" s="382"/>
+      <c r="C44" s="385"/>
+      <c r="D44" s="385"/>
+      <c r="E44" s="385"/>
       <c r="F44" s="295" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G44" s="295">
         <v>12</v>
@@ -8315,26 +8315,26 @@
         <v>3433800.0000000005</v>
       </c>
       <c r="O44" s="296"/>
-      <c r="P44" s="392"/>
+      <c r="P44" s="407"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="378">
+      <c r="A45" s="383">
         <v>342</v>
       </c>
-      <c r="B45" s="382">
+      <c r="B45" s="389">
         <v>43942</v>
       </c>
-      <c r="C45" s="385" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="385" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" s="385" t="s">
-        <v>74</v>
+      <c r="C45" s="392" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="392" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="392" t="s">
+        <v>73</v>
       </c>
       <c r="F45" s="290" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G45" s="290">
         <v>1</v>
@@ -8360,16 +8360,16 @@
       </c>
       <c r="N45" s="291"/>
       <c r="O45" s="291"/>
-      <c r="P45" s="391"/>
+      <c r="P45" s="406"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="379"/>
-      <c r="B46" s="384"/>
-      <c r="C46" s="387"/>
-      <c r="D46" s="387"/>
-      <c r="E46" s="387"/>
+      <c r="A46" s="385"/>
+      <c r="B46" s="391"/>
+      <c r="C46" s="394"/>
+      <c r="D46" s="394"/>
+      <c r="E46" s="394"/>
       <c r="F46" s="295" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G46" s="295">
         <v>2</v>
@@ -8395,7 +8395,7 @@
       </c>
       <c r="N46" s="296"/>
       <c r="O46" s="296"/>
-      <c r="P46" s="392"/>
+      <c r="P46" s="407"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="282">
@@ -8406,13 +8406,13 @@
       </c>
       <c r="C47" s="282"/>
       <c r="D47" s="282" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="282" t="s">
         <v>103</v>
       </c>
-      <c r="E47" s="282" t="s">
-        <v>104</v>
-      </c>
       <c r="F47" s="284" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G47" s="284">
         <v>24</v>
@@ -8439,7 +8439,7 @@
         <v>6770400</v>
       </c>
       <c r="P47" s="299" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -8450,16 +8450,16 @@
         <v>43942</v>
       </c>
       <c r="C48" s="282" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="282" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="282" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="284" t="s">
         <v>41</v>
-      </c>
-      <c r="D48" s="282" t="s">
-        <v>41</v>
-      </c>
-      <c r="E48" s="282" t="s">
-        <v>106</v>
-      </c>
-      <c r="F48" s="284" t="s">
-        <v>42</v>
       </c>
       <c r="G48" s="284">
         <v>1</v>
@@ -8486,25 +8486,25 @@
       <c r="N48" s="285"/>
       <c r="O48" s="285"/>
       <c r="P48" s="284" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="378">
+      <c r="A49" s="383">
         <v>452</v>
       </c>
-      <c r="B49" s="405">
+      <c r="B49" s="380">
         <v>43942</v>
       </c>
-      <c r="C49" s="378"/>
-      <c r="D49" s="378" t="s">
+      <c r="C49" s="383"/>
+      <c r="D49" s="383" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="383" t="s">
         <v>97</v>
       </c>
-      <c r="E49" s="378" t="s">
-        <v>98</v>
-      </c>
       <c r="F49" s="290" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G49" s="290">
         <v>24</v>
@@ -8531,17 +8531,17 @@
       </c>
       <c r="O49" s="291"/>
       <c r="P49" s="409" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="380"/>
-      <c r="B50" s="406"/>
-      <c r="C50" s="380"/>
-      <c r="D50" s="380"/>
-      <c r="E50" s="380"/>
+      <c r="A50" s="384"/>
+      <c r="B50" s="381"/>
+      <c r="C50" s="384"/>
+      <c r="D50" s="384"/>
+      <c r="E50" s="384"/>
       <c r="F50" s="310" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G50" s="310">
         <v>12</v>
@@ -8570,13 +8570,13 @@
       <c r="P50" s="410"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="379"/>
-      <c r="B51" s="407"/>
-      <c r="C51" s="379"/>
-      <c r="D51" s="379"/>
-      <c r="E51" s="379"/>
+      <c r="A51" s="385"/>
+      <c r="B51" s="382"/>
+      <c r="C51" s="385"/>
+      <c r="D51" s="385"/>
+      <c r="E51" s="385"/>
       <c r="F51" s="295" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G51" s="295">
         <v>12</v>
@@ -8615,16 +8615,16 @@
         <v>43943</v>
       </c>
       <c r="C52" s="282" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D52" s="282" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E52" s="282" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F52" s="284" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G52" s="284">
         <v>1</v>
@@ -8651,7 +8651,7 @@
       <c r="N52" s="285"/>
       <c r="O52" s="285"/>
       <c r="P52" s="299" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
@@ -8662,16 +8662,16 @@
         <v>43944</v>
       </c>
       <c r="C53" s="282" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D53" s="282" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" s="282" t="s">
         <v>114</v>
       </c>
-      <c r="E53" s="282" t="s">
-        <v>115</v>
-      </c>
       <c r="F53" s="284" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G53" s="284">
         <v>5</v>
@@ -8707,16 +8707,16 @@
         <v>43944</v>
       </c>
       <c r="C54" s="282" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D54" s="282" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="282" t="s">
         <v>108</v>
       </c>
-      <c r="E54" s="282" t="s">
-        <v>109</v>
-      </c>
       <c r="F54" s="284" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G54" s="284">
         <v>24</v>
@@ -8753,13 +8753,13 @@
       </c>
       <c r="C55" s="282"/>
       <c r="D55" s="282" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E55" s="282" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F55" s="284" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G55" s="284">
         <v>24</v>
@@ -8795,16 +8795,16 @@
         <v>43944</v>
       </c>
       <c r="C56" s="282" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D56" s="282" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E56" s="282" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F56" s="284" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G56" s="284">
         <v>1</v>
@@ -8840,16 +8840,16 @@
         <v>43944</v>
       </c>
       <c r="C57" s="282" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D57" s="282" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E57" s="282" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F57" s="284" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G57" s="284">
         <v>1</v>
@@ -8885,16 +8885,16 @@
         <v>43945</v>
       </c>
       <c r="C58" s="282" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" s="282" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E58" s="282" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F58" s="284" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G58" s="284">
         <v>1</v>
@@ -8923,23 +8923,23 @@
       <c r="P58" s="284"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="378">
+      <c r="A59" s="383">
         <v>456</v>
       </c>
-      <c r="B59" s="405">
+      <c r="B59" s="380">
         <v>43946</v>
       </c>
-      <c r="C59" s="378" t="s">
-        <v>91</v>
-      </c>
-      <c r="D59" s="378" t="s">
+      <c r="C59" s="383" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="383" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59" s="383" t="s">
         <v>119</v>
       </c>
-      <c r="E59" s="378" t="s">
-        <v>120</v>
-      </c>
       <c r="F59" s="290" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G59" s="290">
         <v>18</v>
@@ -8968,13 +8968,13 @@
       <c r="P59" s="290"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="379"/>
-      <c r="B60" s="407"/>
-      <c r="C60" s="379"/>
-      <c r="D60" s="379"/>
-      <c r="E60" s="379"/>
+      <c r="A60" s="385"/>
+      <c r="B60" s="382"/>
+      <c r="C60" s="385"/>
+      <c r="D60" s="385"/>
+      <c r="E60" s="385"/>
       <c r="F60" s="295" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G60" s="295">
         <v>6</v>
@@ -9003,21 +9003,21 @@
       <c r="P60" s="295"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="378">
+      <c r="A61" s="383">
         <v>455</v>
       </c>
-      <c r="B61" s="405">
+      <c r="B61" s="380">
         <v>43946</v>
       </c>
-      <c r="C61" s="378"/>
-      <c r="D61" s="378" t="s">
+      <c r="C61" s="383"/>
+      <c r="D61" s="383" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61" s="383" t="s">
         <v>122</v>
       </c>
-      <c r="E61" s="378" t="s">
-        <v>123</v>
-      </c>
       <c r="F61" s="290" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G61" s="290">
         <v>5</v>
@@ -9046,13 +9046,13 @@
       <c r="P61" s="290"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="380"/>
-      <c r="B62" s="406"/>
-      <c r="C62" s="380"/>
-      <c r="D62" s="380"/>
-      <c r="E62" s="380"/>
+      <c r="A62" s="384"/>
+      <c r="B62" s="381"/>
+      <c r="C62" s="384"/>
+      <c r="D62" s="384"/>
+      <c r="E62" s="384"/>
       <c r="F62" s="310" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G62" s="310">
         <v>5</v>
@@ -9081,13 +9081,13 @@
       <c r="P62" s="310"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" s="380"/>
-      <c r="B63" s="406"/>
-      <c r="C63" s="380"/>
-      <c r="D63" s="380"/>
-      <c r="E63" s="380"/>
+      <c r="A63" s="384"/>
+      <c r="B63" s="381"/>
+      <c r="C63" s="384"/>
+      <c r="D63" s="384"/>
+      <c r="E63" s="384"/>
       <c r="F63" s="310" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G63" s="310">
         <v>1</v>
@@ -9116,13 +9116,13 @@
       <c r="P63" s="310"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" s="380"/>
-      <c r="B64" s="406"/>
-      <c r="C64" s="380"/>
-      <c r="D64" s="380"/>
-      <c r="E64" s="380"/>
+      <c r="A64" s="384"/>
+      <c r="B64" s="381"/>
+      <c r="C64" s="384"/>
+      <c r="D64" s="384"/>
+      <c r="E64" s="384"/>
       <c r="F64" s="310" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G64" s="310">
         <v>5</v>
@@ -9151,13 +9151,13 @@
       <c r="P64" s="310"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="380"/>
-      <c r="B65" s="406"/>
-      <c r="C65" s="380"/>
-      <c r="D65" s="380"/>
-      <c r="E65" s="380"/>
+      <c r="A65" s="384"/>
+      <c r="B65" s="381"/>
+      <c r="C65" s="384"/>
+      <c r="D65" s="384"/>
+      <c r="E65" s="384"/>
       <c r="F65" s="310" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G65" s="310">
         <v>5</v>
@@ -9186,13 +9186,13 @@
       <c r="P65" s="310"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="380"/>
-      <c r="B66" s="406"/>
-      <c r="C66" s="380"/>
-      <c r="D66" s="380"/>
-      <c r="E66" s="380"/>
+      <c r="A66" s="384"/>
+      <c r="B66" s="381"/>
+      <c r="C66" s="384"/>
+      <c r="D66" s="384"/>
+      <c r="E66" s="384"/>
       <c r="F66" s="310" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G66" s="310">
         <v>2</v>
@@ -9221,13 +9221,13 @@
       <c r="P66" s="310"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="380"/>
-      <c r="B67" s="406"/>
-      <c r="C67" s="380"/>
-      <c r="D67" s="380"/>
-      <c r="E67" s="380"/>
+      <c r="A67" s="384"/>
+      <c r="B67" s="381"/>
+      <c r="C67" s="384"/>
+      <c r="D67" s="384"/>
+      <c r="E67" s="384"/>
       <c r="F67" s="310" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G67" s="310">
         <v>2</v>
@@ -9256,13 +9256,13 @@
       <c r="P67" s="310"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="380"/>
-      <c r="B68" s="406"/>
-      <c r="C68" s="380"/>
-      <c r="D68" s="380"/>
-      <c r="E68" s="380"/>
+      <c r="A68" s="384"/>
+      <c r="B68" s="381"/>
+      <c r="C68" s="384"/>
+      <c r="D68" s="384"/>
+      <c r="E68" s="384"/>
       <c r="F68" s="310" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G68" s="310">
         <v>5</v>
@@ -9291,13 +9291,13 @@
       <c r="P68" s="310"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="379"/>
-      <c r="B69" s="407"/>
-      <c r="C69" s="379"/>
-      <c r="D69" s="379"/>
-      <c r="E69" s="379"/>
+      <c r="A69" s="385"/>
+      <c r="B69" s="382"/>
+      <c r="C69" s="385"/>
+      <c r="D69" s="385"/>
+      <c r="E69" s="385"/>
       <c r="F69" s="295" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G69" s="295">
         <v>5</v>
@@ -9333,16 +9333,16 @@
         <v>43946</v>
       </c>
       <c r="C70" s="282" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D70" s="282" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E70" s="282" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F70" s="284" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G70" s="284">
         <v>6</v>
@@ -9371,23 +9371,23 @@
       <c r="P70" s="284"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="385">
+      <c r="A71" s="392">
         <v>457</v>
       </c>
-      <c r="B71" s="382">
+      <c r="B71" s="389">
         <v>43947</v>
       </c>
-      <c r="C71" s="385" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" s="385" t="s">
-        <v>157</v>
-      </c>
-      <c r="E71" s="385" t="s">
-        <v>120</v>
+      <c r="C71" s="392" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="392" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" s="392" t="s">
+        <v>119</v>
       </c>
       <c r="F71" s="290" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G71" s="290">
         <v>2</v>
@@ -9416,13 +9416,13 @@
       <c r="P71" s="290"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="386"/>
-      <c r="B72" s="383"/>
-      <c r="C72" s="386"/>
-      <c r="D72" s="386"/>
-      <c r="E72" s="386"/>
+      <c r="A72" s="393"/>
+      <c r="B72" s="390"/>
+      <c r="C72" s="393"/>
+      <c r="D72" s="393"/>
+      <c r="E72" s="393"/>
       <c r="F72" s="310" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G72" s="310">
         <v>2</v>
@@ -9451,13 +9451,13 @@
       <c r="P72" s="310"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="387"/>
-      <c r="B73" s="384"/>
-      <c r="C73" s="387"/>
-      <c r="D73" s="387"/>
-      <c r="E73" s="387"/>
+      <c r="A73" s="394"/>
+      <c r="B73" s="391"/>
+      <c r="C73" s="394"/>
+      <c r="D73" s="394"/>
+      <c r="E73" s="394"/>
       <c r="F73" s="295" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G73" s="295">
         <v>2</v>
@@ -9493,16 +9493,16 @@
         <v>43947</v>
       </c>
       <c r="C74" s="282" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D74" s="282" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E74" s="282" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F74" s="284" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G74" s="284">
         <v>1</v>
@@ -9529,7 +9529,7 @@
       <c r="N74" s="285"/>
       <c r="O74" s="285"/>
       <c r="P74" s="299" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
@@ -9541,13 +9541,13 @@
       </c>
       <c r="C75" s="282"/>
       <c r="D75" s="282" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E75" s="282" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F75" s="284" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75" s="284">
         <v>36</v>
@@ -9576,23 +9576,23 @@
       <c r="P75" s="284"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76" s="378">
+      <c r="A76" s="383">
         <v>1144</v>
       </c>
-      <c r="B76" s="405">
+      <c r="B76" s="380">
         <v>43949</v>
       </c>
-      <c r="C76" s="378" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="378" t="s">
-        <v>171</v>
-      </c>
-      <c r="E76" s="378" t="s">
-        <v>164</v>
+      <c r="C76" s="383" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" s="383" t="s">
+        <v>168</v>
+      </c>
+      <c r="E76" s="383" t="s">
+        <v>161</v>
       </c>
       <c r="F76" s="290" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G76" s="290">
         <v>1</v>
@@ -9621,13 +9621,13 @@
       <c r="P76" s="290"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="379"/>
-      <c r="B77" s="407"/>
-      <c r="C77" s="379"/>
-      <c r="D77" s="379"/>
-      <c r="E77" s="379"/>
+      <c r="A77" s="385"/>
+      <c r="B77" s="382"/>
+      <c r="C77" s="385"/>
+      <c r="D77" s="385"/>
+      <c r="E77" s="385"/>
       <c r="F77" s="295" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G77" s="295">
         <v>1</v>
@@ -9656,14 +9656,14 @@
       <c r="P77" s="295"/>
     </row>
     <row r="78" spans="1:17" s="238" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="413" t="s">
-        <v>172</v>
-      </c>
-      <c r="B78" s="413"/>
-      <c r="C78" s="413"/>
-      <c r="D78" s="413"/>
-      <c r="E78" s="413"/>
-      <c r="F78" s="413"/>
+      <c r="A78" s="386" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" s="386"/>
+      <c r="C78" s="386"/>
+      <c r="D78" s="386"/>
+      <c r="E78" s="386"/>
+      <c r="F78" s="386"/>
       <c r="G78" s="234">
         <f>SUM(G8:G77)</f>
         <v>774</v>
@@ -9683,17 +9683,17 @@
       <c r="N78" s="235"/>
       <c r="O78" s="235"/>
       <c r="P78" s="235"/>
-      <c r="Q78" s="414"/>
+      <c r="Q78" s="378"/>
     </row>
     <row r="79" spans="1:17" s="238" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="412" t="s">
-        <v>173</v>
-      </c>
-      <c r="B79" s="412"/>
-      <c r="C79" s="412"/>
-      <c r="D79" s="412"/>
-      <c r="E79" s="412"/>
-      <c r="F79" s="412"/>
+      <c r="A79" s="379" t="s">
+        <v>318</v>
+      </c>
+      <c r="B79" s="379"/>
+      <c r="C79" s="379"/>
+      <c r="D79" s="379"/>
+      <c r="E79" s="379"/>
+      <c r="F79" s="379"/>
       <c r="G79" s="234">
         <f>G78</f>
         <v>774</v>
@@ -9710,19 +9710,19 @@
       <c r="N79" s="239"/>
       <c r="O79" s="239"/>
       <c r="P79" s="239"/>
-      <c r="Q79" s="414"/>
+      <c r="Q79" s="378"/>
     </row>
     <row r="80" spans="1:17" s="238" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="412" t="s">
-        <v>174</v>
-      </c>
-      <c r="B80" s="412"/>
-      <c r="C80" s="412"/>
-      <c r="D80" s="412"/>
-      <c r="E80" s="412"/>
-      <c r="F80" s="412"/>
+      <c r="A80" s="379" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" s="379"/>
+      <c r="C80" s="379"/>
+      <c r="D80" s="379"/>
+      <c r="E80" s="379"/>
+      <c r="F80" s="379"/>
       <c r="G80" s="240" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H80" s="240"/>
       <c r="I80" s="240"/>
@@ -9738,14 +9738,14 @@
       <c r="P80" s="241"/>
     </row>
     <row r="81" spans="1:16" s="238" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="412" t="s">
-        <v>175</v>
-      </c>
-      <c r="B81" s="412"/>
-      <c r="C81" s="412"/>
-      <c r="D81" s="412"/>
-      <c r="E81" s="412"/>
-      <c r="F81" s="412"/>
+      <c r="A81" s="379" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" s="379"/>
+      <c r="C81" s="379"/>
+      <c r="D81" s="379"/>
+      <c r="E81" s="379"/>
+      <c r="F81" s="379"/>
       <c r="G81" s="239"/>
       <c r="H81" s="239"/>
       <c r="I81" s="235"/>
@@ -9761,14 +9761,14 @@
       <c r="P81" s="241"/>
     </row>
     <row r="82" spans="1:16" s="238" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="412" t="s">
-        <v>176</v>
-      </c>
-      <c r="B82" s="412"/>
-      <c r="C82" s="412"/>
-      <c r="D82" s="412"/>
-      <c r="E82" s="412"/>
-      <c r="F82" s="412"/>
+      <c r="A82" s="379" t="s">
+        <v>172</v>
+      </c>
+      <c r="B82" s="379"/>
+      <c r="C82" s="379"/>
+      <c r="D82" s="379"/>
+      <c r="E82" s="379"/>
+      <c r="F82" s="379"/>
       <c r="G82" s="239"/>
       <c r="H82" s="239"/>
       <c r="I82" s="235"/>
@@ -9786,27 +9786,27 @@
     <row r="85" spans="1:16" s="313" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C85" s="314"/>
       <c r="E85" s="315" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F85" s="314"/>
       <c r="G85" s="314"/>
       <c r="H85" s="314"/>
       <c r="I85" s="314"/>
       <c r="L85" s="315" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:16" s="313" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C86" s="316"/>
       <c r="E86" s="317" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F86" s="316"/>
       <c r="G86" s="316"/>
       <c r="H86" s="316"/>
       <c r="I86" s="316"/>
       <c r="L86" s="317" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
@@ -9839,27 +9839,54 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="85">
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="B61:B69"/>
-    <mergeCell ref="C61:C69"/>
-    <mergeCell ref="D61:D69"/>
-    <mergeCell ref="E61:E69"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="A61:A69"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="P41:P44"/>
+    <mergeCell ref="P49:P51"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:L5"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="B41:B44"/>
@@ -9876,54 +9903,27 @@
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="P41:P44"/>
-    <mergeCell ref="P49:P51"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="A61:A69"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="B61:B69"/>
+    <mergeCell ref="C61:C69"/>
+    <mergeCell ref="D61:D69"/>
+    <mergeCell ref="E61:E69"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -9934,7 +9934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -9963,12 +9963,12 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
       <c r="D2" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="14"/>
@@ -9985,7 +9985,7 @@
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="415" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="415"/>
       <c r="C4" s="415"/>
@@ -9996,7 +9996,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="416" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B5" s="416"/>
       <c r="C5" s="416"/>
@@ -10016,19 +10016,19 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="C7" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="85" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="85" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="85" t="s">
-        <v>20</v>
       </c>
       <c r="F7" s="83"/>
       <c r="G7" s="83"/>
@@ -10038,7 +10038,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="89" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="80">
         <f>'DOANH THU'!G79</f>
@@ -10057,7 +10057,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="358" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C9" s="359"/>
       <c r="D9" s="360">
@@ -10073,7 +10073,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="92"/>
       <c r="D10" s="93">
@@ -10092,7 +10092,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="92"/>
       <c r="D11" s="93">
@@ -10108,7 +10108,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="197" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C12" s="197"/>
       <c r="D12" s="244">
@@ -10123,7 +10123,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="203" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C13" s="205"/>
       <c r="D13" s="204">
@@ -10139,7 +10139,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="203" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C14" s="205"/>
       <c r="D14" s="204">
@@ -10155,7 +10155,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="96" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="97"/>
       <c r="D15" s="98">
@@ -10163,7 +10163,7 @@
         <v>35342450</v>
       </c>
       <c r="E15" s="95" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F15" s="81"/>
       <c r="G15" s="245"/>
@@ -10188,19 +10188,19 @@
     </row>
     <row r="18" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="C18" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="25" t="s">
         <v>19</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -10208,7 +10208,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="31">
         <f>'THU CHI'!E156+'THU CHI'!F156</f>
@@ -10222,7 +10222,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="242" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C20" s="243"/>
       <c r="D20" s="22">
@@ -10236,7 +10236,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="22">
@@ -10250,7 +10250,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="22">
@@ -10264,7 +10264,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="22">
@@ -10278,7 +10278,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="22">
@@ -10292,7 +10292,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="22">
@@ -10306,7 +10306,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="22">
@@ -10320,7 +10320,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="24">
@@ -10332,7 +10332,7 @@
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="34">
         <f>SUM(C19:C27)</f>
@@ -10347,7 +10347,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="32"/>
       <c r="D29" s="26">
@@ -10358,21 +10358,21 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" s="5"/>
     </row>
@@ -10396,7 +10396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -10426,127 +10426,127 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="99" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="425" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="425"/>
-      <c r="C3" s="425"/>
-      <c r="D3" s="425"/>
-      <c r="E3" s="425"/>
-      <c r="F3" s="425"/>
-      <c r="G3" s="425"/>
-      <c r="H3" s="425"/>
-      <c r="I3" s="425"/>
-      <c r="J3" s="425"/>
-      <c r="K3" s="425"/>
+      <c r="A3" s="432" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="432"/>
+      <c r="C3" s="432"/>
+      <c r="D3" s="432"/>
+      <c r="E3" s="432"/>
+      <c r="F3" s="432"/>
+      <c r="G3" s="432"/>
+      <c r="H3" s="432"/>
+      <c r="I3" s="432"/>
+      <c r="J3" s="432"/>
+      <c r="K3" s="432"/>
       <c r="L3" s="329"/>
       <c r="M3" s="329"/>
       <c r="N3" s="329"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="426" t="s">
-        <v>197</v>
-      </c>
-      <c r="B4" s="426"/>
-      <c r="C4" s="426"/>
-      <c r="D4" s="426"/>
-      <c r="E4" s="426"/>
-      <c r="F4" s="426"/>
-      <c r="G4" s="426"/>
-      <c r="H4" s="426"/>
-      <c r="I4" s="426"/>
-      <c r="J4" s="427"/>
-      <c r="K4" s="426"/>
+      <c r="A4" s="433" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="433"/>
+      <c r="C4" s="433"/>
+      <c r="D4" s="433"/>
+      <c r="E4" s="433"/>
+      <c r="F4" s="433"/>
+      <c r="G4" s="433"/>
+      <c r="H4" s="433"/>
+      <c r="I4" s="433"/>
+      <c r="J4" s="434"/>
+      <c r="K4" s="433"/>
       <c r="L4" s="330"/>
       <c r="M4" s="330"/>
       <c r="N4" s="330"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="428" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="429" t="s">
+      <c r="A5" s="435" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="436" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="435" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="428" t="s">
+      <c r="D5" s="435" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="435"/>
+      <c r="F5" s="437" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="428" t="s">
+      <c r="G5" s="437"/>
+      <c r="H5" s="437"/>
+      <c r="I5" s="437"/>
+      <c r="J5" s="438"/>
+      <c r="K5" s="439" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="431" t="s">
+        <v>311</v>
+      </c>
+      <c r="M5" s="431"/>
+      <c r="N5" s="431"/>
+    </row>
+    <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="435"/>
+      <c r="B6" s="436"/>
+      <c r="C6" s="435"/>
+      <c r="D6" s="344" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="428"/>
-      <c r="F5" s="430" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="430"/>
-      <c r="H5" s="430"/>
-      <c r="I5" s="430"/>
-      <c r="J5" s="431"/>
-      <c r="K5" s="432" t="s">
+      <c r="E6" s="345" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="345" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="422" t="s">
-        <v>315</v>
-      </c>
-      <c r="M5" s="422"/>
-      <c r="N5" s="422"/>
-    </row>
-    <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="428"/>
-      <c r="B6" s="429"/>
-      <c r="C6" s="428"/>
-      <c r="D6" s="344" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="345" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="345" t="s">
+      <c r="G6" s="345" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="345" t="s">
+      <c r="H6" s="346" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="346" t="s">
+      <c r="I6" s="331" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="331" t="s">
+      <c r="J6" s="347" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="347" t="s">
+      <c r="K6" s="439"/>
+      <c r="L6" s="334" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="334" t="s">
+        <v>180</v>
+      </c>
+      <c r="N6" s="334" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="429">
+        <v>1130</v>
+      </c>
+      <c r="B7" s="440">
+        <v>43937</v>
+      </c>
+      <c r="C7" s="429"/>
+      <c r="D7" s="429" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="429" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="102" t="s">
         <v>35</v>
-      </c>
-      <c r="K6" s="432"/>
-      <c r="L6" s="334" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" s="334" t="s">
-        <v>184</v>
-      </c>
-      <c r="N6" s="334" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="420">
-        <v>1130</v>
-      </c>
-      <c r="B7" s="433">
-        <v>43937</v>
-      </c>
-      <c r="C7" s="420"/>
-      <c r="D7" s="420" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="420" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="102" t="s">
-        <v>36</v>
       </c>
       <c r="G7" s="102">
         <v>12</v>
@@ -10573,13 +10573,13 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="421"/>
-      <c r="B8" s="434"/>
-      <c r="C8" s="421"/>
-      <c r="D8" s="421"/>
-      <c r="E8" s="421"/>
+      <c r="A8" s="430"/>
+      <c r="B8" s="441"/>
+      <c r="C8" s="430"/>
+      <c r="D8" s="430"/>
+      <c r="E8" s="430"/>
       <c r="F8" s="348" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="348">
         <v>2</v>
@@ -10606,21 +10606,21 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="435">
+      <c r="A9" s="423">
         <v>333</v>
       </c>
-      <c r="B9" s="437">
+      <c r="B9" s="420">
         <v>43940</v>
       </c>
-      <c r="C9" s="435"/>
-      <c r="D9" s="435" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="435" t="s">
-        <v>98</v>
+      <c r="C9" s="423"/>
+      <c r="D9" s="423" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="423" t="s">
+        <v>97</v>
       </c>
       <c r="F9" s="102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="102">
         <v>12</v>
@@ -10647,13 +10647,13 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="436"/>
-      <c r="B10" s="438"/>
-      <c r="C10" s="436"/>
-      <c r="D10" s="436"/>
-      <c r="E10" s="436"/>
+      <c r="A10" s="424"/>
+      <c r="B10" s="421"/>
+      <c r="C10" s="424"/>
+      <c r="D10" s="424"/>
+      <c r="E10" s="424"/>
       <c r="F10" s="104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="104">
         <v>12</v>
@@ -10680,13 +10680,13 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="436"/>
-      <c r="B11" s="438"/>
-      <c r="C11" s="436"/>
-      <c r="D11" s="436"/>
-      <c r="E11" s="436"/>
+      <c r="A11" s="424"/>
+      <c r="B11" s="421"/>
+      <c r="C11" s="424"/>
+      <c r="D11" s="424"/>
+      <c r="E11" s="424"/>
       <c r="F11" s="104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="104">
         <v>38</v>
@@ -10713,13 +10713,13 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="436"/>
-      <c r="B12" s="438"/>
-      <c r="C12" s="436"/>
-      <c r="D12" s="436"/>
-      <c r="E12" s="436"/>
+      <c r="A12" s="424"/>
+      <c r="B12" s="421"/>
+      <c r="C12" s="424"/>
+      <c r="D12" s="424"/>
+      <c r="E12" s="424"/>
       <c r="F12" s="104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="104">
         <v>20</v>
@@ -10746,13 +10746,13 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="436"/>
-      <c r="B13" s="438"/>
-      <c r="C13" s="436"/>
-      <c r="D13" s="436"/>
-      <c r="E13" s="436"/>
+      <c r="A13" s="424"/>
+      <c r="B13" s="421"/>
+      <c r="C13" s="424"/>
+      <c r="D13" s="424"/>
+      <c r="E13" s="424"/>
       <c r="F13" s="104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="104">
         <v>12</v>
@@ -10779,13 +10779,13 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="424"/>
-      <c r="B14" s="439"/>
-      <c r="C14" s="424"/>
-      <c r="D14" s="424"/>
-      <c r="E14" s="424"/>
+      <c r="A14" s="425"/>
+      <c r="B14" s="422"/>
+      <c r="C14" s="425"/>
+      <c r="D14" s="425"/>
+      <c r="E14" s="425"/>
       <c r="F14" s="106" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="106">
         <v>24</v>
@@ -10812,21 +10812,21 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="435">
+      <c r="A15" s="423">
         <v>332</v>
       </c>
-      <c r="B15" s="437">
+      <c r="B15" s="420">
         <v>43940</v>
       </c>
-      <c r="C15" s="435"/>
-      <c r="D15" s="435" t="s">
+      <c r="C15" s="423"/>
+      <c r="D15" s="423" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="423" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="435" t="s">
-        <v>102</v>
-      </c>
       <c r="F15" s="102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="102">
         <v>22</v>
@@ -10853,13 +10853,13 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="436"/>
-      <c r="B16" s="438"/>
-      <c r="C16" s="436"/>
-      <c r="D16" s="436"/>
-      <c r="E16" s="436"/>
+      <c r="A16" s="424"/>
+      <c r="B16" s="421"/>
+      <c r="C16" s="424"/>
+      <c r="D16" s="424"/>
+      <c r="E16" s="424"/>
       <c r="F16" s="104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="104">
         <v>22</v>
@@ -10886,13 +10886,13 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="436"/>
-      <c r="B17" s="438"/>
-      <c r="C17" s="436"/>
-      <c r="D17" s="436"/>
-      <c r="E17" s="436"/>
+      <c r="A17" s="424"/>
+      <c r="B17" s="421"/>
+      <c r="C17" s="424"/>
+      <c r="D17" s="424"/>
+      <c r="E17" s="424"/>
       <c r="F17" s="104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" s="104">
         <v>8</v>
@@ -10919,13 +10919,13 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="436"/>
-      <c r="B18" s="438"/>
-      <c r="C18" s="436"/>
-      <c r="D18" s="436"/>
-      <c r="E18" s="436"/>
+      <c r="A18" s="424"/>
+      <c r="B18" s="421"/>
+      <c r="C18" s="424"/>
+      <c r="D18" s="424"/>
+      <c r="E18" s="424"/>
       <c r="F18" s="104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="104">
         <v>5</v>
@@ -10952,13 +10952,13 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="436"/>
-      <c r="B19" s="438"/>
-      <c r="C19" s="436"/>
-      <c r="D19" s="436"/>
-      <c r="E19" s="436"/>
+      <c r="A19" s="424"/>
+      <c r="B19" s="421"/>
+      <c r="C19" s="424"/>
+      <c r="D19" s="424"/>
+      <c r="E19" s="424"/>
       <c r="F19" s="104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="104">
         <v>11</v>
@@ -10985,13 +10985,13 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="424"/>
-      <c r="B20" s="439"/>
-      <c r="C20" s="424"/>
-      <c r="D20" s="424"/>
-      <c r="E20" s="424"/>
+      <c r="A20" s="425"/>
+      <c r="B20" s="422"/>
+      <c r="C20" s="425"/>
+      <c r="D20" s="425"/>
+      <c r="E20" s="425"/>
       <c r="F20" s="106" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" s="106">
         <v>12</v>
@@ -11018,21 +11018,21 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="423">
+      <c r="A21" s="427">
         <v>775</v>
       </c>
-      <c r="B21" s="441">
+      <c r="B21" s="428">
         <v>43944</v>
       </c>
-      <c r="C21" s="423"/>
-      <c r="D21" s="423" t="s">
-        <v>279</v>
-      </c>
-      <c r="E21" s="423" t="s">
-        <v>202</v>
+      <c r="C21" s="427"/>
+      <c r="D21" s="427" t="s">
+        <v>275</v>
+      </c>
+      <c r="E21" s="427" t="s">
+        <v>198</v>
       </c>
       <c r="F21" s="353" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" s="353">
         <v>1</v>
@@ -11059,13 +11059,13 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="424"/>
-      <c r="B22" s="439"/>
-      <c r="C22" s="424"/>
-      <c r="D22" s="424"/>
-      <c r="E22" s="424"/>
+      <c r="A22" s="425"/>
+      <c r="B22" s="422"/>
+      <c r="C22" s="425"/>
+      <c r="D22" s="425"/>
+      <c r="E22" s="425"/>
       <c r="F22" s="106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G22" s="106">
         <v>1</v>
@@ -11099,16 +11099,16 @@
         <v>43948</v>
       </c>
       <c r="C23" s="102" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D23" s="111" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E23" s="102" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F23" s="102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="108">
         <v>1</v>
@@ -11135,13 +11135,13 @@
       </c>
     </row>
     <row r="24" spans="1:14" s="202" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="440" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="440"/>
-      <c r="C24" s="440"/>
-      <c r="D24" s="440"/>
-      <c r="E24" s="440"/>
+      <c r="A24" s="426" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="426"/>
+      <c r="C24" s="426"/>
+      <c r="D24" s="426"/>
+      <c r="E24" s="426"/>
       <c r="F24" s="198"/>
       <c r="G24" s="198">
         <f>SUM(G7:G23)</f>
@@ -11178,27 +11178,27 @@
     <row r="27" spans="1:14" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="84"/>
       <c r="E27" s="125" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F27" s="84"/>
       <c r="G27" s="84"/>
       <c r="H27" s="84"/>
       <c r="K27" s="125"/>
       <c r="L27" s="332" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="5"/>
       <c r="E28" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -11232,20 +11232,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="E15:E20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="D21:D22"/>
@@ -11262,6 +11248,20 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -11273,7 +11273,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11305,7 +11305,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>2</v>
+        <v>317</v>
       </c>
       <c r="B2" s="137"/>
       <c r="C2" s="44"/>
@@ -11324,17 +11324,17 @@
       <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="445" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="445"/>
-      <c r="C4" s="445"/>
-      <c r="D4" s="445"/>
-      <c r="E4" s="445"/>
-      <c r="F4" s="445"/>
-      <c r="G4" s="445"/>
-      <c r="H4" s="445"/>
-      <c r="I4" s="445"/>
+      <c r="A4" s="449" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="449"/>
+      <c r="C4" s="449"/>
+      <c r="D4" s="449"/>
+      <c r="E4" s="449"/>
+      <c r="F4" s="449"/>
+      <c r="G4" s="449"/>
+      <c r="H4" s="449"/>
+      <c r="I4" s="449"/>
       <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -11350,50 +11350,50 @@
       <c r="J5" s="45"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="446" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" s="447" t="s">
+      <c r="A6" s="450" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="451" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="450" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="446" t="s">
+      <c r="D6" s="452" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="448" t="s">
+      <c r="E6" s="452"/>
+      <c r="F6" s="452"/>
+      <c r="G6" s="452"/>
+      <c r="H6" s="453"/>
+      <c r="I6" s="450" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="448"/>
-      <c r="F6" s="448"/>
-      <c r="G6" s="448"/>
-      <c r="H6" s="449"/>
-      <c r="I6" s="446" t="s">
+      <c r="J6" s="447" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="450"/>
+      <c r="B7" s="451"/>
+      <c r="C7" s="450"/>
+      <c r="D7" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="443" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="446"/>
-      <c r="B7" s="447"/>
-      <c r="C7" s="446"/>
-      <c r="D7" s="47" t="s">
+      <c r="E7" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="F7" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="G7" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="H7" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="446"/>
-      <c r="J7" s="444"/>
+      <c r="I7" s="450"/>
+      <c r="J7" s="448"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="134">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="C8" s="134"/>
       <c r="D8" s="134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="134">
         <v>1</v>
@@ -11437,7 +11437,7 @@
       </c>
       <c r="C9" s="134"/>
       <c r="D9" s="134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="134">
         <v>1</v>
@@ -11470,7 +11470,7 @@
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="49">
         <v>6</v>
@@ -11496,10 +11496,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
-      <c r="B11" s="442" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="442"/>
+      <c r="B11" s="446" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="446"/>
       <c r="D11" s="54"/>
       <c r="E11" s="54"/>
       <c r="F11" s="54"/>
@@ -11518,55 +11518,50 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="450" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="451"/>
-      <c r="C12" s="451"/>
-      <c r="D12" s="451"/>
-      <c r="E12" s="451"/>
-      <c r="F12" s="451"/>
-      <c r="G12" s="451"/>
-      <c r="H12" s="451"/>
-      <c r="I12" s="452"/>
+      <c r="A12" s="442" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="443"/>
+      <c r="C12" s="443"/>
+      <c r="D12" s="443"/>
+      <c r="E12" s="443"/>
+      <c r="F12" s="443"/>
+      <c r="G12" s="443"/>
+      <c r="H12" s="443"/>
+      <c r="I12" s="444"/>
       <c r="J12" s="142" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G13" s="57"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="453"/>
-      <c r="B14" s="453"/>
-      <c r="C14" s="453"/>
-      <c r="E14" s="453" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="453"/>
-      <c r="G14" s="453"/>
-      <c r="H14" s="453"/>
-      <c r="I14" s="453"/>
+      <c r="A14" s="445"/>
+      <c r="B14" s="445"/>
+      <c r="C14" s="445"/>
+      <c r="E14" s="445" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="445"/>
+      <c r="G14" s="445"/>
+      <c r="H14" s="445"/>
+      <c r="I14" s="445"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="453"/>
-      <c r="B19" s="453"/>
-      <c r="C19" s="453"/>
-      <c r="E19" s="453" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="453"/>
-      <c r="G19" s="453"/>
-      <c r="H19" s="453"/>
-      <c r="I19" s="453"/>
+      <c r="A19" s="445"/>
+      <c r="B19" s="445"/>
+      <c r="C19" s="445"/>
+      <c r="E19" s="445" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="445"/>
+      <c r="G19" s="445"/>
+      <c r="H19" s="445"/>
+      <c r="I19" s="445"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="E19:I19"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="A4:I4"/>
@@ -11575,6 +11570,11 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E19:I19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -11604,13 +11604,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="460" t="s">
+      <c r="A1" s="465" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="460"/>
-      <c r="C1" s="460"/>
-      <c r="D1" s="460"/>
-      <c r="E1" s="460"/>
+      <c r="B1" s="465"/>
+      <c r="C1" s="465"/>
+      <c r="D1" s="465"/>
+      <c r="E1" s="465"/>
       <c r="F1" s="42"/>
       <c r="G1" s="42"/>
       <c r="H1" s="42"/>
@@ -11618,7 +11618,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -11638,16 +11638,16 @@
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="445" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="445"/>
-      <c r="C4" s="445"/>
-      <c r="D4" s="445"/>
-      <c r="E4" s="445"/>
-      <c r="F4" s="445"/>
-      <c r="G4" s="445"/>
-      <c r="H4" s="445"/>
+      <c r="A4" s="449" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="449"/>
+      <c r="C4" s="449"/>
+      <c r="D4" s="449"/>
+      <c r="E4" s="449"/>
+      <c r="F4" s="449"/>
+      <c r="G4" s="449"/>
+      <c r="H4" s="449"/>
       <c r="I4" s="45"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -11662,46 +11662,46 @@
       <c r="I5" s="45"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="446" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" s="447" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="448" t="s">
+      <c r="A6" s="450" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="451" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="452" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="452"/>
+      <c r="E6" s="452"/>
+      <c r="F6" s="452"/>
+      <c r="G6" s="453"/>
+      <c r="H6" s="450" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="448"/>
-      <c r="E6" s="448"/>
-      <c r="F6" s="448"/>
-      <c r="G6" s="449"/>
-      <c r="H6" s="446" t="s">
+      <c r="I6" s="452" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="450"/>
+      <c r="B7" s="451"/>
+      <c r="C7" s="248" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="448" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="446"/>
-      <c r="B7" s="447"/>
-      <c r="C7" s="248" t="s">
+      <c r="D7" s="248" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="248" t="s">
+      <c r="E7" s="248" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="248" t="s">
+      <c r="F7" s="248" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="248" t="s">
+      <c r="G7" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="446"/>
-      <c r="I7" s="448"/>
+      <c r="H7" s="450"/>
+      <c r="I7" s="452"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="224">
@@ -11711,7 +11711,7 @@
         <v>43920</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="49">
         <v>12</v>
@@ -11731,7 +11731,7 @@
         <v>3221400.0000000005</v>
       </c>
       <c r="I8" s="220" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -11742,7 +11742,7 @@
         <v>43921</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="49">
         <v>2</v>
@@ -11774,7 +11774,7 @@
         <v>43922</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="49">
         <v>1</v>
@@ -11799,14 +11799,14 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="454">
+      <c r="A11" s="459">
         <v>328</v>
       </c>
-      <c r="B11" s="457">
+      <c r="B11" s="462">
         <v>43936</v>
       </c>
       <c r="C11" s="88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="88">
         <v>2</v>
@@ -11831,10 +11831,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="455"/>
-      <c r="B12" s="458"/>
+      <c r="A12" s="460"/>
+      <c r="B12" s="463"/>
       <c r="C12" s="91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="91">
         <v>2</v>
@@ -11859,10 +11859,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="455"/>
-      <c r="B13" s="458"/>
+      <c r="A13" s="460"/>
+      <c r="B13" s="463"/>
       <c r="C13" s="91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="91">
         <v>1</v>
@@ -11887,10 +11887,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="456"/>
-      <c r="B14" s="459"/>
+      <c r="A14" s="461"/>
+      <c r="B14" s="464"/>
       <c r="C14" s="215" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="215">
         <v>1</v>
@@ -11922,7 +11922,7 @@
         <v>43938</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="49">
         <v>1</v>
@@ -11947,14 +11947,14 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="207" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="462">
+      <c r="A16" s="455">
         <v>342</v>
       </c>
-      <c r="B16" s="464">
+      <c r="B16" s="457">
         <v>43942</v>
       </c>
       <c r="C16" s="267" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="267">
         <v>1</v>
@@ -11979,10 +11979,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="207" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="463"/>
-      <c r="B17" s="465"/>
+      <c r="A17" s="456"/>
+      <c r="B17" s="458"/>
       <c r="C17" s="273" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="273">
         <v>2</v>
@@ -12014,7 +12014,7 @@
         <v>43942</v>
       </c>
       <c r="C18" s="265" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="265">
         <v>1</v>
@@ -12046,7 +12046,7 @@
         <v>43944</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="49">
         <v>5</v>
@@ -12078,7 +12078,7 @@
         <v>43944</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="49">
         <v>1</v>
@@ -12105,7 +12105,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="224"/>
       <c r="B21" s="247" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="54">
@@ -12128,32 +12128,32 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="448" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="448"/>
-      <c r="C22" s="448"/>
-      <c r="D22" s="448"/>
-      <c r="E22" s="448"/>
-      <c r="F22" s="448"/>
-      <c r="G22" s="448"/>
-      <c r="H22" s="448"/>
+      <c r="A22" s="452" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="452"/>
+      <c r="C22" s="452"/>
+      <c r="D22" s="452"/>
+      <c r="E22" s="452"/>
+      <c r="F22" s="452"/>
+      <c r="G22" s="452"/>
+      <c r="H22" s="452"/>
       <c r="I22" s="131">
         <f>1088000-I16-I17</f>
         <v>270849.99999999988</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="461" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="461"/>
-      <c r="C23" s="461"/>
-      <c r="D23" s="461"/>
-      <c r="E23" s="461"/>
-      <c r="F23" s="461"/>
-      <c r="G23" s="461"/>
-      <c r="H23" s="461"/>
+      <c r="A23" s="454" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="454"/>
+      <c r="C23" s="454"/>
+      <c r="D23" s="454"/>
+      <c r="E23" s="454"/>
+      <c r="F23" s="454"/>
+      <c r="G23" s="454"/>
+      <c r="H23" s="454"/>
       <c r="I23" s="56">
         <f>H8-I22</f>
         <v>2950550.0000000005</v>
@@ -12172,16 +12172,16 @@
     </row>
     <row r="25" spans="1:11" s="77" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B25" s="246" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C25" s="246"/>
       <c r="D25" s="246"/>
       <c r="E25" s="246" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G25" s="246"/>
       <c r="H25" s="202" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I25" s="202"/>
       <c r="J25" s="202"/>
@@ -12189,16 +12189,16 @@
     </row>
     <row r="26" spans="1:11" s="249" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B26" s="250" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C26" s="250"/>
       <c r="D26" s="250"/>
       <c r="E26" s="250" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G26" s="250"/>
       <c r="H26" s="279" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I26" s="279"/>
       <c r="J26" s="279"/>
@@ -12208,8 +12208,8 @@
       <c r="H27" s="57"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="453"/>
-      <c r="B29" s="453"/>
+      <c r="A29" s="445"/>
+      <c r="B29" s="445"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -12217,11 +12217,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:B14"/>
@@ -12231,6 +12226,11 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -12241,8 +12241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -13100,14 +13100,14 @@
     </row>
     <row r="2" spans="1:12" s="58" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="475" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B2" s="475"/>
       <c r="C2" s="475"/>
       <c r="D2" s="475"/>
       <c r="E2" s="113"/>
       <c r="F2" s="476" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="476"/>
       <c r="H2" s="476"/>
@@ -13127,7 +13127,7 @@
     </row>
     <row r="4" spans="1:12" s="61" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="477" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="477"/>
       <c r="C4" s="477"/>
@@ -13143,7 +13143,7 @@
     </row>
     <row r="5" spans="1:12" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="478" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="478"/>
       <c r="C5" s="478"/>
@@ -13159,47 +13159,47 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J6" s="479" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K6" s="479"/>
       <c r="L6" s="479"/>
     </row>
     <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="251" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="252" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="252" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="252" t="s">
+      <c r="D7" s="252" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="252" t="s">
+      <c r="E7" s="253" t="s">
         <v>133</v>
       </c>
-      <c r="E7" s="253" t="s">
+      <c r="F7" s="251" t="s">
         <v>134</v>
       </c>
-      <c r="F7" s="251" t="s">
+      <c r="G7" s="251" t="s">
         <v>135</v>
       </c>
-      <c r="G7" s="251" t="s">
+      <c r="H7" s="251" t="s">
+        <v>315</v>
+      </c>
+      <c r="I7" s="251" t="s">
+        <v>316</v>
+      </c>
+      <c r="J7" s="251" t="s">
         <v>136</v>
       </c>
-      <c r="H7" s="251" t="s">
+      <c r="K7" s="254" t="s">
         <v>137</v>
       </c>
-      <c r="I7" s="251" t="s">
-        <v>155</v>
-      </c>
-      <c r="J7" s="251" t="s">
-        <v>138</v>
-      </c>
-      <c r="K7" s="254" t="s">
-        <v>139</v>
-      </c>
       <c r="L7" s="251" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13208,29 +13208,29 @@
       <c r="C8" s="252"/>
       <c r="D8" s="252"/>
       <c r="E8" s="253" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F8" s="253" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="253" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="253" t="s">
         <v>140</v>
       </c>
-      <c r="G8" s="253" t="s">
+      <c r="I8" s="253" t="s">
         <v>141</v>
       </c>
-      <c r="H8" s="253" t="s">
+      <c r="J8" s="254" t="s">
         <v>142</v>
-      </c>
-      <c r="I8" s="253" t="s">
-        <v>143</v>
-      </c>
-      <c r="J8" s="254" t="s">
-        <v>144</v>
       </c>
       <c r="K8" s="252"/>
       <c r="L8" s="251"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="470" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B9" s="471"/>
       <c r="C9" s="471"/>
@@ -13264,10 +13264,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="255" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="256" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D10" s="117">
         <v>15000000</v>
@@ -13297,10 +13297,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D11" s="66">
         <v>10000000</v>
@@ -13330,10 +13330,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D12" s="66">
         <v>6000000</v>
@@ -13363,10 +13363,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D13" s="71">
         <v>6000000</v>
@@ -13395,7 +13395,7 @@
     </row>
     <row r="14" spans="1:12" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="467" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B14" s="468"/>
       <c r="C14" s="468"/>
@@ -13429,10 +13429,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="258" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C15" s="259" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D15" s="260">
         <v>10000000</v>
@@ -13460,10 +13460,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="73" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D16" s="75">
         <v>5000000</v>
@@ -13493,7 +13493,7 @@
     </row>
     <row r="17" spans="1:12" s="77" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A17" s="480" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="481"/>
       <c r="C17" s="482"/>
@@ -13523,44 +13523,44 @@
       <c r="L17" s="118"/>
     </row>
     <row r="19" spans="1:12" s="77" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="425"/>
-      <c r="C19" s="425"/>
-      <c r="D19" s="425"/>
+      <c r="B19" s="432"/>
+      <c r="C19" s="432"/>
+      <c r="D19" s="432"/>
       <c r="E19" s="115"/>
-      <c r="H19" s="425"/>
-      <c r="I19" s="425"/>
-      <c r="J19" s="425"/>
-      <c r="K19" s="425"/>
+      <c r="H19" s="432"/>
+      <c r="I19" s="432"/>
+      <c r="J19" s="432"/>
+      <c r="K19" s="432"/>
     </row>
     <row r="20" spans="1:12" s="77" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B20" s="246" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C20" s="246"/>
       <c r="D20" s="246"/>
       <c r="F20" s="246" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G20" s="246"/>
-      <c r="H20" s="425" t="s">
-        <v>283</v>
-      </c>
-      <c r="I20" s="425"/>
-      <c r="J20" s="425"/>
-      <c r="K20" s="425"/>
+      <c r="H20" s="432" t="s">
+        <v>279</v>
+      </c>
+      <c r="I20" s="432"/>
+      <c r="J20" s="432"/>
+      <c r="K20" s="432"/>
     </row>
     <row r="21" spans="1:12" s="249" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B21" s="250" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C21" s="250"/>
       <c r="D21" s="250"/>
       <c r="F21" s="250" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G21" s="250"/>
       <c r="H21" s="466" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I21" s="466"/>
       <c r="J21" s="466"/>

--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/OKLA/NANOMILK 4_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/OKLA/NANOMILK 4_2020.xlsx
@@ -2359,165 +2359,165 @@
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="22" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="30" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="30" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2533,6 +2533,57 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2542,61 +2593,34 @@
     <xf numFmtId="166" fontId="24" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2611,29 +2635,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2649,27 +2670,6 @@
     </xf>
     <xf numFmtId="168" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3141,16 +3141,16 @@
       <c r="Q2" s="163"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="377" t="s">
+      <c r="A3" s="365" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="377"/>
-      <c r="C3" s="377"/>
-      <c r="D3" s="377"/>
-      <c r="E3" s="377"/>
-      <c r="F3" s="377"/>
-      <c r="G3" s="377"/>
-      <c r="H3" s="377"/>
+      <c r="B3" s="365"/>
+      <c r="C3" s="365"/>
+      <c r="D3" s="365"/>
+      <c r="E3" s="365"/>
+      <c r="F3" s="365"/>
+      <c r="G3" s="365"/>
+      <c r="H3" s="365"/>
       <c r="I3" s="164"/>
       <c r="J3" s="164"/>
       <c r="K3" s="164"/>
@@ -3162,32 +3162,32 @@
       <c r="Q3" s="164"/>
     </row>
     <row r="4" spans="1:17" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="365" t="s">
+      <c r="A4" s="366" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="362" t="s">
+      <c r="B4" s="371" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="365" t="s">
+      <c r="C4" s="366" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="367" t="s">
+      <c r="D4" s="368" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="369" t="s">
+      <c r="E4" s="370" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="369"/>
-      <c r="G4" s="369" t="s">
+      <c r="F4" s="370"/>
+      <c r="G4" s="370" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="369"/>
+      <c r="H4" s="370"/>
     </row>
     <row r="5" spans="1:17" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="366"/>
-      <c r="B5" s="363"/>
-      <c r="C5" s="366"/>
-      <c r="D5" s="368"/>
+      <c r="A5" s="367"/>
+      <c r="B5" s="372"/>
+      <c r="C5" s="367"/>
+      <c r="D5" s="369"/>
       <c r="E5" s="165" t="s">
         <v>180</v>
       </c>
@@ -4539,12 +4539,12 @@
       </c>
     </row>
     <row r="73" spans="1:10" s="171" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="374" t="s">
+      <c r="A73" s="362" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="375"/>
-      <c r="C73" s="375"/>
-      <c r="D73" s="376"/>
+      <c r="B73" s="363"/>
+      <c r="C73" s="363"/>
+      <c r="D73" s="364"/>
       <c r="E73" s="170">
         <f>SUM(E6:E72)</f>
         <v>67587700</v>
@@ -4590,10 +4590,10 @@
     <row r="76" spans="1:10" s="171" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="173"/>
       <c r="B76" s="173"/>
-      <c r="C76" s="372" t="s">
+      <c r="C76" s="374" t="s">
         <v>268</v>
       </c>
-      <c r="D76" s="372"/>
+      <c r="D76" s="374"/>
       <c r="E76" s="174"/>
       <c r="F76" s="174"/>
       <c r="G76" s="174"/>
@@ -4601,32 +4601,32 @@
       <c r="J76" s="172"/>
     </row>
     <row r="77" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="365" t="s">
+      <c r="A77" s="366" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="362" t="s">
+      <c r="B77" s="371" t="s">
         <v>211</v>
       </c>
-      <c r="C77" s="365" t="s">
+      <c r="C77" s="366" t="s">
         <v>4</v>
       </c>
-      <c r="D77" s="367" t="s">
+      <c r="D77" s="368" t="s">
         <v>5</v>
       </c>
-      <c r="E77" s="369" t="s">
+      <c r="E77" s="370" t="s">
         <v>6</v>
       </c>
-      <c r="F77" s="369"/>
-      <c r="G77" s="369" t="s">
+      <c r="F77" s="370"/>
+      <c r="G77" s="370" t="s">
         <v>7</v>
       </c>
-      <c r="H77" s="369"/>
+      <c r="H77" s="370"/>
     </row>
     <row r="78" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="366"/>
-      <c r="B78" s="363"/>
-      <c r="C78" s="366"/>
-      <c r="D78" s="368"/>
+      <c r="A78" s="367"/>
+      <c r="B78" s="372"/>
+      <c r="C78" s="367"/>
+      <c r="D78" s="369"/>
       <c r="E78" s="165" t="s">
         <v>180</v>
       </c>
@@ -4697,10 +4697,10 @@
     <row r="82" spans="1:10" s="171" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="173"/>
       <c r="B82" s="173"/>
-      <c r="C82" s="372" t="s">
+      <c r="C82" s="374" t="s">
         <v>269</v>
       </c>
-      <c r="D82" s="372"/>
+      <c r="D82" s="374"/>
       <c r="E82" s="174"/>
       <c r="F82" s="174"/>
       <c r="G82" s="174"/>
@@ -4708,32 +4708,32 @@
       <c r="J82" s="172"/>
     </row>
     <row r="83" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="365" t="s">
+      <c r="A83" s="366" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="362" t="s">
+      <c r="B83" s="371" t="s">
         <v>211</v>
       </c>
-      <c r="C83" s="365" t="s">
+      <c r="C83" s="366" t="s">
         <v>4</v>
       </c>
-      <c r="D83" s="367" t="s">
+      <c r="D83" s="368" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="369" t="s">
+      <c r="E83" s="370" t="s">
         <v>6</v>
       </c>
-      <c r="F83" s="369"/>
-      <c r="G83" s="369" t="s">
+      <c r="F83" s="370"/>
+      <c r="G83" s="370" t="s">
         <v>7</v>
       </c>
-      <c r="H83" s="369"/>
+      <c r="H83" s="370"/>
     </row>
     <row r="84" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="366"/>
-      <c r="B84" s="363"/>
-      <c r="C84" s="366"/>
-      <c r="D84" s="368"/>
+      <c r="A84" s="367"/>
+      <c r="B84" s="372"/>
+      <c r="C84" s="367"/>
+      <c r="D84" s="369"/>
       <c r="E84" s="165" t="s">
         <v>180</v>
       </c>
@@ -4785,10 +4785,10 @@
     <row r="87" spans="1:10" s="171" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="173"/>
       <c r="B87" s="173"/>
-      <c r="C87" s="364" t="s">
+      <c r="C87" s="375" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="364"/>
+      <c r="D87" s="375"/>
       <c r="E87" s="174"/>
       <c r="F87" s="174"/>
       <c r="G87" s="174"/>
@@ -4796,32 +4796,32 @@
       <c r="J87" s="172"/>
     </row>
     <row r="88" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="365" t="s">
+      <c r="A88" s="366" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="362" t="s">
+      <c r="B88" s="371" t="s">
         <v>211</v>
       </c>
-      <c r="C88" s="365" t="s">
+      <c r="C88" s="366" t="s">
         <v>4</v>
       </c>
-      <c r="D88" s="367" t="s">
+      <c r="D88" s="368" t="s">
         <v>5</v>
       </c>
-      <c r="E88" s="369" t="s">
+      <c r="E88" s="370" t="s">
         <v>6</v>
       </c>
-      <c r="F88" s="369"/>
-      <c r="G88" s="369" t="s">
+      <c r="F88" s="370"/>
+      <c r="G88" s="370" t="s">
         <v>7</v>
       </c>
-      <c r="H88" s="369"/>
+      <c r="H88" s="370"/>
     </row>
     <row r="89" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="366"/>
-      <c r="B89" s="363"/>
-      <c r="C89" s="366"/>
-      <c r="D89" s="368"/>
+      <c r="A89" s="367"/>
+      <c r="B89" s="372"/>
+      <c r="C89" s="367"/>
+      <c r="D89" s="369"/>
       <c r="E89" s="165" t="s">
         <v>180</v>
       </c>
@@ -4934,10 +4934,10 @@
     <row r="95" spans="1:10" s="171" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="173"/>
       <c r="B95" s="173"/>
-      <c r="C95" s="364" t="s">
+      <c r="C95" s="375" t="s">
         <v>66</v>
       </c>
-      <c r="D95" s="364"/>
+      <c r="D95" s="375"/>
       <c r="E95" s="174"/>
       <c r="F95" s="174"/>
       <c r="G95" s="174"/>
@@ -4945,32 +4945,32 @@
       <c r="J95" s="172"/>
     </row>
     <row r="96" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="365" t="s">
+      <c r="A96" s="366" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="362" t="s">
+      <c r="B96" s="371" t="s">
         <v>270</v>
       </c>
-      <c r="C96" s="365" t="s">
+      <c r="C96" s="366" t="s">
         <v>4</v>
       </c>
-      <c r="D96" s="367" t="s">
+      <c r="D96" s="368" t="s">
         <v>5</v>
       </c>
-      <c r="E96" s="369" t="s">
+      <c r="E96" s="370" t="s">
         <v>6</v>
       </c>
-      <c r="F96" s="369"/>
-      <c r="G96" s="369" t="s">
+      <c r="F96" s="370"/>
+      <c r="G96" s="370" t="s">
         <v>7</v>
       </c>
-      <c r="H96" s="369"/>
+      <c r="H96" s="370"/>
     </row>
     <row r="97" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="366"/>
-      <c r="B97" s="363"/>
-      <c r="C97" s="366"/>
-      <c r="D97" s="368"/>
+      <c r="A97" s="367"/>
+      <c r="B97" s="372"/>
+      <c r="C97" s="367"/>
+      <c r="D97" s="369"/>
       <c r="E97" s="165" t="s">
         <v>180</v>
       </c>
@@ -5140,10 +5140,10 @@
     <row r="106" spans="1:10" s="171" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="173"/>
       <c r="B106" s="173"/>
-      <c r="C106" s="364" t="s">
+      <c r="C106" s="375" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="364"/>
+      <c r="D106" s="375"/>
       <c r="E106" s="174"/>
       <c r="F106" s="174"/>
       <c r="G106" s="174"/>
@@ -5151,32 +5151,32 @@
       <c r="J106" s="172"/>
     </row>
     <row r="107" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="365" t="s">
+      <c r="A107" s="366" t="s">
         <v>3</v>
       </c>
-      <c r="B107" s="362" t="s">
+      <c r="B107" s="371" t="s">
         <v>211</v>
       </c>
-      <c r="C107" s="365" t="s">
+      <c r="C107" s="366" t="s">
         <v>4</v>
       </c>
-      <c r="D107" s="367" t="s">
+      <c r="D107" s="368" t="s">
         <v>5</v>
       </c>
-      <c r="E107" s="369" t="s">
+      <c r="E107" s="370" t="s">
         <v>6</v>
       </c>
-      <c r="F107" s="369"/>
-      <c r="G107" s="369" t="s">
+      <c r="F107" s="370"/>
+      <c r="G107" s="370" t="s">
         <v>7</v>
       </c>
-      <c r="H107" s="369"/>
+      <c r="H107" s="370"/>
     </row>
     <row r="108" spans="1:10" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="366"/>
-      <c r="B108" s="363"/>
-      <c r="C108" s="366"/>
-      <c r="D108" s="368"/>
+      <c r="A108" s="367"/>
+      <c r="B108" s="372"/>
+      <c r="C108" s="367"/>
+      <c r="D108" s="369"/>
       <c r="E108" s="165" t="s">
         <v>180</v>
       </c>
@@ -5486,42 +5486,42 @@
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="190"/>
       <c r="B124" s="190"/>
-      <c r="C124" s="364" t="s">
+      <c r="C124" s="375" t="s">
         <v>125</v>
       </c>
-      <c r="D124" s="364"/>
+      <c r="D124" s="375"/>
       <c r="E124" s="191"/>
       <c r="F124" s="192"/>
       <c r="G124" s="191"/>
       <c r="H124" s="193"/>
     </row>
     <row r="125" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="363" t="s">
+      <c r="A125" s="372" t="s">
         <v>3</v>
       </c>
-      <c r="B125" s="362" t="s">
+      <c r="B125" s="371" t="s">
         <v>211</v>
       </c>
-      <c r="C125" s="363" t="s">
+      <c r="C125" s="372" t="s">
         <v>4</v>
       </c>
-      <c r="D125" s="370" t="s">
+      <c r="D125" s="376" t="s">
         <v>5</v>
       </c>
-      <c r="E125" s="371" t="s">
+      <c r="E125" s="377" t="s">
         <v>6</v>
       </c>
-      <c r="F125" s="371"/>
-      <c r="G125" s="371" t="s">
+      <c r="F125" s="377"/>
+      <c r="G125" s="377" t="s">
         <v>7</v>
       </c>
-      <c r="H125" s="371"/>
+      <c r="H125" s="377"/>
     </row>
     <row r="126" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="366"/>
-      <c r="B126" s="363"/>
-      <c r="C126" s="366"/>
-      <c r="D126" s="368"/>
+      <c r="A126" s="367"/>
+      <c r="B126" s="372"/>
+      <c r="C126" s="367"/>
+      <c r="D126" s="369"/>
       <c r="E126" s="165" t="s">
         <v>180</v>
       </c>
@@ -6132,38 +6132,38 @@
       <c r="H156" s="185"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C157" s="364" t="s">
+      <c r="C157" s="375" t="s">
         <v>181</v>
       </c>
-      <c r="D157" s="364"/>
+      <c r="D157" s="375"/>
     </row>
     <row r="158" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="365" t="s">
+      <c r="A158" s="366" t="s">
         <v>3</v>
       </c>
-      <c r="B158" s="362" t="s">
+      <c r="B158" s="371" t="s">
         <v>211</v>
       </c>
-      <c r="C158" s="365" t="s">
+      <c r="C158" s="366" t="s">
         <v>4</v>
       </c>
-      <c r="D158" s="367" t="s">
+      <c r="D158" s="368" t="s">
         <v>5</v>
       </c>
-      <c r="E158" s="369" t="s">
+      <c r="E158" s="370" t="s">
         <v>6</v>
       </c>
-      <c r="F158" s="369"/>
-      <c r="G158" s="369" t="s">
+      <c r="F158" s="370"/>
+      <c r="G158" s="370" t="s">
         <v>7</v>
       </c>
-      <c r="H158" s="369"/>
+      <c r="H158" s="370"/>
     </row>
     <row r="159" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="366"/>
-      <c r="B159" s="363"/>
-      <c r="C159" s="366"/>
-      <c r="D159" s="368"/>
+      <c r="A159" s="367"/>
+      <c r="B159" s="372"/>
+      <c r="C159" s="367"/>
+      <c r="D159" s="369"/>
       <c r="E159" s="165" t="s">
         <v>180</v>
       </c>
@@ -6234,38 +6234,38 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C163" s="364" t="s">
+      <c r="C163" s="375" t="s">
         <v>11</v>
       </c>
-      <c r="D163" s="364"/>
+      <c r="D163" s="375"/>
     </row>
     <row r="164" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="365" t="s">
+      <c r="A164" s="366" t="s">
         <v>3</v>
       </c>
-      <c r="B164" s="362" t="s">
+      <c r="B164" s="371" t="s">
         <v>211</v>
       </c>
-      <c r="C164" s="365" t="s">
+      <c r="C164" s="366" t="s">
         <v>4</v>
       </c>
-      <c r="D164" s="367" t="s">
+      <c r="D164" s="368" t="s">
         <v>5</v>
       </c>
-      <c r="E164" s="369" t="s">
+      <c r="E164" s="370" t="s">
         <v>6</v>
       </c>
-      <c r="F164" s="369"/>
-      <c r="G164" s="369" t="s">
+      <c r="F164" s="370"/>
+      <c r="G164" s="370" t="s">
         <v>7</v>
       </c>
-      <c r="H164" s="369"/>
+      <c r="H164" s="370"/>
     </row>
     <row r="165" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="366"/>
-      <c r="B165" s="363"/>
-      <c r="C165" s="366"/>
-      <c r="D165" s="368"/>
+      <c r="A165" s="367"/>
+      <c r="B165" s="372"/>
+      <c r="C165" s="367"/>
+      <c r="D165" s="369"/>
       <c r="E165" s="165" t="s">
         <v>180</v>
       </c>
@@ -6416,38 +6416,38 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C173" s="364" t="s">
+      <c r="C173" s="375" t="s">
         <v>12</v>
       </c>
-      <c r="D173" s="364"/>
+      <c r="D173" s="375"/>
     </row>
     <row r="174" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="365" t="s">
+      <c r="A174" s="366" t="s">
         <v>3</v>
       </c>
-      <c r="B174" s="362" t="s">
+      <c r="B174" s="371" t="s">
         <v>211</v>
       </c>
-      <c r="C174" s="365" t="s">
+      <c r="C174" s="366" t="s">
         <v>4</v>
       </c>
-      <c r="D174" s="367" t="s">
+      <c r="D174" s="368" t="s">
         <v>5</v>
       </c>
-      <c r="E174" s="369" t="s">
+      <c r="E174" s="370" t="s">
         <v>6</v>
       </c>
-      <c r="F174" s="369"/>
-      <c r="G174" s="369" t="s">
+      <c r="F174" s="370"/>
+      <c r="G174" s="370" t="s">
         <v>7</v>
       </c>
-      <c r="H174" s="369"/>
+      <c r="H174" s="370"/>
     </row>
     <row r="175" spans="1:8" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="366"/>
-      <c r="B175" s="363"/>
-      <c r="C175" s="366"/>
-      <c r="D175" s="368"/>
+      <c r="A175" s="367"/>
+      <c r="B175" s="372"/>
+      <c r="C175" s="367"/>
+      <c r="D175" s="369"/>
       <c r="E175" s="165" t="s">
         <v>180</v>
       </c>
@@ -6547,19 +6547,49 @@
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="72">
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="B96:B97"/>
     <mergeCell ref="E77:F77"/>
     <mergeCell ref="G77:H77"/>
     <mergeCell ref="A88:A89"/>
@@ -6576,49 +6606,19 @@
     <mergeCell ref="D83:D84"/>
     <mergeCell ref="E83:F83"/>
     <mergeCell ref="G83:H83"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.21" top="0.36" bottom="0.41" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6631,8 +6631,8 @@
   <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80:F80"/>
+      <pane ySplit="7" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6656,13 +6656,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="225" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="387" t="s">
+      <c r="A1" s="407" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="387"/>
-      <c r="C1" s="387"/>
-      <c r="D1" s="387"/>
-      <c r="E1" s="387"/>
+      <c r="B1" s="407"/>
+      <c r="C1" s="407"/>
+      <c r="D1" s="407"/>
+      <c r="E1" s="407"/>
       <c r="H1" s="226"/>
       <c r="I1" s="226"/>
       <c r="J1" s="226"/>
@@ -6692,136 +6692,136 @@
       <c r="P2" s="230"/>
     </row>
     <row r="3" spans="1:16" s="225" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="395" t="s">
+      <c r="A3" s="411" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="395"/>
-      <c r="C3" s="395"/>
-      <c r="D3" s="395"/>
-      <c r="E3" s="395"/>
-      <c r="F3" s="395"/>
-      <c r="G3" s="395"/>
-      <c r="H3" s="395"/>
-      <c r="I3" s="395"/>
-      <c r="J3" s="395"/>
-      <c r="K3" s="395"/>
-      <c r="L3" s="395"/>
-      <c r="M3" s="395"/>
-      <c r="N3" s="395"/>
-      <c r="O3" s="395"/>
-      <c r="P3" s="395"/>
+      <c r="B3" s="411"/>
+      <c r="C3" s="411"/>
+      <c r="D3" s="411"/>
+      <c r="E3" s="411"/>
+      <c r="F3" s="411"/>
+      <c r="G3" s="411"/>
+      <c r="H3" s="411"/>
+      <c r="I3" s="411"/>
+      <c r="J3" s="411"/>
+      <c r="K3" s="411"/>
+      <c r="L3" s="411"/>
+      <c r="M3" s="411"/>
+      <c r="N3" s="411"/>
+      <c r="O3" s="411"/>
+      <c r="P3" s="411"/>
     </row>
     <row r="4" spans="1:16" s="225" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="395" t="s">
+      <c r="A4" s="411" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="395"/>
-      <c r="C4" s="395"/>
-      <c r="D4" s="395"/>
-      <c r="E4" s="395"/>
-      <c r="F4" s="395"/>
-      <c r="G4" s="395"/>
-      <c r="H4" s="395"/>
-      <c r="I4" s="395"/>
-      <c r="J4" s="395"/>
-      <c r="K4" s="395"/>
-      <c r="L4" s="395"/>
-      <c r="M4" s="395"/>
-      <c r="N4" s="395"/>
-      <c r="O4" s="395"/>
-      <c r="P4" s="395"/>
+      <c r="B4" s="411"/>
+      <c r="C4" s="411"/>
+      <c r="D4" s="411"/>
+      <c r="E4" s="411"/>
+      <c r="F4" s="411"/>
+      <c r="G4" s="411"/>
+      <c r="H4" s="411"/>
+      <c r="I4" s="411"/>
+      <c r="J4" s="411"/>
+      <c r="K4" s="411"/>
+      <c r="L4" s="411"/>
+      <c r="M4" s="411"/>
+      <c r="N4" s="411"/>
+      <c r="O4" s="411"/>
+      <c r="P4" s="411"/>
     </row>
     <row r="5" spans="1:16" s="225" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="396" t="s">
+      <c r="A5" s="400" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="398" t="s">
+      <c r="B5" s="403" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="396" t="s">
+      <c r="C5" s="400" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="400" t="s">
+      <c r="D5" s="405" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="401" t="s">
+      <c r="E5" s="405"/>
+      <c r="F5" s="406" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="401"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="401"/>
-      <c r="J5" s="401"/>
-      <c r="K5" s="401"/>
-      <c r="L5" s="401"/>
-      <c r="M5" s="402"/>
-      <c r="N5" s="402"/>
-      <c r="O5" s="402"/>
-      <c r="P5" s="383" t="s">
+      <c r="G5" s="406"/>
+      <c r="H5" s="406"/>
+      <c r="I5" s="406"/>
+      <c r="J5" s="406"/>
+      <c r="K5" s="406"/>
+      <c r="L5" s="406"/>
+      <c r="M5" s="397"/>
+      <c r="N5" s="397"/>
+      <c r="O5" s="397"/>
+      <c r="P5" s="378" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="225" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="397"/>
-      <c r="B6" s="399"/>
-      <c r="C6" s="397"/>
-      <c r="D6" s="396" t="s">
+      <c r="A6" s="401"/>
+      <c r="B6" s="404"/>
+      <c r="C6" s="401"/>
+      <c r="D6" s="400" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="396" t="s">
+      <c r="E6" s="400" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="396" t="s">
+      <c r="F6" s="400" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="396" t="s">
+      <c r="G6" s="400" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="403" t="s">
+      <c r="H6" s="398" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="403" t="s">
+      <c r="I6" s="398" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="405" t="s">
+      <c r="J6" s="402" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="405"/>
-      <c r="L6" s="403" t="s">
+      <c r="K6" s="402"/>
+      <c r="L6" s="398" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="403" t="s">
+      <c r="M6" s="398" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="403" t="s">
+      <c r="N6" s="398" t="s">
         <v>180</v>
       </c>
-      <c r="O6" s="403" t="s">
+      <c r="O6" s="398" t="s">
         <v>195</v>
       </c>
-      <c r="P6" s="384"/>
+      <c r="P6" s="380"/>
     </row>
     <row r="7" spans="1:16" s="225" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="397"/>
-      <c r="B7" s="399"/>
-      <c r="C7" s="397"/>
-      <c r="D7" s="397"/>
-      <c r="E7" s="397"/>
-      <c r="F7" s="397"/>
-      <c r="G7" s="397"/>
-      <c r="H7" s="404"/>
-      <c r="I7" s="404"/>
+      <c r="A7" s="401"/>
+      <c r="B7" s="404"/>
+      <c r="C7" s="401"/>
+      <c r="D7" s="401"/>
+      <c r="E7" s="401"/>
+      <c r="F7" s="401"/>
+      <c r="G7" s="401"/>
+      <c r="H7" s="399"/>
+      <c r="I7" s="399"/>
       <c r="J7" s="280" t="s">
         <v>196</v>
       </c>
       <c r="K7" s="233" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="404"/>
-      <c r="M7" s="404"/>
-      <c r="N7" s="404"/>
-      <c r="O7" s="404"/>
-      <c r="P7" s="384"/>
+      <c r="L7" s="399"/>
+      <c r="M7" s="399"/>
+      <c r="N7" s="399"/>
+      <c r="O7" s="399"/>
+      <c r="P7" s="380"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="282">
@@ -7002,17 +7002,17 @@
       <c r="P11" s="284"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="383">
+      <c r="A12" s="378">
         <v>320</v>
       </c>
-      <c r="B12" s="380">
+      <c r="B12" s="408">
         <v>43921</v>
       </c>
-      <c r="C12" s="383"/>
-      <c r="D12" s="383" t="s">
+      <c r="C12" s="378"/>
+      <c r="D12" s="378" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="383" t="s">
+      <c r="E12" s="378" t="s">
         <v>98</v>
       </c>
       <c r="F12" s="290" t="s">
@@ -7047,11 +7047,11 @@
       <c r="P12" s="294"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="385"/>
-      <c r="B13" s="382"/>
-      <c r="C13" s="385"/>
-      <c r="D13" s="385"/>
-      <c r="E13" s="385"/>
+      <c r="A13" s="379"/>
+      <c r="B13" s="410"/>
+      <c r="C13" s="379"/>
+      <c r="D13" s="379"/>
+      <c r="E13" s="379"/>
       <c r="F13" s="295" t="s">
         <v>42</v>
       </c>
@@ -7398,17 +7398,17 @@
       <c r="P20" s="284"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="388">
+      <c r="A21" s="381">
         <v>327</v>
       </c>
-      <c r="B21" s="389">
+      <c r="B21" s="382">
         <v>43935</v>
       </c>
-      <c r="C21" s="392"/>
-      <c r="D21" s="412" t="s">
+      <c r="C21" s="385"/>
+      <c r="D21" s="388" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="392" t="s">
+      <c r="E21" s="385" t="s">
         <v>87</v>
       </c>
       <c r="F21" s="300" t="s">
@@ -7441,11 +7441,11 @@
       <c r="P21" s="300"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="388"/>
-      <c r="B22" s="390"/>
-      <c r="C22" s="393"/>
-      <c r="D22" s="413"/>
-      <c r="E22" s="393"/>
+      <c r="A22" s="381"/>
+      <c r="B22" s="383"/>
+      <c r="C22" s="386"/>
+      <c r="D22" s="389"/>
+      <c r="E22" s="386"/>
       <c r="F22" s="303" t="s">
         <v>39</v>
       </c>
@@ -7476,11 +7476,11 @@
       <c r="P22" s="303"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="388"/>
-      <c r="B23" s="390"/>
-      <c r="C23" s="393"/>
-      <c r="D23" s="413"/>
-      <c r="E23" s="393"/>
+      <c r="A23" s="381"/>
+      <c r="B23" s="383"/>
+      <c r="C23" s="386"/>
+      <c r="D23" s="389"/>
+      <c r="E23" s="386"/>
       <c r="F23" s="303" t="s">
         <v>42</v>
       </c>
@@ -7511,11 +7511,11 @@
       <c r="P23" s="303"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="388"/>
-      <c r="B24" s="390"/>
-      <c r="C24" s="393"/>
-      <c r="D24" s="413"/>
-      <c r="E24" s="393"/>
+      <c r="A24" s="381"/>
+      <c r="B24" s="383"/>
+      <c r="C24" s="386"/>
+      <c r="D24" s="389"/>
+      <c r="E24" s="386"/>
       <c r="F24" s="303" t="s">
         <v>41</v>
       </c>
@@ -7546,11 +7546,11 @@
       <c r="P24" s="303"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="388"/>
-      <c r="B25" s="390"/>
-      <c r="C25" s="393"/>
-      <c r="D25" s="413"/>
-      <c r="E25" s="393"/>
+      <c r="A25" s="381"/>
+      <c r="B25" s="383"/>
+      <c r="C25" s="386"/>
+      <c r="D25" s="389"/>
+      <c r="E25" s="386"/>
       <c r="F25" s="303" t="s">
         <v>37</v>
       </c>
@@ -7581,11 +7581,11 @@
       <c r="P25" s="303"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="388"/>
-      <c r="B26" s="390"/>
-      <c r="C26" s="393"/>
-      <c r="D26" s="413"/>
-      <c r="E26" s="393"/>
+      <c r="A26" s="381"/>
+      <c r="B26" s="383"/>
+      <c r="C26" s="386"/>
+      <c r="D26" s="389"/>
+      <c r="E26" s="386"/>
       <c r="F26" s="303" t="s">
         <v>38</v>
       </c>
@@ -7616,11 +7616,11 @@
       <c r="P26" s="303"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="388"/>
-      <c r="B27" s="391"/>
-      <c r="C27" s="394"/>
-      <c r="D27" s="414"/>
-      <c r="E27" s="394"/>
+      <c r="A27" s="381"/>
+      <c r="B27" s="384"/>
+      <c r="C27" s="387"/>
+      <c r="D27" s="390"/>
+      <c r="E27" s="387"/>
       <c r="F27" s="306" t="s">
         <v>65</v>
       </c>
@@ -7695,19 +7695,19 @@
       <c r="P28" s="284"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="388">
+      <c r="A29" s="381">
         <v>328</v>
       </c>
-      <c r="B29" s="380">
+      <c r="B29" s="408">
         <v>43936</v>
       </c>
-      <c r="C29" s="383" t="s">
+      <c r="C29" s="378" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="383" t="s">
+      <c r="D29" s="378" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="383" t="s">
+      <c r="E29" s="378" t="s">
         <v>95</v>
       </c>
       <c r="F29" s="290" t="s">
@@ -7740,11 +7740,11 @@
       <c r="P29" s="290"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="388"/>
-      <c r="B30" s="381"/>
-      <c r="C30" s="384"/>
-      <c r="D30" s="384"/>
-      <c r="E30" s="384"/>
+      <c r="A30" s="381"/>
+      <c r="B30" s="409"/>
+      <c r="C30" s="380"/>
+      <c r="D30" s="380"/>
+      <c r="E30" s="380"/>
       <c r="F30" s="310" t="s">
         <v>36</v>
       </c>
@@ -7775,11 +7775,11 @@
       <c r="P30" s="310"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="388"/>
-      <c r="B31" s="381"/>
-      <c r="C31" s="384"/>
-      <c r="D31" s="384"/>
-      <c r="E31" s="384"/>
+      <c r="A31" s="381"/>
+      <c r="B31" s="409"/>
+      <c r="C31" s="380"/>
+      <c r="D31" s="380"/>
+      <c r="E31" s="380"/>
       <c r="F31" s="310" t="s">
         <v>39</v>
       </c>
@@ -7810,11 +7810,11 @@
       <c r="P31" s="310"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="388"/>
-      <c r="B32" s="382"/>
-      <c r="C32" s="385"/>
-      <c r="D32" s="385"/>
-      <c r="E32" s="385"/>
+      <c r="A32" s="381"/>
+      <c r="B32" s="410"/>
+      <c r="C32" s="379"/>
+      <c r="D32" s="379"/>
+      <c r="E32" s="379"/>
       <c r="F32" s="295" t="s">
         <v>65</v>
       </c>
@@ -8018,19 +8018,19 @@
       <c r="P36" s="284"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="383">
+      <c r="A37" s="378">
         <v>346</v>
       </c>
-      <c r="B37" s="389">
+      <c r="B37" s="382">
         <v>43941</v>
       </c>
-      <c r="C37" s="392" t="s">
+      <c r="C37" s="385" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="392" t="s">
+      <c r="D37" s="385" t="s">
         <v>115</v>
       </c>
-      <c r="E37" s="392" t="s">
+      <c r="E37" s="385" t="s">
         <v>116</v>
       </c>
       <c r="F37" s="290" t="s">
@@ -8063,11 +8063,11 @@
       <c r="P37" s="290"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="384"/>
-      <c r="B38" s="390"/>
-      <c r="C38" s="393"/>
-      <c r="D38" s="393"/>
-      <c r="E38" s="393"/>
+      <c r="A38" s="380"/>
+      <c r="B38" s="383"/>
+      <c r="C38" s="386"/>
+      <c r="D38" s="386"/>
+      <c r="E38" s="386"/>
       <c r="F38" s="310" t="s">
         <v>39</v>
       </c>
@@ -8098,11 +8098,11 @@
       <c r="P38" s="310"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="384"/>
-      <c r="B39" s="390"/>
-      <c r="C39" s="393"/>
-      <c r="D39" s="393"/>
-      <c r="E39" s="393"/>
+      <c r="A39" s="380"/>
+      <c r="B39" s="383"/>
+      <c r="C39" s="386"/>
+      <c r="D39" s="386"/>
+      <c r="E39" s="386"/>
       <c r="F39" s="310" t="s">
         <v>41</v>
       </c>
@@ -8133,11 +8133,11 @@
       <c r="P39" s="310"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="385"/>
-      <c r="B40" s="391"/>
-      <c r="C40" s="394"/>
-      <c r="D40" s="394"/>
-      <c r="E40" s="394"/>
+      <c r="A40" s="379"/>
+      <c r="B40" s="384"/>
+      <c r="C40" s="387"/>
+      <c r="D40" s="387"/>
+      <c r="E40" s="387"/>
       <c r="F40" s="295" t="s">
         <v>64</v>
       </c>
@@ -8168,17 +8168,17 @@
       <c r="P40" s="295"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="388">
+      <c r="A41" s="381">
         <v>345</v>
       </c>
-      <c r="B41" s="380">
+      <c r="B41" s="408">
         <v>43941</v>
       </c>
-      <c r="C41" s="383"/>
-      <c r="D41" s="383" t="s">
+      <c r="C41" s="378"/>
+      <c r="D41" s="378" t="s">
         <v>104</v>
       </c>
-      <c r="E41" s="383" t="s">
+      <c r="E41" s="378" t="s">
         <v>98</v>
       </c>
       <c r="F41" s="290" t="s">
@@ -8210,14 +8210,14 @@
         <v>6192800.0000000009</v>
       </c>
       <c r="O41" s="291"/>
-      <c r="P41" s="406"/>
+      <c r="P41" s="391"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="388"/>
-      <c r="B42" s="381"/>
-      <c r="C42" s="384"/>
-      <c r="D42" s="384"/>
-      <c r="E42" s="384"/>
+      <c r="A42" s="381"/>
+      <c r="B42" s="409"/>
+      <c r="C42" s="380"/>
+      <c r="D42" s="380"/>
+      <c r="E42" s="380"/>
       <c r="F42" s="310" t="s">
         <v>36</v>
       </c>
@@ -8245,14 +8245,14 @@
         <v>3292200.0000000005</v>
       </c>
       <c r="O42" s="311"/>
-      <c r="P42" s="408"/>
+      <c r="P42" s="393"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="388"/>
-      <c r="B43" s="381"/>
-      <c r="C43" s="384"/>
-      <c r="D43" s="384"/>
-      <c r="E43" s="384"/>
+      <c r="A43" s="381"/>
+      <c r="B43" s="409"/>
+      <c r="C43" s="380"/>
+      <c r="D43" s="380"/>
+      <c r="E43" s="380"/>
       <c r="F43" s="310" t="s">
         <v>39</v>
       </c>
@@ -8280,14 +8280,14 @@
         <v>3363000.0000000005</v>
       </c>
       <c r="O43" s="311"/>
-      <c r="P43" s="408"/>
+      <c r="P43" s="393"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="388"/>
-      <c r="B44" s="382"/>
-      <c r="C44" s="385"/>
-      <c r="D44" s="385"/>
-      <c r="E44" s="385"/>
+      <c r="A44" s="381"/>
+      <c r="B44" s="410"/>
+      <c r="C44" s="379"/>
+      <c r="D44" s="379"/>
+      <c r="E44" s="379"/>
       <c r="F44" s="295" t="s">
         <v>42</v>
       </c>
@@ -8315,22 +8315,22 @@
         <v>3433800.0000000005</v>
       </c>
       <c r="O44" s="296"/>
-      <c r="P44" s="407"/>
+      <c r="P44" s="392"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="383">
+      <c r="A45" s="378">
         <v>342</v>
       </c>
-      <c r="B45" s="389">
+      <c r="B45" s="382">
         <v>43942</v>
       </c>
-      <c r="C45" s="392" t="s">
+      <c r="C45" s="385" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="392" t="s">
+      <c r="D45" s="385" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="392" t="s">
+      <c r="E45" s="385" t="s">
         <v>73</v>
       </c>
       <c r="F45" s="290" t="s">
@@ -8360,14 +8360,14 @@
       </c>
       <c r="N45" s="291"/>
       <c r="O45" s="291"/>
-      <c r="P45" s="406"/>
+      <c r="P45" s="391"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="385"/>
-      <c r="B46" s="391"/>
-      <c r="C46" s="394"/>
-      <c r="D46" s="394"/>
-      <c r="E46" s="394"/>
+      <c r="A46" s="379"/>
+      <c r="B46" s="384"/>
+      <c r="C46" s="387"/>
+      <c r="D46" s="387"/>
+      <c r="E46" s="387"/>
       <c r="F46" s="295" t="s">
         <v>36</v>
       </c>
@@ -8395,7 +8395,7 @@
       </c>
       <c r="N46" s="296"/>
       <c r="O46" s="296"/>
-      <c r="P46" s="407"/>
+      <c r="P46" s="392"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="282">
@@ -8490,17 +8490,17 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="383">
+      <c r="A49" s="378">
         <v>452</v>
       </c>
-      <c r="B49" s="380">
+      <c r="B49" s="408">
         <v>43942</v>
       </c>
-      <c r="C49" s="383"/>
-      <c r="D49" s="383" t="s">
+      <c r="C49" s="378"/>
+      <c r="D49" s="378" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="383" t="s">
+      <c r="E49" s="378" t="s">
         <v>97</v>
       </c>
       <c r="F49" s="290" t="s">
@@ -8530,16 +8530,16 @@
         <v>6442800.0000000009</v>
       </c>
       <c r="O49" s="291"/>
-      <c r="P49" s="409" t="s">
+      <c r="P49" s="394" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="384"/>
-      <c r="B50" s="381"/>
-      <c r="C50" s="384"/>
-      <c r="D50" s="384"/>
-      <c r="E50" s="384"/>
+      <c r="A50" s="380"/>
+      <c r="B50" s="409"/>
+      <c r="C50" s="380"/>
+      <c r="D50" s="380"/>
+      <c r="E50" s="380"/>
       <c r="F50" s="310" t="s">
         <v>38</v>
       </c>
@@ -8567,14 +8567,14 @@
         <v>3221400.0000000005</v>
       </c>
       <c r="O50" s="311"/>
-      <c r="P50" s="410"/>
+      <c r="P50" s="395"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="385"/>
-      <c r="B51" s="382"/>
-      <c r="C51" s="385"/>
-      <c r="D51" s="385"/>
-      <c r="E51" s="385"/>
+      <c r="A51" s="379"/>
+      <c r="B51" s="410"/>
+      <c r="C51" s="379"/>
+      <c r="D51" s="379"/>
+      <c r="E51" s="379"/>
       <c r="F51" s="295" t="s">
         <v>65</v>
       </c>
@@ -8605,7 +8605,7 @@
         <f>L49+L50+L51-N49-N50-N51</f>
         <v>2885600.0000000019</v>
       </c>
-      <c r="P51" s="411"/>
+      <c r="P51" s="396"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="282">
@@ -8923,19 +8923,19 @@
       <c r="P58" s="284"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="383">
+      <c r="A59" s="378">
         <v>456</v>
       </c>
-      <c r="B59" s="380">
+      <c r="B59" s="408">
         <v>43946</v>
       </c>
-      <c r="C59" s="383" t="s">
+      <c r="C59" s="378" t="s">
         <v>90</v>
       </c>
-      <c r="D59" s="383" t="s">
+      <c r="D59" s="378" t="s">
         <v>118</v>
       </c>
-      <c r="E59" s="383" t="s">
+      <c r="E59" s="378" t="s">
         <v>119</v>
       </c>
       <c r="F59" s="290" t="s">
@@ -8968,11 +8968,11 @@
       <c r="P59" s="290"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="385"/>
-      <c r="B60" s="382"/>
-      <c r="C60" s="385"/>
-      <c r="D60" s="385"/>
-      <c r="E60" s="385"/>
+      <c r="A60" s="379"/>
+      <c r="B60" s="410"/>
+      <c r="C60" s="379"/>
+      <c r="D60" s="379"/>
+      <c r="E60" s="379"/>
       <c r="F60" s="295" t="s">
         <v>39</v>
       </c>
@@ -9003,17 +9003,17 @@
       <c r="P60" s="295"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="383">
+      <c r="A61" s="378">
         <v>455</v>
       </c>
-      <c r="B61" s="380">
+      <c r="B61" s="408">
         <v>43946</v>
       </c>
-      <c r="C61" s="383"/>
-      <c r="D61" s="383" t="s">
+      <c r="C61" s="378"/>
+      <c r="D61" s="378" t="s">
         <v>121</v>
       </c>
-      <c r="E61" s="383" t="s">
+      <c r="E61" s="378" t="s">
         <v>122</v>
       </c>
       <c r="F61" s="290" t="s">
@@ -9046,11 +9046,11 @@
       <c r="P61" s="290"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="384"/>
-      <c r="B62" s="381"/>
-      <c r="C62" s="384"/>
-      <c r="D62" s="384"/>
-      <c r="E62" s="384"/>
+      <c r="A62" s="380"/>
+      <c r="B62" s="409"/>
+      <c r="C62" s="380"/>
+      <c r="D62" s="380"/>
+      <c r="E62" s="380"/>
       <c r="F62" s="310" t="s">
         <v>36</v>
       </c>
@@ -9081,11 +9081,11 @@
       <c r="P62" s="310"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" s="384"/>
-      <c r="B63" s="381"/>
-      <c r="C63" s="384"/>
-      <c r="D63" s="384"/>
-      <c r="E63" s="384"/>
+      <c r="A63" s="380"/>
+      <c r="B63" s="409"/>
+      <c r="C63" s="380"/>
+      <c r="D63" s="380"/>
+      <c r="E63" s="380"/>
       <c r="F63" s="310" t="s">
         <v>39</v>
       </c>
@@ -9116,11 +9116,11 @@
       <c r="P63" s="310"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" s="384"/>
-      <c r="B64" s="381"/>
-      <c r="C64" s="384"/>
-      <c r="D64" s="384"/>
-      <c r="E64" s="384"/>
+      <c r="A64" s="380"/>
+      <c r="B64" s="409"/>
+      <c r="C64" s="380"/>
+      <c r="D64" s="380"/>
+      <c r="E64" s="380"/>
       <c r="F64" s="310" t="s">
         <v>42</v>
       </c>
@@ -9151,11 +9151,11 @@
       <c r="P64" s="310"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="384"/>
-      <c r="B65" s="381"/>
-      <c r="C65" s="384"/>
-      <c r="D65" s="384"/>
-      <c r="E65" s="384"/>
+      <c r="A65" s="380"/>
+      <c r="B65" s="409"/>
+      <c r="C65" s="380"/>
+      <c r="D65" s="380"/>
+      <c r="E65" s="380"/>
       <c r="F65" s="310" t="s">
         <v>41</v>
       </c>
@@ -9186,11 +9186,11 @@
       <c r="P65" s="310"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="384"/>
-      <c r="B66" s="381"/>
-      <c r="C66" s="384"/>
-      <c r="D66" s="384"/>
-      <c r="E66" s="384"/>
+      <c r="A66" s="380"/>
+      <c r="B66" s="409"/>
+      <c r="C66" s="380"/>
+      <c r="D66" s="380"/>
+      <c r="E66" s="380"/>
       <c r="F66" s="310" t="s">
         <v>37</v>
       </c>
@@ -9221,11 +9221,11 @@
       <c r="P66" s="310"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="384"/>
-      <c r="B67" s="381"/>
-      <c r="C67" s="384"/>
-      <c r="D67" s="384"/>
-      <c r="E67" s="384"/>
+      <c r="A67" s="380"/>
+      <c r="B67" s="409"/>
+      <c r="C67" s="380"/>
+      <c r="D67" s="380"/>
+      <c r="E67" s="380"/>
       <c r="F67" s="310" t="s">
         <v>64</v>
       </c>
@@ -9256,11 +9256,11 @@
       <c r="P67" s="310"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="384"/>
-      <c r="B68" s="381"/>
-      <c r="C68" s="384"/>
-      <c r="D68" s="384"/>
-      <c r="E68" s="384"/>
+      <c r="A68" s="380"/>
+      <c r="B68" s="409"/>
+      <c r="C68" s="380"/>
+      <c r="D68" s="380"/>
+      <c r="E68" s="380"/>
       <c r="F68" s="310" t="s">
         <v>38</v>
       </c>
@@ -9291,11 +9291,11 @@
       <c r="P68" s="310"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="385"/>
-      <c r="B69" s="382"/>
-      <c r="C69" s="385"/>
-      <c r="D69" s="385"/>
-      <c r="E69" s="385"/>
+      <c r="A69" s="379"/>
+      <c r="B69" s="410"/>
+      <c r="C69" s="379"/>
+      <c r="D69" s="379"/>
+      <c r="E69" s="379"/>
       <c r="F69" s="295" t="s">
         <v>65</v>
       </c>
@@ -9371,19 +9371,19 @@
       <c r="P70" s="284"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="392">
+      <c r="A71" s="385">
         <v>457</v>
       </c>
-      <c r="B71" s="389">
+      <c r="B71" s="382">
         <v>43947</v>
       </c>
-      <c r="C71" s="392" t="s">
+      <c r="C71" s="385" t="s">
         <v>90</v>
       </c>
-      <c r="D71" s="392" t="s">
+      <c r="D71" s="385" t="s">
         <v>154</v>
       </c>
-      <c r="E71" s="392" t="s">
+      <c r="E71" s="385" t="s">
         <v>119</v>
       </c>
       <c r="F71" s="290" t="s">
@@ -9416,11 +9416,11 @@
       <c r="P71" s="290"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="393"/>
-      <c r="B72" s="390"/>
-      <c r="C72" s="393"/>
-      <c r="D72" s="393"/>
-      <c r="E72" s="393"/>
+      <c r="A72" s="386"/>
+      <c r="B72" s="383"/>
+      <c r="C72" s="386"/>
+      <c r="D72" s="386"/>
+      <c r="E72" s="386"/>
       <c r="F72" s="310" t="s">
         <v>37</v>
       </c>
@@ -9451,11 +9451,11 @@
       <c r="P72" s="310"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="394"/>
-      <c r="B73" s="391"/>
-      <c r="C73" s="394"/>
-      <c r="D73" s="394"/>
-      <c r="E73" s="394"/>
+      <c r="A73" s="387"/>
+      <c r="B73" s="384"/>
+      <c r="C73" s="387"/>
+      <c r="D73" s="387"/>
+      <c r="E73" s="387"/>
       <c r="F73" s="295" t="s">
         <v>38</v>
       </c>
@@ -9576,19 +9576,19 @@
       <c r="P75" s="284"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76" s="383">
+      <c r="A76" s="378">
         <v>1144</v>
       </c>
-      <c r="B76" s="380">
+      <c r="B76" s="408">
         <v>43949</v>
       </c>
-      <c r="C76" s="383" t="s">
+      <c r="C76" s="378" t="s">
         <v>90</v>
       </c>
-      <c r="D76" s="383" t="s">
+      <c r="D76" s="378" t="s">
         <v>168</v>
       </c>
-      <c r="E76" s="383" t="s">
+      <c r="E76" s="378" t="s">
         <v>161</v>
       </c>
       <c r="F76" s="290" t="s">
@@ -9621,11 +9621,11 @@
       <c r="P76" s="290"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="385"/>
-      <c r="B77" s="382"/>
-      <c r="C77" s="385"/>
-      <c r="D77" s="385"/>
-      <c r="E77" s="385"/>
+      <c r="A77" s="379"/>
+      <c r="B77" s="410"/>
+      <c r="C77" s="379"/>
+      <c r="D77" s="379"/>
+      <c r="E77" s="379"/>
       <c r="F77" s="295" t="s">
         <v>38</v>
       </c>
@@ -9656,14 +9656,14 @@
       <c r="P77" s="295"/>
     </row>
     <row r="78" spans="1:17" s="238" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="386" t="s">
+      <c r="A78" s="413" t="s">
         <v>169</v>
       </c>
-      <c r="B78" s="386"/>
-      <c r="C78" s="386"/>
-      <c r="D78" s="386"/>
-      <c r="E78" s="386"/>
-      <c r="F78" s="386"/>
+      <c r="B78" s="413"/>
+      <c r="C78" s="413"/>
+      <c r="D78" s="413"/>
+      <c r="E78" s="413"/>
+      <c r="F78" s="413"/>
       <c r="G78" s="234">
         <f>SUM(G8:G77)</f>
         <v>774</v>
@@ -9683,17 +9683,17 @@
       <c r="N78" s="235"/>
       <c r="O78" s="235"/>
       <c r="P78" s="235"/>
-      <c r="Q78" s="378"/>
+      <c r="Q78" s="414"/>
     </row>
     <row r="79" spans="1:17" s="238" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="379" t="s">
+      <c r="A79" s="412" t="s">
         <v>318</v>
       </c>
-      <c r="B79" s="379"/>
-      <c r="C79" s="379"/>
-      <c r="D79" s="379"/>
-      <c r="E79" s="379"/>
-      <c r="F79" s="379"/>
+      <c r="B79" s="412"/>
+      <c r="C79" s="412"/>
+      <c r="D79" s="412"/>
+      <c r="E79" s="412"/>
+      <c r="F79" s="412"/>
       <c r="G79" s="234">
         <f>G78</f>
         <v>774</v>
@@ -9710,17 +9710,17 @@
       <c r="N79" s="239"/>
       <c r="O79" s="239"/>
       <c r="P79" s="239"/>
-      <c r="Q79" s="378"/>
+      <c r="Q79" s="414"/>
     </row>
     <row r="80" spans="1:17" s="238" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="379" t="s">
+      <c r="A80" s="412" t="s">
         <v>170</v>
       </c>
-      <c r="B80" s="379"/>
-      <c r="C80" s="379"/>
-      <c r="D80" s="379"/>
-      <c r="E80" s="379"/>
-      <c r="F80" s="379"/>
+      <c r="B80" s="412"/>
+      <c r="C80" s="412"/>
+      <c r="D80" s="412"/>
+      <c r="E80" s="412"/>
+      <c r="F80" s="412"/>
       <c r="G80" s="240" t="s">
         <v>54</v>
       </c>
@@ -9738,14 +9738,14 @@
       <c r="P80" s="241"/>
     </row>
     <row r="81" spans="1:16" s="238" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="379" t="s">
+      <c r="A81" s="412" t="s">
         <v>171</v>
       </c>
-      <c r="B81" s="379"/>
-      <c r="C81" s="379"/>
-      <c r="D81" s="379"/>
-      <c r="E81" s="379"/>
-      <c r="F81" s="379"/>
+      <c r="B81" s="412"/>
+      <c r="C81" s="412"/>
+      <c r="D81" s="412"/>
+      <c r="E81" s="412"/>
+      <c r="F81" s="412"/>
       <c r="G81" s="239"/>
       <c r="H81" s="239"/>
       <c r="I81" s="235"/>
@@ -9761,14 +9761,14 @@
       <c r="P81" s="241"/>
     </row>
     <row r="82" spans="1:16" s="238" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="379" t="s">
+      <c r="A82" s="412" t="s">
         <v>172</v>
       </c>
-      <c r="B82" s="379"/>
-      <c r="C82" s="379"/>
-      <c r="D82" s="379"/>
-      <c r="E82" s="379"/>
-      <c r="F82" s="379"/>
+      <c r="B82" s="412"/>
+      <c r="C82" s="412"/>
+      <c r="D82" s="412"/>
+      <c r="E82" s="412"/>
+      <c r="F82" s="412"/>
       <c r="G82" s="239"/>
       <c r="H82" s="239"/>
       <c r="I82" s="235"/>
@@ -9839,13 +9839,68 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="85">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="B61:B69"/>
+    <mergeCell ref="C61:C69"/>
+    <mergeCell ref="D61:D69"/>
+    <mergeCell ref="E61:E69"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="P41:P44"/>
+    <mergeCell ref="P49:P51"/>
     <mergeCell ref="B21:B27"/>
     <mergeCell ref="C21:C27"/>
     <mergeCell ref="D21:D27"/>
@@ -9862,68 +9917,13 @@
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="D29:D32"/>
     <mergeCell ref="E29:E32"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="P41:P44"/>
-    <mergeCell ref="P49:P51"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="B61:B69"/>
-    <mergeCell ref="C61:C69"/>
-    <mergeCell ref="D61:D69"/>
-    <mergeCell ref="E61:E69"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A29:A32"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10430,75 +10430,75 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="432" t="s">
+      <c r="A3" s="425" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="432"/>
-      <c r="C3" s="432"/>
-      <c r="D3" s="432"/>
-      <c r="E3" s="432"/>
-      <c r="F3" s="432"/>
-      <c r="G3" s="432"/>
-      <c r="H3" s="432"/>
-      <c r="I3" s="432"/>
-      <c r="J3" s="432"/>
-      <c r="K3" s="432"/>
+      <c r="B3" s="425"/>
+      <c r="C3" s="425"/>
+      <c r="D3" s="425"/>
+      <c r="E3" s="425"/>
+      <c r="F3" s="425"/>
+      <c r="G3" s="425"/>
+      <c r="H3" s="425"/>
+      <c r="I3" s="425"/>
+      <c r="J3" s="425"/>
+      <c r="K3" s="425"/>
       <c r="L3" s="329"/>
       <c r="M3" s="329"/>
       <c r="N3" s="329"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="433" t="s">
+      <c r="A4" s="426" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="433"/>
-      <c r="C4" s="433"/>
-      <c r="D4" s="433"/>
-      <c r="E4" s="433"/>
-      <c r="F4" s="433"/>
-      <c r="G4" s="433"/>
-      <c r="H4" s="433"/>
-      <c r="I4" s="433"/>
-      <c r="J4" s="434"/>
-      <c r="K4" s="433"/>
+      <c r="B4" s="426"/>
+      <c r="C4" s="426"/>
+      <c r="D4" s="426"/>
+      <c r="E4" s="426"/>
+      <c r="F4" s="426"/>
+      <c r="G4" s="426"/>
+      <c r="H4" s="426"/>
+      <c r="I4" s="426"/>
+      <c r="J4" s="427"/>
+      <c r="K4" s="426"/>
       <c r="L4" s="330"/>
       <c r="M4" s="330"/>
       <c r="N4" s="330"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="435" t="s">
+      <c r="A5" s="428" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="436" t="s">
+      <c r="B5" s="429" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="435" t="s">
+      <c r="C5" s="428" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="435" t="s">
+      <c r="D5" s="428" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="435"/>
-      <c r="F5" s="437" t="s">
+      <c r="E5" s="428"/>
+      <c r="F5" s="430" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="437"/>
-      <c r="H5" s="437"/>
-      <c r="I5" s="437"/>
-      <c r="J5" s="438"/>
-      <c r="K5" s="439" t="s">
+      <c r="G5" s="430"/>
+      <c r="H5" s="430"/>
+      <c r="I5" s="430"/>
+      <c r="J5" s="431"/>
+      <c r="K5" s="432" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="431" t="s">
+      <c r="L5" s="422" t="s">
         <v>311</v>
       </c>
-      <c r="M5" s="431"/>
-      <c r="N5" s="431"/>
+      <c r="M5" s="422"/>
+      <c r="N5" s="422"/>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="435"/>
-      <c r="B6" s="436"/>
-      <c r="C6" s="435"/>
+      <c r="A6" s="428"/>
+      <c r="B6" s="429"/>
+      <c r="C6" s="428"/>
       <c r="D6" s="344" t="s">
         <v>49</v>
       </c>
@@ -10520,7 +10520,7 @@
       <c r="J6" s="347" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="439"/>
+      <c r="K6" s="432"/>
       <c r="L6" s="334" t="s">
         <v>62</v>
       </c>
@@ -10532,17 +10532,17 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="429">
+      <c r="A7" s="420">
         <v>1130</v>
       </c>
-      <c r="B7" s="440">
+      <c r="B7" s="433">
         <v>43937</v>
       </c>
-      <c r="C7" s="429"/>
-      <c r="D7" s="429" t="s">
+      <c r="C7" s="420"/>
+      <c r="D7" s="420" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="429" t="s">
+      <c r="E7" s="420" t="s">
         <v>87</v>
       </c>
       <c r="F7" s="102" t="s">
@@ -10573,11 +10573,11 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="430"/>
-      <c r="B8" s="441"/>
-      <c r="C8" s="430"/>
-      <c r="D8" s="430"/>
-      <c r="E8" s="430"/>
+      <c r="A8" s="421"/>
+      <c r="B8" s="434"/>
+      <c r="C8" s="421"/>
+      <c r="D8" s="421"/>
+      <c r="E8" s="421"/>
       <c r="F8" s="348" t="s">
         <v>42</v>
       </c>
@@ -10606,17 +10606,17 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="423">
+      <c r="A9" s="435">
         <v>333</v>
       </c>
-      <c r="B9" s="420">
+      <c r="B9" s="437">
         <v>43940</v>
       </c>
-      <c r="C9" s="423"/>
-      <c r="D9" s="423" t="s">
+      <c r="C9" s="435"/>
+      <c r="D9" s="435" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="423" t="s">
+      <c r="E9" s="435" t="s">
         <v>97</v>
       </c>
       <c r="F9" s="102" t="s">
@@ -10647,11 +10647,11 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="424"/>
-      <c r="B10" s="421"/>
-      <c r="C10" s="424"/>
-      <c r="D10" s="424"/>
-      <c r="E10" s="424"/>
+      <c r="A10" s="436"/>
+      <c r="B10" s="438"/>
+      <c r="C10" s="436"/>
+      <c r="D10" s="436"/>
+      <c r="E10" s="436"/>
       <c r="F10" s="104" t="s">
         <v>41</v>
       </c>
@@ -10680,11 +10680,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="424"/>
-      <c r="B11" s="421"/>
-      <c r="C11" s="424"/>
-      <c r="D11" s="424"/>
-      <c r="E11" s="424"/>
+      <c r="A11" s="436"/>
+      <c r="B11" s="438"/>
+      <c r="C11" s="436"/>
+      <c r="D11" s="436"/>
+      <c r="E11" s="436"/>
       <c r="F11" s="104" t="s">
         <v>37</v>
       </c>
@@ -10713,11 +10713,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="424"/>
-      <c r="B12" s="421"/>
-      <c r="C12" s="424"/>
-      <c r="D12" s="424"/>
-      <c r="E12" s="424"/>
+      <c r="A12" s="436"/>
+      <c r="B12" s="438"/>
+      <c r="C12" s="436"/>
+      <c r="D12" s="436"/>
+      <c r="E12" s="436"/>
       <c r="F12" s="104" t="s">
         <v>64</v>
       </c>
@@ -10746,11 +10746,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="424"/>
-      <c r="B13" s="421"/>
-      <c r="C13" s="424"/>
-      <c r="D13" s="424"/>
-      <c r="E13" s="424"/>
+      <c r="A13" s="436"/>
+      <c r="B13" s="438"/>
+      <c r="C13" s="436"/>
+      <c r="D13" s="436"/>
+      <c r="E13" s="436"/>
       <c r="F13" s="104" t="s">
         <v>38</v>
       </c>
@@ -10779,11 +10779,11 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="425"/>
-      <c r="B14" s="422"/>
-      <c r="C14" s="425"/>
-      <c r="D14" s="425"/>
-      <c r="E14" s="425"/>
+      <c r="A14" s="424"/>
+      <c r="B14" s="439"/>
+      <c r="C14" s="424"/>
+      <c r="D14" s="424"/>
+      <c r="E14" s="424"/>
       <c r="F14" s="106" t="s">
         <v>65</v>
       </c>
@@ -10812,17 +10812,17 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="423">
+      <c r="A15" s="435">
         <v>332</v>
       </c>
-      <c r="B15" s="420">
+      <c r="B15" s="437">
         <v>43940</v>
       </c>
-      <c r="C15" s="423"/>
-      <c r="D15" s="423" t="s">
+      <c r="C15" s="435"/>
+      <c r="D15" s="435" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="423" t="s">
+      <c r="E15" s="435" t="s">
         <v>101</v>
       </c>
       <c r="F15" s="102" t="s">
@@ -10853,11 +10853,11 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="424"/>
-      <c r="B16" s="421"/>
-      <c r="C16" s="424"/>
-      <c r="D16" s="424"/>
-      <c r="E16" s="424"/>
+      <c r="A16" s="436"/>
+      <c r="B16" s="438"/>
+      <c r="C16" s="436"/>
+      <c r="D16" s="436"/>
+      <c r="E16" s="436"/>
       <c r="F16" s="104" t="s">
         <v>36</v>
       </c>
@@ -10886,11 +10886,11 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="424"/>
-      <c r="B17" s="421"/>
-      <c r="C17" s="424"/>
-      <c r="D17" s="424"/>
-      <c r="E17" s="424"/>
+      <c r="A17" s="436"/>
+      <c r="B17" s="438"/>
+      <c r="C17" s="436"/>
+      <c r="D17" s="436"/>
+      <c r="E17" s="436"/>
       <c r="F17" s="104" t="s">
         <v>39</v>
       </c>
@@ -10919,11 +10919,11 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="424"/>
-      <c r="B18" s="421"/>
-      <c r="C18" s="424"/>
-      <c r="D18" s="424"/>
-      <c r="E18" s="424"/>
+      <c r="A18" s="436"/>
+      <c r="B18" s="438"/>
+      <c r="C18" s="436"/>
+      <c r="D18" s="436"/>
+      <c r="E18" s="436"/>
       <c r="F18" s="104" t="s">
         <v>42</v>
       </c>
@@ -10952,11 +10952,11 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="424"/>
-      <c r="B19" s="421"/>
-      <c r="C19" s="424"/>
-      <c r="D19" s="424"/>
-      <c r="E19" s="424"/>
+      <c r="A19" s="436"/>
+      <c r="B19" s="438"/>
+      <c r="C19" s="436"/>
+      <c r="D19" s="436"/>
+      <c r="E19" s="436"/>
       <c r="F19" s="104" t="s">
         <v>37</v>
       </c>
@@ -10985,11 +10985,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="425"/>
-      <c r="B20" s="422"/>
-      <c r="C20" s="425"/>
-      <c r="D20" s="425"/>
-      <c r="E20" s="425"/>
+      <c r="A20" s="424"/>
+      <c r="B20" s="439"/>
+      <c r="C20" s="424"/>
+      <c r="D20" s="424"/>
+      <c r="E20" s="424"/>
       <c r="F20" s="106" t="s">
         <v>65</v>
       </c>
@@ -11018,17 +11018,17 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="427">
+      <c r="A21" s="423">
         <v>775</v>
       </c>
-      <c r="B21" s="428">
+      <c r="B21" s="441">
         <v>43944</v>
       </c>
-      <c r="C21" s="427"/>
-      <c r="D21" s="427" t="s">
+      <c r="C21" s="423"/>
+      <c r="D21" s="423" t="s">
         <v>275</v>
       </c>
-      <c r="E21" s="427" t="s">
+      <c r="E21" s="423" t="s">
         <v>198</v>
       </c>
       <c r="F21" s="353" t="s">
@@ -11059,11 +11059,11 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="425"/>
-      <c r="B22" s="422"/>
-      <c r="C22" s="425"/>
-      <c r="D22" s="425"/>
-      <c r="E22" s="425"/>
+      <c r="A22" s="424"/>
+      <c r="B22" s="439"/>
+      <c r="C22" s="424"/>
+      <c r="D22" s="424"/>
+      <c r="E22" s="424"/>
       <c r="F22" s="106" t="s">
         <v>42</v>
       </c>
@@ -11135,13 +11135,13 @@
       </c>
     </row>
     <row r="24" spans="1:14" s="202" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="426" t="s">
+      <c r="A24" s="440" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="426"/>
-      <c r="C24" s="426"/>
-      <c r="D24" s="426"/>
-      <c r="E24" s="426"/>
+      <c r="B24" s="440"/>
+      <c r="C24" s="440"/>
+      <c r="D24" s="440"/>
+      <c r="E24" s="440"/>
       <c r="F24" s="198"/>
       <c r="G24" s="198">
         <f>SUM(G7:G23)</f>
@@ -11232,6 +11232,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="D21:D22"/>
@@ -11248,20 +11262,6 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="E15:E20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -11324,17 +11324,17 @@
       <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="449" t="s">
+      <c r="A4" s="445" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="449"/>
-      <c r="C4" s="449"/>
-      <c r="D4" s="449"/>
-      <c r="E4" s="449"/>
-      <c r="F4" s="449"/>
-      <c r="G4" s="449"/>
-      <c r="H4" s="449"/>
-      <c r="I4" s="449"/>
+      <c r="B4" s="445"/>
+      <c r="C4" s="445"/>
+      <c r="D4" s="445"/>
+      <c r="E4" s="445"/>
+      <c r="F4" s="445"/>
+      <c r="G4" s="445"/>
+      <c r="H4" s="445"/>
+      <c r="I4" s="445"/>
       <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -11350,33 +11350,33 @@
       <c r="J5" s="45"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="450" t="s">
+      <c r="A6" s="446" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="451" t="s">
+      <c r="B6" s="447" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="450" t="s">
+      <c r="C6" s="446" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="452" t="s">
+      <c r="D6" s="448" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="452"/>
-      <c r="F6" s="452"/>
-      <c r="G6" s="452"/>
-      <c r="H6" s="453"/>
-      <c r="I6" s="450" t="s">
+      <c r="E6" s="448"/>
+      <c r="F6" s="448"/>
+      <c r="G6" s="448"/>
+      <c r="H6" s="449"/>
+      <c r="I6" s="446" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="447" t="s">
+      <c r="J6" s="443" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="450"/>
-      <c r="B7" s="451"/>
-      <c r="C7" s="450"/>
+      <c r="A7" s="446"/>
+      <c r="B7" s="447"/>
+      <c r="C7" s="446"/>
       <c r="D7" s="47" t="s">
         <v>30</v>
       </c>
@@ -11392,8 +11392,8 @@
       <c r="H7" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="450"/>
-      <c r="J7" s="448"/>
+      <c r="I7" s="446"/>
+      <c r="J7" s="444"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="134">
@@ -11496,10 +11496,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
-      <c r="B11" s="446" t="s">
+      <c r="B11" s="442" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="446"/>
+      <c r="C11" s="442"/>
       <c r="D11" s="54"/>
       <c r="E11" s="54"/>
       <c r="F11" s="54"/>
@@ -11518,17 +11518,17 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="442" t="s">
+      <c r="A12" s="450" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="443"/>
-      <c r="C12" s="443"/>
-      <c r="D12" s="443"/>
-      <c r="E12" s="443"/>
-      <c r="F12" s="443"/>
-      <c r="G12" s="443"/>
-      <c r="H12" s="443"/>
-      <c r="I12" s="444"/>
+      <c r="B12" s="451"/>
+      <c r="C12" s="451"/>
+      <c r="D12" s="451"/>
+      <c r="E12" s="451"/>
+      <c r="F12" s="451"/>
+      <c r="G12" s="451"/>
+      <c r="H12" s="451"/>
+      <c r="I12" s="452"/>
       <c r="J12" s="142" t="s">
         <v>160</v>
       </c>
@@ -11537,31 +11537,36 @@
       <c r="G13" s="57"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="445"/>
-      <c r="B14" s="445"/>
-      <c r="C14" s="445"/>
-      <c r="E14" s="445" t="s">
+      <c r="A14" s="453"/>
+      <c r="B14" s="453"/>
+      <c r="C14" s="453"/>
+      <c r="E14" s="453" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="445"/>
-      <c r="G14" s="445"/>
-      <c r="H14" s="445"/>
-      <c r="I14" s="445"/>
+      <c r="F14" s="453"/>
+      <c r="G14" s="453"/>
+      <c r="H14" s="453"/>
+      <c r="I14" s="453"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="445"/>
-      <c r="B19" s="445"/>
-      <c r="C19" s="445"/>
-      <c r="E19" s="445" t="s">
+      <c r="A19" s="453"/>
+      <c r="B19" s="453"/>
+      <c r="C19" s="453"/>
+      <c r="E19" s="453" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="445"/>
-      <c r="G19" s="445"/>
-      <c r="H19" s="445"/>
-      <c r="I19" s="445"/>
+      <c r="F19" s="453"/>
+      <c r="G19" s="453"/>
+      <c r="H19" s="453"/>
+      <c r="I19" s="453"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E19:I19"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="A4:I4"/>
@@ -11570,11 +11575,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="E19:I19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -11604,13 +11604,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="465" t="s">
+      <c r="A1" s="460" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="465"/>
-      <c r="C1" s="465"/>
-      <c r="D1" s="465"/>
-      <c r="E1" s="465"/>
+      <c r="B1" s="460"/>
+      <c r="C1" s="460"/>
+      <c r="D1" s="460"/>
+      <c r="E1" s="460"/>
       <c r="F1" s="42"/>
       <c r="G1" s="42"/>
       <c r="H1" s="42"/>
@@ -11638,16 +11638,16 @@
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="449" t="s">
+      <c r="A4" s="445" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="449"/>
-      <c r="C4" s="449"/>
-      <c r="D4" s="449"/>
-      <c r="E4" s="449"/>
-      <c r="F4" s="449"/>
-      <c r="G4" s="449"/>
-      <c r="H4" s="449"/>
+      <c r="B4" s="445"/>
+      <c r="C4" s="445"/>
+      <c r="D4" s="445"/>
+      <c r="E4" s="445"/>
+      <c r="F4" s="445"/>
+      <c r="G4" s="445"/>
+      <c r="H4" s="445"/>
       <c r="I4" s="45"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -11662,29 +11662,29 @@
       <c r="I5" s="45"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="450" t="s">
+      <c r="A6" s="446" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="451" t="s">
+      <c r="B6" s="447" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="452" t="s">
+      <c r="C6" s="448" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="452"/>
-      <c r="E6" s="452"/>
-      <c r="F6" s="452"/>
-      <c r="G6" s="453"/>
-      <c r="H6" s="450" t="s">
+      <c r="D6" s="448"/>
+      <c r="E6" s="448"/>
+      <c r="F6" s="448"/>
+      <c r="G6" s="449"/>
+      <c r="H6" s="446" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="452" t="s">
+      <c r="I6" s="448" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="450"/>
-      <c r="B7" s="451"/>
+      <c r="A7" s="446"/>
+      <c r="B7" s="447"/>
       <c r="C7" s="248" t="s">
         <v>30</v>
       </c>
@@ -11700,8 +11700,8 @@
       <c r="G7" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="450"/>
-      <c r="I7" s="452"/>
+      <c r="H7" s="446"/>
+      <c r="I7" s="448"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="224">
@@ -11799,10 +11799,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="459">
+      <c r="A11" s="454">
         <v>328</v>
       </c>
-      <c r="B11" s="462">
+      <c r="B11" s="457">
         <v>43936</v>
       </c>
       <c r="C11" s="88" t="s">
@@ -11831,8 +11831,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="460"/>
-      <c r="B12" s="463"/>
+      <c r="A12" s="455"/>
+      <c r="B12" s="458"/>
       <c r="C12" s="91" t="s">
         <v>36</v>
       </c>
@@ -11859,8 +11859,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="460"/>
-      <c r="B13" s="463"/>
+      <c r="A13" s="455"/>
+      <c r="B13" s="458"/>
       <c r="C13" s="91" t="s">
         <v>39</v>
       </c>
@@ -11887,8 +11887,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="461"/>
-      <c r="B14" s="464"/>
+      <c r="A14" s="456"/>
+      <c r="B14" s="459"/>
       <c r="C14" s="215" t="s">
         <v>65</v>
       </c>
@@ -11947,10 +11947,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="207" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="455">
+      <c r="A16" s="462">
         <v>342</v>
       </c>
-      <c r="B16" s="457">
+      <c r="B16" s="464">
         <v>43942</v>
       </c>
       <c r="C16" s="267" t="s">
@@ -11979,8 +11979,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="207" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="456"/>
-      <c r="B17" s="458"/>
+      <c r="A17" s="463"/>
+      <c r="B17" s="465"/>
       <c r="C17" s="273" t="s">
         <v>36</v>
       </c>
@@ -12128,32 +12128,32 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="452" t="s">
+      <c r="A22" s="448" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="452"/>
-      <c r="C22" s="452"/>
-      <c r="D22" s="452"/>
-      <c r="E22" s="452"/>
-      <c r="F22" s="452"/>
-      <c r="G22" s="452"/>
-      <c r="H22" s="452"/>
+      <c r="B22" s="448"/>
+      <c r="C22" s="448"/>
+      <c r="D22" s="448"/>
+      <c r="E22" s="448"/>
+      <c r="F22" s="448"/>
+      <c r="G22" s="448"/>
+      <c r="H22" s="448"/>
       <c r="I22" s="131">
         <f>1088000-I16-I17</f>
         <v>270849.99999999988</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="454" t="s">
+      <c r="A23" s="461" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="454"/>
-      <c r="C23" s="454"/>
-      <c r="D23" s="454"/>
-      <c r="E23" s="454"/>
-      <c r="F23" s="454"/>
-      <c r="G23" s="454"/>
-      <c r="H23" s="454"/>
+      <c r="B23" s="461"/>
+      <c r="C23" s="461"/>
+      <c r="D23" s="461"/>
+      <c r="E23" s="461"/>
+      <c r="F23" s="461"/>
+      <c r="G23" s="461"/>
+      <c r="H23" s="461"/>
       <c r="I23" s="56">
         <f>H8-I22</f>
         <v>2950550.0000000005</v>
@@ -12208,8 +12208,8 @@
       <c r="H27" s="57"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="445"/>
-      <c r="B29" s="445"/>
+      <c r="A29" s="453"/>
+      <c r="B29" s="453"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -12217,6 +12217,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:B14"/>
@@ -12226,11 +12231,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -13523,14 +13523,14 @@
       <c r="L17" s="118"/>
     </row>
     <row r="19" spans="1:12" s="77" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="432"/>
-      <c r="C19" s="432"/>
-      <c r="D19" s="432"/>
+      <c r="B19" s="425"/>
+      <c r="C19" s="425"/>
+      <c r="D19" s="425"/>
       <c r="E19" s="115"/>
-      <c r="H19" s="432"/>
-      <c r="I19" s="432"/>
-      <c r="J19" s="432"/>
-      <c r="K19" s="432"/>
+      <c r="H19" s="425"/>
+      <c r="I19" s="425"/>
+      <c r="J19" s="425"/>
+      <c r="K19" s="425"/>
     </row>
     <row r="20" spans="1:12" s="77" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B20" s="246" t="s">
@@ -13542,12 +13542,12 @@
         <v>197</v>
       </c>
       <c r="G20" s="246"/>
-      <c r="H20" s="432" t="s">
+      <c r="H20" s="425" t="s">
         <v>279</v>
       </c>
-      <c r="I20" s="432"/>
-      <c r="J20" s="432"/>
-      <c r="K20" s="432"/>
+      <c r="I20" s="425"/>
+      <c r="J20" s="425"/>
+      <c r="K20" s="425"/>
     </row>
     <row r="21" spans="1:12" s="249" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B21" s="250" t="s">
